--- a/wpftest/Org_거래명세표.xlsx
+++ b/wpftest/Org_거래명세표.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KMJ\MES_YoungNam\wpftest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KMJ\MES_GLS\wpftest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF38C494-7084-4EE2-AB1C-965838177AD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EB1051E-D8D3-4446-B2FA-5967C57D4C19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="712" xr2:uid="{4E48EB75-1A5B-4918-90D6-8E538768FA13}"/>
+    <workbookView xWindow="-38520" yWindow="-2175" windowWidth="38640" windowHeight="21120" tabRatio="712" xr2:uid="{4E48EB75-1A5B-4918-90D6-8E538768FA13}"/>
   </bookViews>
   <sheets>
     <sheet name="Form" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="52">
   <si>
     <t>공급받는자</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -248,7 +248,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>품          목</t>
+    <t>품          명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>품         번</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -513,7 +517,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="109">
+  <borders count="111">
     <border>
       <left/>
       <right/>
@@ -1933,6 +1937,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="12"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="12"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="10"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1942,7 +1972,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="221">
+  <cellXfs count="223">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2036,6 +2066,130 @@
     <xf numFmtId="179" fontId="13" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="104" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="110" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="109" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="12" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2096,340 +2250,276 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="12" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="12" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="12" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="55" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="56" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="58" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="59" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="25" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="25" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="14" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="14" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="14" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="14" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="25" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="29" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="14" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="14" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="14" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="14" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="29" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="29" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="55" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="56" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="58" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="59" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="25" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="25" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="14" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="14" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="14" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="14" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="25" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="29" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="14" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="14" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="14" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="14" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="29" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="29" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="178" fontId="3" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2552,60 +2642,6 @@
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="104" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2614,6 +2650,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0066FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2915,10 +2956,10 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI53"/>
+  <dimension ref="A2:AI53"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18:O18"/>
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" view="pageBreakPreview" zoomScale="190" zoomScaleNormal="100" zoomScaleSheetLayoutView="190" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30:H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.296875" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2934,14 +2975,6 @@
     <col min="36" max="16384" width="2.296875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2">
-        <v>2</v>
-      </c>
-    </row>
     <row r="2" spans="1:34" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
@@ -2954,383 +2987,383 @@
       <c r="A3" s="7"/>
     </row>
     <row r="4" spans="1:34" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="34" t="s">
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="35"/>
-      <c r="S4" s="35"/>
-      <c r="T4" s="35"/>
-      <c r="U4" s="35"/>
-      <c r="V4" s="35"/>
-      <c r="W4" s="35"/>
-      <c r="X4" s="35"/>
-      <c r="Y4" s="35"/>
-      <c r="Z4" s="35"/>
-      <c r="AA4" s="35"/>
-      <c r="AB4" s="36"/>
-      <c r="AC4" s="56"/>
-      <c r="AD4" s="57"/>
-      <c r="AE4" s="57"/>
-      <c r="AF4" s="57"/>
-      <c r="AG4" s="57"/>
-      <c r="AH4" s="58"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="76"/>
+      <c r="P4" s="76"/>
+      <c r="Q4" s="76"/>
+      <c r="R4" s="76"/>
+      <c r="S4" s="76"/>
+      <c r="T4" s="76"/>
+      <c r="U4" s="76"/>
+      <c r="V4" s="76"/>
+      <c r="W4" s="76"/>
+      <c r="X4" s="76"/>
+      <c r="Y4" s="76"/>
+      <c r="Z4" s="76"/>
+      <c r="AA4" s="76"/>
+      <c r="AB4" s="77"/>
+      <c r="AC4" s="44"/>
+      <c r="AD4" s="45"/>
+      <c r="AE4" s="45"/>
+      <c r="AF4" s="45"/>
+      <c r="AG4" s="45"/>
+      <c r="AH4" s="46"/>
     </row>
     <row r="5" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="40"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="38"/>
-      <c r="S5" s="38"/>
-      <c r="T5" s="38"/>
-      <c r="U5" s="38"/>
-      <c r="V5" s="38"/>
-      <c r="W5" s="38"/>
-      <c r="X5" s="38"/>
-      <c r="Y5" s="38"/>
-      <c r="Z5" s="38"/>
-      <c r="AA5" s="38"/>
-      <c r="AB5" s="39"/>
-      <c r="AC5" s="59"/>
-      <c r="AD5" s="59"/>
-      <c r="AE5" s="59"/>
-      <c r="AF5" s="59"/>
-      <c r="AG5" s="59"/>
-      <c r="AH5" s="60"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="79"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="79"/>
+      <c r="R5" s="79"/>
+      <c r="S5" s="79"/>
+      <c r="T5" s="79"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
+      <c r="W5" s="79"/>
+      <c r="X5" s="79"/>
+      <c r="Y5" s="79"/>
+      <c r="Z5" s="79"/>
+      <c r="AA5" s="79"/>
+      <c r="AB5" s="80"/>
+      <c r="AC5" s="47"/>
+      <c r="AD5" s="47"/>
+      <c r="AE5" s="47"/>
+      <c r="AF5" s="47"/>
+      <c r="AG5" s="47"/>
+      <c r="AH5" s="48"/>
     </row>
     <row r="6" spans="1:34" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="45" t="s">
+      <c r="D6" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="107"/>
-      <c r="H6" s="108"/>
-      <c r="I6" s="108"/>
-      <c r="J6" s="108"/>
-      <c r="K6" s="108"/>
-      <c r="L6" s="108"/>
-      <c r="M6" s="108"/>
-      <c r="N6" s="108"/>
-      <c r="O6" s="108"/>
-      <c r="P6" s="108"/>
-      <c r="Q6" s="67" t="s">
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="123"/>
+      <c r="H6" s="124"/>
+      <c r="I6" s="124"/>
+      <c r="J6" s="124"/>
+      <c r="K6" s="124"/>
+      <c r="L6" s="124"/>
+      <c r="M6" s="124"/>
+      <c r="N6" s="124"/>
+      <c r="O6" s="124"/>
+      <c r="P6" s="124"/>
+      <c r="Q6" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="R6" s="67"/>
-      <c r="S6" s="46" t="s">
+      <c r="R6" s="55"/>
+      <c r="S6" s="87" t="s">
         <v>27</v>
       </c>
-      <c r="T6" s="45" t="s">
+      <c r="T6" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="U6" s="45"/>
-      <c r="V6" s="45"/>
-      <c r="W6" s="61"/>
-      <c r="X6" s="62"/>
-      <c r="Y6" s="62"/>
-      <c r="Z6" s="62"/>
-      <c r="AA6" s="62"/>
-      <c r="AB6" s="62"/>
-      <c r="AC6" s="62"/>
-      <c r="AD6" s="62"/>
-      <c r="AE6" s="62"/>
-      <c r="AF6" s="62"/>
-      <c r="AG6" s="62"/>
-      <c r="AH6" s="63"/>
+      <c r="U6" s="86"/>
+      <c r="V6" s="86"/>
+      <c r="W6" s="49"/>
+      <c r="X6" s="50"/>
+      <c r="Y6" s="50"/>
+      <c r="Z6" s="50"/>
+      <c r="AA6" s="50"/>
+      <c r="AB6" s="50"/>
+      <c r="AC6" s="50"/>
+      <c r="AD6" s="50"/>
+      <c r="AE6" s="50"/>
+      <c r="AF6" s="50"/>
+      <c r="AG6" s="50"/>
+      <c r="AH6" s="51"/>
     </row>
     <row r="7" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="43"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="107"/>
-      <c r="H7" s="108"/>
-      <c r="I7" s="108"/>
-      <c r="J7" s="108"/>
-      <c r="K7" s="108"/>
-      <c r="L7" s="108"/>
-      <c r="M7" s="108"/>
-      <c r="N7" s="108"/>
-      <c r="O7" s="108"/>
-      <c r="P7" s="108"/>
-      <c r="Q7" s="67"/>
-      <c r="R7" s="67"/>
-      <c r="S7" s="46"/>
-      <c r="T7" s="45"/>
-      <c r="U7" s="45"/>
-      <c r="V7" s="45"/>
-      <c r="W7" s="64"/>
-      <c r="X7" s="65"/>
-      <c r="Y7" s="65"/>
-      <c r="Z7" s="65"/>
-      <c r="AA7" s="65"/>
-      <c r="AB7" s="65"/>
-      <c r="AC7" s="65"/>
-      <c r="AD7" s="65"/>
-      <c r="AE7" s="65"/>
-      <c r="AF7" s="65"/>
-      <c r="AG7" s="65"/>
-      <c r="AH7" s="66"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="123"/>
+      <c r="H7" s="124"/>
+      <c r="I7" s="124"/>
+      <c r="J7" s="124"/>
+      <c r="K7" s="124"/>
+      <c r="L7" s="124"/>
+      <c r="M7" s="124"/>
+      <c r="N7" s="124"/>
+      <c r="O7" s="124"/>
+      <c r="P7" s="124"/>
+      <c r="Q7" s="55"/>
+      <c r="R7" s="55"/>
+      <c r="S7" s="87"/>
+      <c r="T7" s="86"/>
+      <c r="U7" s="86"/>
+      <c r="V7" s="86"/>
+      <c r="W7" s="52"/>
+      <c r="X7" s="53"/>
+      <c r="Y7" s="53"/>
+      <c r="Z7" s="53"/>
+      <c r="AA7" s="53"/>
+      <c r="AB7" s="53"/>
+      <c r="AC7" s="53"/>
+      <c r="AD7" s="53"/>
+      <c r="AE7" s="53"/>
+      <c r="AF7" s="53"/>
+      <c r="AG7" s="53"/>
+      <c r="AH7" s="54"/>
     </row>
     <row r="8" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="43"/>
-      <c r="D8" s="45" t="s">
+      <c r="C8" s="84"/>
+      <c r="D8" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="48"/>
-      <c r="S8" s="46"/>
-      <c r="T8" s="45" t="s">
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="89"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="89"/>
+      <c r="K8" s="89"/>
+      <c r="L8" s="89"/>
+      <c r="M8" s="89"/>
+      <c r="N8" s="89"/>
+      <c r="O8" s="89"/>
+      <c r="P8" s="89"/>
+      <c r="Q8" s="89"/>
+      <c r="R8" s="89"/>
+      <c r="S8" s="87"/>
+      <c r="T8" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="U8" s="45"/>
-      <c r="V8" s="45"/>
-      <c r="W8" s="106"/>
-      <c r="X8" s="106"/>
-      <c r="Y8" s="106"/>
-      <c r="Z8" s="106"/>
-      <c r="AA8" s="106"/>
-      <c r="AB8" s="106"/>
-      <c r="AC8" s="106"/>
-      <c r="AD8" s="51" t="s">
+      <c r="U8" s="86"/>
+      <c r="V8" s="86"/>
+      <c r="W8" s="122"/>
+      <c r="X8" s="122"/>
+      <c r="Y8" s="122"/>
+      <c r="Z8" s="122"/>
+      <c r="AA8" s="122"/>
+      <c r="AB8" s="122"/>
+      <c r="AC8" s="122"/>
+      <c r="AD8" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="AE8" s="52"/>
-      <c r="AF8" s="52"/>
-      <c r="AG8" s="52"/>
-      <c r="AH8" s="53"/>
+      <c r="AE8" s="92"/>
+      <c r="AF8" s="92"/>
+      <c r="AG8" s="92"/>
+      <c r="AH8" s="93"/>
     </row>
     <row r="9" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="43"/>
-      <c r="D9" s="45" t="s">
+      <c r="C9" s="84"/>
+      <c r="D9" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="48"/>
-      <c r="P9" s="48"/>
-      <c r="Q9" s="48"/>
-      <c r="R9" s="48"/>
-      <c r="S9" s="46"/>
-      <c r="T9" s="45" t="s">
+      <c r="E9" s="86"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="89"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="89"/>
+      <c r="J9" s="89"/>
+      <c r="K9" s="89"/>
+      <c r="L9" s="89"/>
+      <c r="M9" s="89"/>
+      <c r="N9" s="89"/>
+      <c r="O9" s="89"/>
+      <c r="P9" s="89"/>
+      <c r="Q9" s="89"/>
+      <c r="R9" s="89"/>
+      <c r="S9" s="87"/>
+      <c r="T9" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="U9" s="45"/>
-      <c r="V9" s="45"/>
-      <c r="W9" s="106"/>
-      <c r="X9" s="106"/>
-      <c r="Y9" s="106"/>
-      <c r="Z9" s="106"/>
-      <c r="AA9" s="106"/>
-      <c r="AB9" s="106"/>
-      <c r="AC9" s="106"/>
-      <c r="AD9" s="51"/>
-      <c r="AE9" s="52"/>
-      <c r="AF9" s="52"/>
-      <c r="AG9" s="52"/>
-      <c r="AH9" s="53"/>
+      <c r="U9" s="86"/>
+      <c r="V9" s="86"/>
+      <c r="W9" s="122"/>
+      <c r="X9" s="122"/>
+      <c r="Y9" s="122"/>
+      <c r="Z9" s="122"/>
+      <c r="AA9" s="122"/>
+      <c r="AB9" s="122"/>
+      <c r="AC9" s="122"/>
+      <c r="AD9" s="56"/>
+      <c r="AE9" s="92"/>
+      <c r="AF9" s="92"/>
+      <c r="AG9" s="92"/>
+      <c r="AH9" s="93"/>
     </row>
     <row r="10" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="43"/>
-      <c r="D10" s="51" t="s">
+      <c r="C10" s="84"/>
+      <c r="D10" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="48"/>
-      <c r="P10" s="48"/>
-      <c r="Q10" s="48"/>
-      <c r="R10" s="48"/>
-      <c r="S10" s="46"/>
-      <c r="T10" s="45" t="s">
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="89"/>
+      <c r="J10" s="89"/>
+      <c r="K10" s="89"/>
+      <c r="L10" s="89"/>
+      <c r="M10" s="89"/>
+      <c r="N10" s="89"/>
+      <c r="O10" s="89"/>
+      <c r="P10" s="89"/>
+      <c r="Q10" s="89"/>
+      <c r="R10" s="89"/>
+      <c r="S10" s="87"/>
+      <c r="T10" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="U10" s="45"/>
-      <c r="V10" s="45"/>
-      <c r="W10" s="48"/>
-      <c r="X10" s="48"/>
-      <c r="Y10" s="48"/>
-      <c r="Z10" s="48"/>
-      <c r="AA10" s="48"/>
-      <c r="AB10" s="48"/>
-      <c r="AC10" s="48"/>
-      <c r="AD10" s="48"/>
-      <c r="AE10" s="48"/>
-      <c r="AF10" s="48"/>
-      <c r="AG10" s="48"/>
-      <c r="AH10" s="50"/>
+      <c r="U10" s="86"/>
+      <c r="V10" s="86"/>
+      <c r="W10" s="89"/>
+      <c r="X10" s="89"/>
+      <c r="Y10" s="89"/>
+      <c r="Z10" s="89"/>
+      <c r="AA10" s="89"/>
+      <c r="AB10" s="89"/>
+      <c r="AC10" s="89"/>
+      <c r="AD10" s="89"/>
+      <c r="AE10" s="89"/>
+      <c r="AF10" s="89"/>
+      <c r="AG10" s="89"/>
+      <c r="AH10" s="91"/>
     </row>
     <row r="11" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="43"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="48"/>
-      <c r="O11" s="48"/>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="48"/>
-      <c r="R11" s="48"/>
-      <c r="S11" s="46"/>
-      <c r="T11" s="45" t="s">
+      <c r="C11" s="84"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="89"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="89"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="89"/>
+      <c r="L11" s="89"/>
+      <c r="M11" s="89"/>
+      <c r="N11" s="89"/>
+      <c r="O11" s="89"/>
+      <c r="P11" s="89"/>
+      <c r="Q11" s="89"/>
+      <c r="R11" s="89"/>
+      <c r="S11" s="87"/>
+      <c r="T11" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="U11" s="45"/>
-      <c r="V11" s="45"/>
-      <c r="W11" s="48"/>
-      <c r="X11" s="48"/>
-      <c r="Y11" s="48"/>
-      <c r="Z11" s="48"/>
-      <c r="AA11" s="48"/>
-      <c r="AB11" s="48"/>
-      <c r="AC11" s="48"/>
-      <c r="AD11" s="48"/>
-      <c r="AE11" s="48"/>
-      <c r="AF11" s="48"/>
-      <c r="AG11" s="48"/>
-      <c r="AH11" s="50"/>
+      <c r="U11" s="86"/>
+      <c r="V11" s="86"/>
+      <c r="W11" s="89"/>
+      <c r="X11" s="89"/>
+      <c r="Y11" s="89"/>
+      <c r="Z11" s="89"/>
+      <c r="AA11" s="89"/>
+      <c r="AB11" s="89"/>
+      <c r="AC11" s="89"/>
+      <c r="AD11" s="89"/>
+      <c r="AE11" s="89"/>
+      <c r="AF11" s="89"/>
+      <c r="AG11" s="89"/>
+      <c r="AH11" s="91"/>
     </row>
     <row r="12" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="43"/>
-      <c r="D12" s="45" t="s">
+      <c r="C12" s="84"/>
+      <c r="D12" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="54">
+      <c r="E12" s="86"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="125">
         <f>R25</f>
         <v>0</v>
       </c>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="54"/>
-      <c r="O12" s="54"/>
-      <c r="P12" s="54"/>
-      <c r="Q12" s="54"/>
-      <c r="R12" s="54"/>
-      <c r="S12" s="46"/>
-      <c r="T12" s="45" t="s">
+      <c r="H12" s="125"/>
+      <c r="I12" s="125"/>
+      <c r="J12" s="125"/>
+      <c r="K12" s="125"/>
+      <c r="L12" s="125"/>
+      <c r="M12" s="125"/>
+      <c r="N12" s="125"/>
+      <c r="O12" s="125"/>
+      <c r="P12" s="125"/>
+      <c r="Q12" s="125"/>
+      <c r="R12" s="125"/>
+      <c r="S12" s="87"/>
+      <c r="T12" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="U12" s="45"/>
-      <c r="V12" s="45"/>
-      <c r="W12" s="48"/>
-      <c r="X12" s="48"/>
-      <c r="Y12" s="48"/>
-      <c r="Z12" s="48"/>
-      <c r="AA12" s="48"/>
-      <c r="AB12" s="48"/>
-      <c r="AC12" s="51" t="s">
+      <c r="U12" s="86"/>
+      <c r="V12" s="86"/>
+      <c r="W12" s="89"/>
+      <c r="X12" s="89"/>
+      <c r="Y12" s="89"/>
+      <c r="Z12" s="89"/>
+      <c r="AA12" s="89"/>
+      <c r="AB12" s="89"/>
+      <c r="AC12" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="AD12" s="48"/>
-      <c r="AE12" s="48"/>
-      <c r="AF12" s="48"/>
-      <c r="AG12" s="48"/>
-      <c r="AH12" s="50"/>
+      <c r="AD12" s="89"/>
+      <c r="AE12" s="89"/>
+      <c r="AF12" s="89"/>
+      <c r="AG12" s="89"/>
+      <c r="AH12" s="91"/>
     </row>
     <row r="13" spans="1:34" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="44"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="55"/>
-      <c r="L13" s="55"/>
-      <c r="M13" s="55"/>
-      <c r="N13" s="55"/>
-      <c r="O13" s="55"/>
-      <c r="P13" s="55"/>
-      <c r="Q13" s="55"/>
-      <c r="R13" s="55"/>
-      <c r="S13" s="47"/>
-      <c r="T13" s="49"/>
-      <c r="U13" s="49"/>
-      <c r="V13" s="49"/>
-      <c r="W13" s="103"/>
-      <c r="X13" s="103"/>
-      <c r="Y13" s="103"/>
-      <c r="Z13" s="103"/>
-      <c r="AA13" s="103"/>
-      <c r="AB13" s="103"/>
-      <c r="AC13" s="68"/>
-      <c r="AD13" s="103"/>
-      <c r="AE13" s="103"/>
-      <c r="AF13" s="103"/>
-      <c r="AG13" s="103"/>
-      <c r="AH13" s="104"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="126"/>
+      <c r="H13" s="126"/>
+      <c r="I13" s="126"/>
+      <c r="J13" s="126"/>
+      <c r="K13" s="126"/>
+      <c r="L13" s="126"/>
+      <c r="M13" s="126"/>
+      <c r="N13" s="126"/>
+      <c r="O13" s="126"/>
+      <c r="P13" s="126"/>
+      <c r="Q13" s="126"/>
+      <c r="R13" s="126"/>
+      <c r="S13" s="88"/>
+      <c r="T13" s="90"/>
+      <c r="U13" s="90"/>
+      <c r="V13" s="90"/>
+      <c r="W13" s="119"/>
+      <c r="X13" s="119"/>
+      <c r="Y13" s="119"/>
+      <c r="Z13" s="119"/>
+      <c r="AA13" s="119"/>
+      <c r="AB13" s="119"/>
+      <c r="AC13" s="57"/>
+      <c r="AD13" s="119"/>
+      <c r="AE13" s="119"/>
+      <c r="AF13" s="119"/>
+      <c r="AG13" s="119"/>
+      <c r="AH13" s="120"/>
     </row>
     <row r="14" spans="1:34" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="19" t="s">
@@ -3339,479 +3372,478 @@
       <c r="D14" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="218" t="s">
+      <c r="E14" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="219"/>
-      <c r="G14" s="219"/>
-      <c r="H14" s="219"/>
-      <c r="I14" s="219"/>
-      <c r="J14" s="219"/>
-      <c r="K14" s="219"/>
-      <c r="L14" s="219"/>
-      <c r="M14" s="219"/>
-      <c r="N14" s="219"/>
-      <c r="O14" s="220"/>
-      <c r="P14" s="98" t="s">
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="L14" s="59"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="61"/>
+      <c r="P14" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="Q14" s="99"/>
-      <c r="R14" s="98" t="s">
+      <c r="Q14" s="115"/>
+      <c r="R14" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="S14" s="98"/>
-      <c r="T14" s="98"/>
-      <c r="U14" s="98"/>
-      <c r="V14" s="98"/>
-      <c r="W14" s="98" t="s">
+      <c r="S14" s="114"/>
+      <c r="T14" s="114"/>
+      <c r="U14" s="114"/>
+      <c r="V14" s="114"/>
+      <c r="W14" s="114" t="s">
         <v>44</v>
       </c>
-      <c r="X14" s="98"/>
-      <c r="Y14" s="98"/>
-      <c r="Z14" s="98"/>
-      <c r="AA14" s="98"/>
-      <c r="AB14" s="98" t="s">
+      <c r="X14" s="114"/>
+      <c r="Y14" s="114"/>
+      <c r="Z14" s="114"/>
+      <c r="AA14" s="114"/>
+      <c r="AB14" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="AC14" s="99"/>
-      <c r="AD14" s="99"/>
-      <c r="AE14" s="99"/>
-      <c r="AF14" s="99"/>
-      <c r="AG14" s="98" t="s">
+      <c r="AC14" s="115"/>
+      <c r="AD14" s="115"/>
+      <c r="AE14" s="115"/>
+      <c r="AF14" s="115"/>
+      <c r="AG14" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="AH14" s="105"/>
+      <c r="AH14" s="121"/>
     </row>
     <row r="15" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="27"/>
       <c r="D15" s="28"/>
-      <c r="E15" s="203"/>
-      <c r="F15" s="204"/>
-      <c r="G15" s="204"/>
-      <c r="H15" s="204"/>
-      <c r="I15" s="204"/>
-      <c r="J15" s="204"/>
-      <c r="K15" s="204"/>
-      <c r="L15" s="204"/>
-      <c r="M15" s="204"/>
-      <c r="N15" s="204"/>
-      <c r="O15" s="205"/>
-      <c r="P15" s="102"/>
-      <c r="Q15" s="102"/>
-      <c r="R15" s="97"/>
-      <c r="S15" s="97"/>
-      <c r="T15" s="97"/>
-      <c r="U15" s="97"/>
-      <c r="V15" s="97"/>
-      <c r="W15" s="97"/>
-      <c r="X15" s="97"/>
-      <c r="Y15" s="97"/>
-      <c r="Z15" s="97"/>
-      <c r="AA15" s="97"/>
-      <c r="AB15" s="97"/>
-      <c r="AC15" s="97"/>
-      <c r="AD15" s="97"/>
-      <c r="AE15" s="97"/>
-      <c r="AF15" s="97"/>
-      <c r="AG15" s="95"/>
-      <c r="AH15" s="96"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="62"/>
+      <c r="M15" s="62"/>
+      <c r="N15" s="62"/>
+      <c r="O15" s="63"/>
+      <c r="P15" s="116"/>
+      <c r="Q15" s="116"/>
+      <c r="R15" s="113"/>
+      <c r="S15" s="113"/>
+      <c r="T15" s="113"/>
+      <c r="U15" s="113"/>
+      <c r="V15" s="113"/>
+      <c r="W15" s="113"/>
+      <c r="X15" s="113"/>
+      <c r="Y15" s="113"/>
+      <c r="Z15" s="113"/>
+      <c r="AA15" s="113"/>
+      <c r="AB15" s="113"/>
+      <c r="AC15" s="113"/>
+      <c r="AD15" s="113"/>
+      <c r="AE15" s="113"/>
+      <c r="AF15" s="113"/>
+      <c r="AG15" s="117"/>
+      <c r="AH15" s="118"/>
     </row>
     <row r="16" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="29"/>
       <c r="D16" s="30"/>
-      <c r="E16" s="206"/>
-      <c r="F16" s="207"/>
-      <c r="G16" s="207"/>
-      <c r="H16" s="207"/>
-      <c r="I16" s="207"/>
-      <c r="J16" s="207"/>
-      <c r="K16" s="207"/>
-      <c r="L16" s="207"/>
-      <c r="M16" s="207"/>
-      <c r="N16" s="207"/>
-      <c r="O16" s="208"/>
-      <c r="P16" s="100"/>
-      <c r="Q16" s="101"/>
-      <c r="R16" s="90"/>
-      <c r="S16" s="90"/>
-      <c r="T16" s="90"/>
-      <c r="U16" s="90"/>
-      <c r="V16" s="90"/>
-      <c r="W16" s="90"/>
-      <c r="X16" s="90"/>
-      <c r="Y16" s="90"/>
-      <c r="Z16" s="90"/>
-      <c r="AA16" s="90"/>
-      <c r="AB16" s="90"/>
-      <c r="AC16" s="90"/>
-      <c r="AD16" s="90"/>
-      <c r="AE16" s="90"/>
-      <c r="AF16" s="90"/>
-      <c r="AG16" s="48"/>
-      <c r="AH16" s="50"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="43"/>
+      <c r="P16" s="111"/>
+      <c r="Q16" s="112"/>
+      <c r="R16" s="106"/>
+      <c r="S16" s="106"/>
+      <c r="T16" s="106"/>
+      <c r="U16" s="106"/>
+      <c r="V16" s="106"/>
+      <c r="W16" s="106"/>
+      <c r="X16" s="106"/>
+      <c r="Y16" s="106"/>
+      <c r="Z16" s="106"/>
+      <c r="AA16" s="106"/>
+      <c r="AB16" s="106"/>
+      <c r="AC16" s="106"/>
+      <c r="AD16" s="106"/>
+      <c r="AE16" s="106"/>
+      <c r="AF16" s="106"/>
+      <c r="AG16" s="89"/>
+      <c r="AH16" s="91"/>
     </row>
     <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="29"/>
       <c r="D17" s="30"/>
-      <c r="E17" s="206"/>
-      <c r="F17" s="207"/>
-      <c r="G17" s="207"/>
-      <c r="H17" s="207"/>
-      <c r="I17" s="207"/>
-      <c r="J17" s="207"/>
-      <c r="K17" s="207"/>
-      <c r="L17" s="207"/>
-      <c r="M17" s="207"/>
-      <c r="N17" s="207"/>
-      <c r="O17" s="208"/>
-      <c r="P17" s="100"/>
-      <c r="Q17" s="101"/>
-      <c r="R17" s="90"/>
-      <c r="S17" s="90"/>
-      <c r="T17" s="90"/>
-      <c r="U17" s="90"/>
-      <c r="V17" s="90"/>
-      <c r="W17" s="90"/>
-      <c r="X17" s="90"/>
-      <c r="Y17" s="90"/>
-      <c r="Z17" s="90"/>
-      <c r="AA17" s="90"/>
-      <c r="AB17" s="90"/>
-      <c r="AC17" s="90"/>
-      <c r="AD17" s="90"/>
-      <c r="AE17" s="90"/>
-      <c r="AF17" s="90"/>
-      <c r="AG17" s="48"/>
-      <c r="AH17" s="50"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="43"/>
+      <c r="P17" s="111"/>
+      <c r="Q17" s="112"/>
+      <c r="R17" s="106"/>
+      <c r="S17" s="106"/>
+      <c r="T17" s="106"/>
+      <c r="U17" s="106"/>
+      <c r="V17" s="106"/>
+      <c r="W17" s="106"/>
+      <c r="X17" s="106"/>
+      <c r="Y17" s="106"/>
+      <c r="Z17" s="106"/>
+      <c r="AA17" s="106"/>
+      <c r="AB17" s="106"/>
+      <c r="AC17" s="106"/>
+      <c r="AD17" s="106"/>
+      <c r="AE17" s="106"/>
+      <c r="AF17" s="106"/>
+      <c r="AG17" s="89"/>
+      <c r="AH17" s="91"/>
     </row>
     <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="29"/>
       <c r="D18" s="30"/>
-      <c r="E18" s="206"/>
-      <c r="F18" s="207"/>
-      <c r="G18" s="207"/>
-      <c r="H18" s="207"/>
-      <c r="I18" s="207"/>
-      <c r="J18" s="207"/>
-      <c r="K18" s="207"/>
-      <c r="L18" s="207"/>
-      <c r="M18" s="207"/>
-      <c r="N18" s="207"/>
-      <c r="O18" s="208"/>
-      <c r="P18" s="100"/>
-      <c r="Q18" s="101"/>
-      <c r="R18" s="90"/>
-      <c r="S18" s="90"/>
-      <c r="T18" s="90"/>
-      <c r="U18" s="90"/>
-      <c r="V18" s="90"/>
-      <c r="W18" s="90"/>
-      <c r="X18" s="90"/>
-      <c r="Y18" s="90"/>
-      <c r="Z18" s="90"/>
-      <c r="AA18" s="90"/>
-      <c r="AB18" s="90"/>
-      <c r="AC18" s="90"/>
-      <c r="AD18" s="90"/>
-      <c r="AE18" s="90"/>
-      <c r="AF18" s="90"/>
-      <c r="AG18" s="48"/>
-      <c r="AH18" s="82"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="43"/>
+      <c r="P18" s="111"/>
+      <c r="Q18" s="112"/>
+      <c r="R18" s="106"/>
+      <c r="S18" s="106"/>
+      <c r="T18" s="106"/>
+      <c r="U18" s="106"/>
+      <c r="V18" s="106"/>
+      <c r="W18" s="106"/>
+      <c r="X18" s="106"/>
+      <c r="Y18" s="106"/>
+      <c r="Z18" s="106"/>
+      <c r="AA18" s="106"/>
+      <c r="AB18" s="106"/>
+      <c r="AC18" s="106"/>
+      <c r="AD18" s="106"/>
+      <c r="AE18" s="106"/>
+      <c r="AF18" s="106"/>
+      <c r="AG18" s="89"/>
+      <c r="AH18" s="96"/>
     </row>
     <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="29"/>
       <c r="D19" s="30"/>
-      <c r="E19" s="206"/>
-      <c r="F19" s="207"/>
-      <c r="G19" s="207"/>
-      <c r="H19" s="207"/>
-      <c r="I19" s="207"/>
-      <c r="J19" s="207"/>
-      <c r="K19" s="207"/>
-      <c r="L19" s="207"/>
-      <c r="M19" s="207"/>
-      <c r="N19" s="207"/>
-      <c r="O19" s="208"/>
-      <c r="P19" s="100"/>
-      <c r="Q19" s="101"/>
-      <c r="R19" s="90"/>
-      <c r="S19" s="90"/>
-      <c r="T19" s="90"/>
-      <c r="U19" s="90"/>
-      <c r="V19" s="90"/>
-      <c r="W19" s="90"/>
-      <c r="X19" s="90"/>
-      <c r="Y19" s="90"/>
-      <c r="Z19" s="90"/>
-      <c r="AA19" s="90"/>
-      <c r="AB19" s="90"/>
-      <c r="AC19" s="90"/>
-      <c r="AD19" s="90"/>
-      <c r="AE19" s="90"/>
-      <c r="AF19" s="90"/>
-      <c r="AG19" s="48"/>
-      <c r="AH19" s="82"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="43"/>
+      <c r="P19" s="111"/>
+      <c r="Q19" s="112"/>
+      <c r="R19" s="106"/>
+      <c r="S19" s="106"/>
+      <c r="T19" s="106"/>
+      <c r="U19" s="106"/>
+      <c r="V19" s="106"/>
+      <c r="W19" s="106"/>
+      <c r="X19" s="106"/>
+      <c r="Y19" s="106"/>
+      <c r="Z19" s="106"/>
+      <c r="AA19" s="106"/>
+      <c r="AB19" s="106"/>
+      <c r="AC19" s="106"/>
+      <c r="AD19" s="106"/>
+      <c r="AE19" s="106"/>
+      <c r="AF19" s="106"/>
+      <c r="AG19" s="89"/>
+      <c r="AH19" s="96"/>
     </row>
     <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="29"/>
       <c r="D20" s="30"/>
-      <c r="E20" s="206"/>
-      <c r="F20" s="207"/>
-      <c r="G20" s="207"/>
-      <c r="H20" s="207"/>
-      <c r="I20" s="207"/>
-      <c r="J20" s="207"/>
-      <c r="K20" s="207"/>
-      <c r="L20" s="207"/>
-      <c r="M20" s="207"/>
-      <c r="N20" s="207"/>
-      <c r="O20" s="208"/>
-      <c r="P20" s="100"/>
-      <c r="Q20" s="101"/>
-      <c r="R20" s="90"/>
-      <c r="S20" s="90"/>
-      <c r="T20" s="90"/>
-      <c r="U20" s="90"/>
-      <c r="V20" s="90"/>
-      <c r="W20" s="90"/>
-      <c r="X20" s="90"/>
-      <c r="Y20" s="90"/>
-      <c r="Z20" s="90"/>
-      <c r="AA20" s="90"/>
-      <c r="AB20" s="90"/>
-      <c r="AC20" s="90"/>
-      <c r="AD20" s="90"/>
-      <c r="AE20" s="90"/>
-      <c r="AF20" s="90"/>
-      <c r="AG20" s="48"/>
-      <c r="AH20" s="82"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="43"/>
+      <c r="P20" s="111"/>
+      <c r="Q20" s="112"/>
+      <c r="R20" s="106"/>
+      <c r="S20" s="106"/>
+      <c r="T20" s="106"/>
+      <c r="U20" s="106"/>
+      <c r="V20" s="106"/>
+      <c r="W20" s="106"/>
+      <c r="X20" s="106"/>
+      <c r="Y20" s="106"/>
+      <c r="Z20" s="106"/>
+      <c r="AA20" s="106"/>
+      <c r="AB20" s="106"/>
+      <c r="AC20" s="106"/>
+      <c r="AD20" s="106"/>
+      <c r="AE20" s="106"/>
+      <c r="AF20" s="106"/>
+      <c r="AG20" s="89"/>
+      <c r="AH20" s="96"/>
     </row>
     <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="29"/>
       <c r="D21" s="30"/>
-      <c r="E21" s="206"/>
-      <c r="F21" s="207"/>
-      <c r="G21" s="207"/>
-      <c r="H21" s="207"/>
-      <c r="I21" s="207"/>
-      <c r="J21" s="207"/>
-      <c r="K21" s="207"/>
-      <c r="L21" s="207"/>
-      <c r="M21" s="207"/>
-      <c r="N21" s="207"/>
-      <c r="O21" s="208"/>
-      <c r="P21" s="100"/>
-      <c r="Q21" s="101"/>
-      <c r="R21" s="90"/>
-      <c r="S21" s="90"/>
-      <c r="T21" s="90"/>
-      <c r="U21" s="90"/>
-      <c r="V21" s="90"/>
-      <c r="W21" s="90"/>
-      <c r="X21" s="90"/>
-      <c r="Y21" s="90"/>
-      <c r="Z21" s="90"/>
-      <c r="AA21" s="90"/>
-      <c r="AB21" s="90"/>
-      <c r="AC21" s="90"/>
-      <c r="AD21" s="90"/>
-      <c r="AE21" s="90"/>
-      <c r="AF21" s="90"/>
-      <c r="AG21" s="48"/>
-      <c r="AH21" s="82"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="43"/>
+      <c r="P21" s="111"/>
+      <c r="Q21" s="112"/>
+      <c r="R21" s="106"/>
+      <c r="S21" s="106"/>
+      <c r="T21" s="106"/>
+      <c r="U21" s="106"/>
+      <c r="V21" s="106"/>
+      <c r="W21" s="106"/>
+      <c r="X21" s="106"/>
+      <c r="Y21" s="106"/>
+      <c r="Z21" s="106"/>
+      <c r="AA21" s="106"/>
+      <c r="AB21" s="106"/>
+      <c r="AC21" s="106"/>
+      <c r="AD21" s="106"/>
+      <c r="AE21" s="106"/>
+      <c r="AF21" s="106"/>
+      <c r="AG21" s="89"/>
+      <c r="AH21" s="96"/>
     </row>
     <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="29"/>
       <c r="D22" s="30"/>
-      <c r="E22" s="206"/>
-      <c r="F22" s="207"/>
-      <c r="G22" s="207"/>
-      <c r="H22" s="207"/>
-      <c r="I22" s="207"/>
-      <c r="J22" s="207"/>
-      <c r="K22" s="207"/>
-      <c r="L22" s="207"/>
-      <c r="M22" s="207"/>
-      <c r="N22" s="207"/>
-      <c r="O22" s="208"/>
-      <c r="P22" s="100"/>
-      <c r="Q22" s="101"/>
-      <c r="R22" s="90"/>
-      <c r="S22" s="90"/>
-      <c r="T22" s="90"/>
-      <c r="U22" s="90"/>
-      <c r="V22" s="90"/>
-      <c r="W22" s="90"/>
-      <c r="X22" s="90"/>
-      <c r="Y22" s="90"/>
-      <c r="Z22" s="90"/>
-      <c r="AA22" s="90"/>
-      <c r="AB22" s="90"/>
-      <c r="AC22" s="90"/>
-      <c r="AD22" s="90"/>
-      <c r="AE22" s="90"/>
-      <c r="AF22" s="90"/>
-      <c r="AG22" s="48"/>
-      <c r="AH22" s="82"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="43"/>
+      <c r="P22" s="111"/>
+      <c r="Q22" s="112"/>
+      <c r="R22" s="106"/>
+      <c r="S22" s="106"/>
+      <c r="T22" s="106"/>
+      <c r="U22" s="106"/>
+      <c r="V22" s="106"/>
+      <c r="W22" s="106"/>
+      <c r="X22" s="106"/>
+      <c r="Y22" s="106"/>
+      <c r="Z22" s="106"/>
+      <c r="AA22" s="106"/>
+      <c r="AB22" s="106"/>
+      <c r="AC22" s="106"/>
+      <c r="AD22" s="106"/>
+      <c r="AE22" s="106"/>
+      <c r="AF22" s="106"/>
+      <c r="AG22" s="89"/>
+      <c r="AH22" s="96"/>
     </row>
     <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="29"/>
       <c r="D23" s="30"/>
-      <c r="E23" s="206"/>
-      <c r="F23" s="207"/>
-      <c r="G23" s="207"/>
-      <c r="H23" s="207"/>
-      <c r="I23" s="207"/>
-      <c r="J23" s="207"/>
-      <c r="K23" s="207"/>
-      <c r="L23" s="207"/>
-      <c r="M23" s="207"/>
-      <c r="N23" s="207"/>
-      <c r="O23" s="208"/>
-      <c r="P23" s="100"/>
-      <c r="Q23" s="101"/>
-      <c r="R23" s="90"/>
-      <c r="S23" s="90"/>
-      <c r="T23" s="90"/>
-      <c r="U23" s="90"/>
-      <c r="V23" s="90"/>
-      <c r="W23" s="90"/>
-      <c r="X23" s="90"/>
-      <c r="Y23" s="90"/>
-      <c r="Z23" s="90"/>
-      <c r="AA23" s="90"/>
-      <c r="AB23" s="90"/>
-      <c r="AC23" s="90"/>
-      <c r="AD23" s="90"/>
-      <c r="AE23" s="90"/>
-      <c r="AF23" s="90"/>
-      <c r="AG23" s="48"/>
-      <c r="AH23" s="82"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="42"/>
+      <c r="O23" s="43"/>
+      <c r="P23" s="111"/>
+      <c r="Q23" s="112"/>
+      <c r="R23" s="106"/>
+      <c r="S23" s="106"/>
+      <c r="T23" s="106"/>
+      <c r="U23" s="106"/>
+      <c r="V23" s="106"/>
+      <c r="W23" s="106"/>
+      <c r="X23" s="106"/>
+      <c r="Y23" s="106"/>
+      <c r="Z23" s="106"/>
+      <c r="AA23" s="106"/>
+      <c r="AB23" s="106"/>
+      <c r="AC23" s="106"/>
+      <c r="AD23" s="106"/>
+      <c r="AE23" s="106"/>
+      <c r="AF23" s="106"/>
+      <c r="AG23" s="89"/>
+      <c r="AH23" s="96"/>
     </row>
     <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="29"/>
       <c r="D24" s="30"/>
-      <c r="E24" s="206"/>
-      <c r="F24" s="207"/>
-      <c r="G24" s="207"/>
-      <c r="H24" s="207"/>
-      <c r="I24" s="207"/>
-      <c r="J24" s="207"/>
-      <c r="K24" s="207"/>
-      <c r="L24" s="207"/>
-      <c r="M24" s="207"/>
-      <c r="N24" s="207"/>
-      <c r="O24" s="208"/>
-      <c r="P24" s="100"/>
-      <c r="Q24" s="101"/>
-      <c r="R24" s="90"/>
-      <c r="S24" s="90"/>
-      <c r="T24" s="90"/>
-      <c r="U24" s="90"/>
-      <c r="V24" s="90"/>
-      <c r="W24" s="90"/>
-      <c r="X24" s="90"/>
-      <c r="Y24" s="90"/>
-      <c r="Z24" s="90"/>
-      <c r="AA24" s="90"/>
-      <c r="AB24" s="90"/>
-      <c r="AC24" s="90"/>
-      <c r="AD24" s="90"/>
-      <c r="AE24" s="90"/>
-      <c r="AF24" s="90"/>
-      <c r="AG24" s="48"/>
-      <c r="AH24" s="50"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="43"/>
+      <c r="P24" s="111"/>
+      <c r="Q24" s="112"/>
+      <c r="R24" s="106"/>
+      <c r="S24" s="106"/>
+      <c r="T24" s="106"/>
+      <c r="U24" s="106"/>
+      <c r="V24" s="106"/>
+      <c r="W24" s="106"/>
+      <c r="X24" s="106"/>
+      <c r="Y24" s="106"/>
+      <c r="Z24" s="106"/>
+      <c r="AA24" s="106"/>
+      <c r="AB24" s="106"/>
+      <c r="AC24" s="106"/>
+      <c r="AD24" s="106"/>
+      <c r="AE24" s="106"/>
+      <c r="AF24" s="106"/>
+      <c r="AG24" s="89"/>
+      <c r="AH24" s="91"/>
     </row>
     <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="180" t="s">
+      <c r="C25" s="200" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="110"/>
-      <c r="E25" s="182">
-        <f>SUM(W15:AA24)</f>
-        <v>0</v>
-      </c>
-      <c r="F25" s="182"/>
-      <c r="G25" s="182"/>
-      <c r="H25" s="182"/>
-      <c r="I25" s="182"/>
-      <c r="J25" s="110" t="s">
+      <c r="D25" s="127"/>
+      <c r="E25" s="202"/>
+      <c r="F25" s="202"/>
+      <c r="G25" s="202"/>
+      <c r="H25" s="202"/>
+      <c r="I25" s="202"/>
+      <c r="J25" s="127" t="s">
         <v>29</v>
       </c>
-      <c r="K25" s="110"/>
-      <c r="L25" s="112">
-        <f>SUM(AB15:AF24)</f>
-        <v>0</v>
-      </c>
-      <c r="M25" s="112"/>
-      <c r="N25" s="112"/>
-      <c r="O25" s="112"/>
-      <c r="P25" s="110" t="s">
+      <c r="K25" s="127"/>
+      <c r="L25" s="129">
+        <f>E25*0.1</f>
+        <v>0</v>
+      </c>
+      <c r="M25" s="129"/>
+      <c r="N25" s="129"/>
+      <c r="O25" s="129"/>
+      <c r="P25" s="127" t="s">
         <v>30</v>
       </c>
-      <c r="Q25" s="110"/>
-      <c r="R25" s="114">
-        <f>SUM(E25,L25)</f>
-        <v>0</v>
-      </c>
-      <c r="S25" s="115"/>
-      <c r="T25" s="115"/>
-      <c r="U25" s="116"/>
-      <c r="V25" s="120" t="s">
+      <c r="Q25" s="127"/>
+      <c r="R25" s="131">
+        <f>E25+L25</f>
+        <v>0</v>
+      </c>
+      <c r="S25" s="132"/>
+      <c r="T25" s="132"/>
+      <c r="U25" s="133"/>
+      <c r="V25" s="137" t="s">
         <v>41</v>
       </c>
-      <c r="W25" s="120"/>
-      <c r="X25" s="173" t="s">
+      <c r="W25" s="137"/>
+      <c r="X25" s="193" t="s">
         <v>19</v>
       </c>
-      <c r="Y25" s="173"/>
-      <c r="Z25" s="173"/>
-      <c r="AA25" s="173"/>
-      <c r="AB25" s="136" t="s">
+      <c r="Y25" s="193"/>
+      <c r="Z25" s="193"/>
+      <c r="AA25" s="193"/>
+      <c r="AB25" s="149" t="s">
         <v>42</v>
       </c>
-      <c r="AC25" s="137"/>
-      <c r="AD25" s="126" t="s">
+      <c r="AC25" s="150"/>
+      <c r="AD25" s="139" t="s">
         <v>19</v>
       </c>
-      <c r="AE25" s="126"/>
-      <c r="AF25" s="126"/>
-      <c r="AG25" s="126"/>
-      <c r="AH25" s="127"/>
+      <c r="AE25" s="139"/>
+      <c r="AF25" s="139"/>
+      <c r="AG25" s="139"/>
+      <c r="AH25" s="140"/>
     </row>
     <row r="26" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="181"/>
-      <c r="D26" s="111"/>
-      <c r="E26" s="183"/>
-      <c r="F26" s="183"/>
-      <c r="G26" s="183"/>
-      <c r="H26" s="183"/>
-      <c r="I26" s="183"/>
-      <c r="J26" s="111"/>
-      <c r="K26" s="111"/>
-      <c r="L26" s="113"/>
-      <c r="M26" s="113"/>
-      <c r="N26" s="113"/>
-      <c r="O26" s="113"/>
-      <c r="P26" s="111"/>
-      <c r="Q26" s="111"/>
-      <c r="R26" s="117"/>
-      <c r="S26" s="118"/>
-      <c r="T26" s="118"/>
-      <c r="U26" s="119"/>
-      <c r="V26" s="121"/>
-      <c r="W26" s="121"/>
-      <c r="X26" s="174"/>
-      <c r="Y26" s="174"/>
-      <c r="Z26" s="174"/>
-      <c r="AA26" s="174"/>
-      <c r="AB26" s="138"/>
-      <c r="AC26" s="138"/>
-      <c r="AD26" s="128"/>
-      <c r="AE26" s="128"/>
-      <c r="AF26" s="128"/>
-      <c r="AG26" s="128"/>
-      <c r="AH26" s="129"/>
+      <c r="C26" s="201"/>
+      <c r="D26" s="128"/>
+      <c r="E26" s="203"/>
+      <c r="F26" s="203"/>
+      <c r="G26" s="203"/>
+      <c r="H26" s="203"/>
+      <c r="I26" s="203"/>
+      <c r="J26" s="128"/>
+      <c r="K26" s="128"/>
+      <c r="L26" s="130"/>
+      <c r="M26" s="130"/>
+      <c r="N26" s="130"/>
+      <c r="O26" s="130"/>
+      <c r="P26" s="128"/>
+      <c r="Q26" s="128"/>
+      <c r="R26" s="134"/>
+      <c r="S26" s="135"/>
+      <c r="T26" s="135"/>
+      <c r="U26" s="136"/>
+      <c r="V26" s="138"/>
+      <c r="W26" s="138"/>
+      <c r="X26" s="194"/>
+      <c r="Y26" s="194"/>
+      <c r="Z26" s="194"/>
+      <c r="AA26" s="194"/>
+      <c r="AB26" s="151"/>
+      <c r="AC26" s="151"/>
+      <c r="AD26" s="141"/>
+      <c r="AE26" s="141"/>
+      <c r="AF26" s="141"/>
+      <c r="AG26" s="141"/>
+      <c r="AH26" s="142"/>
     </row>
     <row r="27" spans="1:35" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>
@@ -3885,416 +3917,416 @@
       <c r="AH28" s="5"/>
     </row>
     <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="177" t="s">
+      <c r="C29" s="197" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="178"/>
-      <c r="E29" s="178"/>
-      <c r="F29" s="178"/>
-      <c r="G29" s="178"/>
-      <c r="H29" s="179"/>
-      <c r="I29" s="167" t="s">
+      <c r="D29" s="198"/>
+      <c r="E29" s="198"/>
+      <c r="F29" s="198"/>
+      <c r="G29" s="198"/>
+      <c r="H29" s="199"/>
+      <c r="I29" s="187" t="s">
         <v>21</v>
       </c>
-      <c r="J29" s="168"/>
-      <c r="K29" s="168"/>
-      <c r="L29" s="168"/>
-      <c r="M29" s="168"/>
-      <c r="N29" s="168"/>
-      <c r="O29" s="168"/>
-      <c r="P29" s="168"/>
-      <c r="Q29" s="168"/>
-      <c r="R29" s="168"/>
-      <c r="S29" s="168"/>
-      <c r="T29" s="168"/>
-      <c r="U29" s="168"/>
-      <c r="V29" s="168"/>
-      <c r="W29" s="168"/>
-      <c r="X29" s="168"/>
-      <c r="Y29" s="168"/>
-      <c r="Z29" s="168"/>
-      <c r="AA29" s="168"/>
-      <c r="AB29" s="169"/>
-      <c r="AC29" s="130">
+      <c r="J29" s="188"/>
+      <c r="K29" s="188"/>
+      <c r="L29" s="188"/>
+      <c r="M29" s="188"/>
+      <c r="N29" s="188"/>
+      <c r="O29" s="188"/>
+      <c r="P29" s="188"/>
+      <c r="Q29" s="188"/>
+      <c r="R29" s="188"/>
+      <c r="S29" s="188"/>
+      <c r="T29" s="188"/>
+      <c r="U29" s="188"/>
+      <c r="V29" s="188"/>
+      <c r="W29" s="188"/>
+      <c r="X29" s="188"/>
+      <c r="Y29" s="188"/>
+      <c r="Z29" s="188"/>
+      <c r="AA29" s="188"/>
+      <c r="AB29" s="189"/>
+      <c r="AC29" s="143">
         <f>AC4</f>
         <v>0</v>
       </c>
-      <c r="AD29" s="131"/>
-      <c r="AE29" s="131"/>
-      <c r="AF29" s="131"/>
-      <c r="AG29" s="131"/>
-      <c r="AH29" s="132"/>
+      <c r="AD29" s="144"/>
+      <c r="AE29" s="144"/>
+      <c r="AF29" s="144"/>
+      <c r="AG29" s="144"/>
+      <c r="AH29" s="145"/>
     </row>
     <row r="30" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="162">
+      <c r="C30" s="182">
         <f>C5</f>
         <v>0</v>
       </c>
-      <c r="D30" s="163"/>
-      <c r="E30" s="163"/>
-      <c r="F30" s="163"/>
-      <c r="G30" s="163"/>
-      <c r="H30" s="164"/>
-      <c r="I30" s="170"/>
-      <c r="J30" s="171"/>
-      <c r="K30" s="171"/>
-      <c r="L30" s="171"/>
-      <c r="M30" s="171"/>
-      <c r="N30" s="171"/>
-      <c r="O30" s="171"/>
-      <c r="P30" s="171"/>
-      <c r="Q30" s="171"/>
-      <c r="R30" s="171"/>
-      <c r="S30" s="171"/>
-      <c r="T30" s="171"/>
-      <c r="U30" s="171"/>
-      <c r="V30" s="171"/>
-      <c r="W30" s="171"/>
-      <c r="X30" s="171"/>
-      <c r="Y30" s="171"/>
-      <c r="Z30" s="171"/>
-      <c r="AA30" s="171"/>
-      <c r="AB30" s="172"/>
-      <c r="AC30" s="133"/>
-      <c r="AD30" s="134"/>
-      <c r="AE30" s="134"/>
-      <c r="AF30" s="134"/>
-      <c r="AG30" s="134"/>
-      <c r="AH30" s="135"/>
+      <c r="D30" s="183"/>
+      <c r="E30" s="183"/>
+      <c r="F30" s="183"/>
+      <c r="G30" s="183"/>
+      <c r="H30" s="184"/>
+      <c r="I30" s="190"/>
+      <c r="J30" s="191"/>
+      <c r="K30" s="191"/>
+      <c r="L30" s="191"/>
+      <c r="M30" s="191"/>
+      <c r="N30" s="191"/>
+      <c r="O30" s="191"/>
+      <c r="P30" s="191"/>
+      <c r="Q30" s="191"/>
+      <c r="R30" s="191"/>
+      <c r="S30" s="191"/>
+      <c r="T30" s="191"/>
+      <c r="U30" s="191"/>
+      <c r="V30" s="191"/>
+      <c r="W30" s="191"/>
+      <c r="X30" s="191"/>
+      <c r="Y30" s="191"/>
+      <c r="Z30" s="191"/>
+      <c r="AA30" s="191"/>
+      <c r="AB30" s="192"/>
+      <c r="AC30" s="146"/>
+      <c r="AD30" s="147"/>
+      <c r="AE30" s="147"/>
+      <c r="AF30" s="147"/>
+      <c r="AG30" s="147"/>
+      <c r="AH30" s="148"/>
     </row>
     <row r="31" spans="1:35" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="165" t="s">
-        <v>0</v>
-      </c>
-      <c r="D31" s="69" t="s">
+      <c r="C31" s="185" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="E31" s="69"/>
-      <c r="F31" s="69"/>
-      <c r="G31" s="175">
+      <c r="E31" s="70"/>
+      <c r="F31" s="70"/>
+      <c r="G31" s="195">
         <f>G6</f>
         <v>0</v>
       </c>
-      <c r="H31" s="176"/>
-      <c r="I31" s="176"/>
-      <c r="J31" s="176"/>
-      <c r="K31" s="176"/>
-      <c r="L31" s="176"/>
-      <c r="M31" s="176"/>
-      <c r="N31" s="176"/>
-      <c r="O31" s="176"/>
-      <c r="P31" s="176"/>
-      <c r="Q31" s="161" t="s">
+      <c r="H31" s="196"/>
+      <c r="I31" s="196"/>
+      <c r="J31" s="196"/>
+      <c r="K31" s="196"/>
+      <c r="L31" s="196"/>
+      <c r="M31" s="196"/>
+      <c r="N31" s="196"/>
+      <c r="O31" s="196"/>
+      <c r="P31" s="196"/>
+      <c r="Q31" s="180" t="s">
         <v>39</v>
       </c>
-      <c r="R31" s="161"/>
-      <c r="S31" s="184" t="s">
+      <c r="R31" s="180"/>
+      <c r="S31" s="204" t="s">
         <v>31</v>
       </c>
-      <c r="T31" s="69" t="s">
+      <c r="T31" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="U31" s="69"/>
-      <c r="V31" s="69"/>
-      <c r="W31" s="83">
+      <c r="U31" s="70"/>
+      <c r="V31" s="70"/>
+      <c r="W31" s="97">
         <f>W6</f>
         <v>0</v>
       </c>
-      <c r="X31" s="84"/>
-      <c r="Y31" s="84"/>
-      <c r="Z31" s="84"/>
-      <c r="AA31" s="84"/>
-      <c r="AB31" s="84"/>
-      <c r="AC31" s="84"/>
-      <c r="AD31" s="84"/>
-      <c r="AE31" s="84"/>
-      <c r="AF31" s="84"/>
-      <c r="AG31" s="84"/>
-      <c r="AH31" s="85"/>
+      <c r="X31" s="98"/>
+      <c r="Y31" s="98"/>
+      <c r="Z31" s="98"/>
+      <c r="AA31" s="98"/>
+      <c r="AB31" s="98"/>
+      <c r="AC31" s="98"/>
+      <c r="AD31" s="98"/>
+      <c r="AE31" s="98"/>
+      <c r="AF31" s="98"/>
+      <c r="AG31" s="98"/>
+      <c r="AH31" s="99"/>
     </row>
     <row r="32" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="165"/>
-      <c r="D32" s="69"/>
-      <c r="E32" s="69"/>
-      <c r="F32" s="69"/>
-      <c r="G32" s="175"/>
-      <c r="H32" s="176"/>
-      <c r="I32" s="176"/>
-      <c r="J32" s="176"/>
-      <c r="K32" s="176"/>
-      <c r="L32" s="176"/>
-      <c r="M32" s="176"/>
-      <c r="N32" s="176"/>
-      <c r="O32" s="176"/>
-      <c r="P32" s="176"/>
-      <c r="Q32" s="161"/>
-      <c r="R32" s="161"/>
-      <c r="S32" s="184"/>
-      <c r="T32" s="69"/>
-      <c r="U32" s="69"/>
-      <c r="V32" s="69"/>
-      <c r="W32" s="86"/>
-      <c r="X32" s="87"/>
-      <c r="Y32" s="87"/>
-      <c r="Z32" s="87"/>
-      <c r="AA32" s="87"/>
-      <c r="AB32" s="87"/>
-      <c r="AC32" s="87"/>
-      <c r="AD32" s="87"/>
-      <c r="AE32" s="87"/>
-      <c r="AF32" s="87"/>
-      <c r="AG32" s="87"/>
-      <c r="AH32" s="88"/>
+      <c r="C32" s="185"/>
+      <c r="D32" s="70"/>
+      <c r="E32" s="70"/>
+      <c r="F32" s="70"/>
+      <c r="G32" s="195"/>
+      <c r="H32" s="196"/>
+      <c r="I32" s="196"/>
+      <c r="J32" s="196"/>
+      <c r="K32" s="196"/>
+      <c r="L32" s="196"/>
+      <c r="M32" s="196"/>
+      <c r="N32" s="196"/>
+      <c r="O32" s="196"/>
+      <c r="P32" s="196"/>
+      <c r="Q32" s="180"/>
+      <c r="R32" s="180"/>
+      <c r="S32" s="204"/>
+      <c r="T32" s="70"/>
+      <c r="U32" s="70"/>
+      <c r="V32" s="70"/>
+      <c r="W32" s="100"/>
+      <c r="X32" s="101"/>
+      <c r="Y32" s="101"/>
+      <c r="Z32" s="101"/>
+      <c r="AA32" s="101"/>
+      <c r="AB32" s="101"/>
+      <c r="AC32" s="101"/>
+      <c r="AD32" s="101"/>
+      <c r="AE32" s="101"/>
+      <c r="AF32" s="101"/>
+      <c r="AG32" s="101"/>
+      <c r="AH32" s="102"/>
     </row>
     <row r="33" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="165"/>
-      <c r="D33" s="69" t="s">
+      <c r="C33" s="185"/>
+      <c r="D33" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="E33" s="69"/>
-      <c r="F33" s="69"/>
-      <c r="G33" s="72">
+      <c r="E33" s="70"/>
+      <c r="F33" s="70"/>
+      <c r="G33" s="103">
         <f>G8</f>
         <v>0</v>
       </c>
-      <c r="H33" s="72"/>
-      <c r="I33" s="72"/>
-      <c r="J33" s="72"/>
-      <c r="K33" s="72"/>
-      <c r="L33" s="72"/>
-      <c r="M33" s="72"/>
-      <c r="N33" s="72"/>
-      <c r="O33" s="72"/>
-      <c r="P33" s="72"/>
-      <c r="Q33" s="72"/>
-      <c r="R33" s="72"/>
-      <c r="S33" s="184"/>
-      <c r="T33" s="69" t="s">
+      <c r="H33" s="103"/>
+      <c r="I33" s="103"/>
+      <c r="J33" s="103"/>
+      <c r="K33" s="103"/>
+      <c r="L33" s="103"/>
+      <c r="M33" s="103"/>
+      <c r="N33" s="103"/>
+      <c r="O33" s="103"/>
+      <c r="P33" s="103"/>
+      <c r="Q33" s="103"/>
+      <c r="R33" s="103"/>
+      <c r="S33" s="204"/>
+      <c r="T33" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="U33" s="69"/>
-      <c r="V33" s="69"/>
-      <c r="W33" s="94">
+      <c r="U33" s="70"/>
+      <c r="V33" s="70"/>
+      <c r="W33" s="110">
         <f>W8</f>
         <v>0</v>
       </c>
-      <c r="X33" s="94"/>
-      <c r="Y33" s="94"/>
-      <c r="Z33" s="94"/>
-      <c r="AA33" s="94"/>
-      <c r="AB33" s="94"/>
-      <c r="AC33" s="94"/>
-      <c r="AD33" s="71" t="s">
+      <c r="X33" s="110"/>
+      <c r="Y33" s="110"/>
+      <c r="Z33" s="110"/>
+      <c r="AA33" s="110"/>
+      <c r="AB33" s="110"/>
+      <c r="AC33" s="110"/>
+      <c r="AD33" s="153" t="s">
         <v>4</v>
       </c>
-      <c r="AE33" s="124">
+      <c r="AE33" s="156">
         <f>AE8</f>
         <v>0</v>
       </c>
-      <c r="AF33" s="124"/>
-      <c r="AG33" s="124"/>
-      <c r="AH33" s="125"/>
+      <c r="AF33" s="156"/>
+      <c r="AG33" s="156"/>
+      <c r="AH33" s="157"/>
     </row>
     <row r="34" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="165"/>
-      <c r="D34" s="69" t="s">
+      <c r="C34" s="185"/>
+      <c r="D34" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="E34" s="69"/>
-      <c r="F34" s="69"/>
-      <c r="G34" s="72"/>
-      <c r="H34" s="72"/>
-      <c r="I34" s="72"/>
-      <c r="J34" s="72"/>
-      <c r="K34" s="72"/>
-      <c r="L34" s="72"/>
-      <c r="M34" s="72"/>
-      <c r="N34" s="72"/>
-      <c r="O34" s="72"/>
-      <c r="P34" s="72"/>
-      <c r="Q34" s="72"/>
-      <c r="R34" s="72"/>
-      <c r="S34" s="184"/>
-      <c r="T34" s="69" t="s">
+      <c r="E34" s="70"/>
+      <c r="F34" s="70"/>
+      <c r="G34" s="103"/>
+      <c r="H34" s="103"/>
+      <c r="I34" s="103"/>
+      <c r="J34" s="103"/>
+      <c r="K34" s="103"/>
+      <c r="L34" s="103"/>
+      <c r="M34" s="103"/>
+      <c r="N34" s="103"/>
+      <c r="O34" s="103"/>
+      <c r="P34" s="103"/>
+      <c r="Q34" s="103"/>
+      <c r="R34" s="103"/>
+      <c r="S34" s="204"/>
+      <c r="T34" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="U34" s="69"/>
-      <c r="V34" s="69"/>
-      <c r="W34" s="94"/>
-      <c r="X34" s="94"/>
-      <c r="Y34" s="94"/>
-      <c r="Z34" s="94"/>
-      <c r="AA34" s="94"/>
-      <c r="AB34" s="94"/>
-      <c r="AC34" s="94"/>
-      <c r="AD34" s="71"/>
-      <c r="AE34" s="124"/>
-      <c r="AF34" s="124"/>
-      <c r="AG34" s="124"/>
-      <c r="AH34" s="125"/>
+      <c r="U34" s="70"/>
+      <c r="V34" s="70"/>
+      <c r="W34" s="110"/>
+      <c r="X34" s="110"/>
+      <c r="Y34" s="110"/>
+      <c r="Z34" s="110"/>
+      <c r="AA34" s="110"/>
+      <c r="AB34" s="110"/>
+      <c r="AC34" s="110"/>
+      <c r="AD34" s="153"/>
+      <c r="AE34" s="156"/>
+      <c r="AF34" s="156"/>
+      <c r="AG34" s="156"/>
+      <c r="AH34" s="157"/>
     </row>
     <row r="35" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="165"/>
-      <c r="D35" s="71" t="s">
+      <c r="C35" s="185"/>
+      <c r="D35" s="153" t="s">
         <v>46</v>
       </c>
-      <c r="E35" s="71"/>
-      <c r="F35" s="71"/>
-      <c r="G35" s="72">
+      <c r="E35" s="153"/>
+      <c r="F35" s="153"/>
+      <c r="G35" s="103">
         <f>G10</f>
         <v>0</v>
       </c>
-      <c r="H35" s="72"/>
-      <c r="I35" s="72"/>
-      <c r="J35" s="72"/>
-      <c r="K35" s="72"/>
-      <c r="L35" s="72"/>
-      <c r="M35" s="72"/>
-      <c r="N35" s="72"/>
-      <c r="O35" s="72"/>
-      <c r="P35" s="72"/>
-      <c r="Q35" s="72"/>
-      <c r="R35" s="72"/>
-      <c r="S35" s="184"/>
-      <c r="T35" s="69" t="s">
+      <c r="H35" s="103"/>
+      <c r="I35" s="103"/>
+      <c r="J35" s="103"/>
+      <c r="K35" s="103"/>
+      <c r="L35" s="103"/>
+      <c r="M35" s="103"/>
+      <c r="N35" s="103"/>
+      <c r="O35" s="103"/>
+      <c r="P35" s="103"/>
+      <c r="Q35" s="103"/>
+      <c r="R35" s="103"/>
+      <c r="S35" s="204"/>
+      <c r="T35" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="U35" s="69"/>
-      <c r="V35" s="69"/>
-      <c r="W35" s="72">
+      <c r="U35" s="70"/>
+      <c r="V35" s="70"/>
+      <c r="W35" s="103">
         <f>W10</f>
         <v>0</v>
       </c>
-      <c r="X35" s="72"/>
-      <c r="Y35" s="72"/>
-      <c r="Z35" s="72"/>
-      <c r="AA35" s="72"/>
-      <c r="AB35" s="72"/>
-      <c r="AC35" s="72"/>
-      <c r="AD35" s="72"/>
-      <c r="AE35" s="72"/>
-      <c r="AF35" s="72"/>
-      <c r="AG35" s="72"/>
-      <c r="AH35" s="93"/>
+      <c r="X35" s="103"/>
+      <c r="Y35" s="103"/>
+      <c r="Z35" s="103"/>
+      <c r="AA35" s="103"/>
+      <c r="AB35" s="103"/>
+      <c r="AC35" s="103"/>
+      <c r="AD35" s="103"/>
+      <c r="AE35" s="103"/>
+      <c r="AF35" s="103"/>
+      <c r="AG35" s="103"/>
+      <c r="AH35" s="109"/>
     </row>
     <row r="36" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="165"/>
-      <c r="D36" s="71"/>
-      <c r="E36" s="71"/>
-      <c r="F36" s="71"/>
-      <c r="G36" s="72"/>
-      <c r="H36" s="72"/>
-      <c r="I36" s="72"/>
-      <c r="J36" s="72"/>
-      <c r="K36" s="72"/>
-      <c r="L36" s="72"/>
-      <c r="M36" s="72"/>
-      <c r="N36" s="72"/>
-      <c r="O36" s="72"/>
-      <c r="P36" s="72"/>
-      <c r="Q36" s="72"/>
-      <c r="R36" s="72"/>
-      <c r="S36" s="184"/>
-      <c r="T36" s="69" t="s">
+      <c r="C36" s="185"/>
+      <c r="D36" s="153"/>
+      <c r="E36" s="153"/>
+      <c r="F36" s="153"/>
+      <c r="G36" s="103"/>
+      <c r="H36" s="103"/>
+      <c r="I36" s="103"/>
+      <c r="J36" s="103"/>
+      <c r="K36" s="103"/>
+      <c r="L36" s="103"/>
+      <c r="M36" s="103"/>
+      <c r="N36" s="103"/>
+      <c r="O36" s="103"/>
+      <c r="P36" s="103"/>
+      <c r="Q36" s="103"/>
+      <c r="R36" s="103"/>
+      <c r="S36" s="204"/>
+      <c r="T36" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="U36" s="69"/>
-      <c r="V36" s="69"/>
-      <c r="W36" s="72"/>
-      <c r="X36" s="72"/>
-      <c r="Y36" s="72"/>
-      <c r="Z36" s="72"/>
-      <c r="AA36" s="72"/>
-      <c r="AB36" s="72"/>
-      <c r="AC36" s="72"/>
-      <c r="AD36" s="72"/>
-      <c r="AE36" s="72"/>
-      <c r="AF36" s="72"/>
-      <c r="AG36" s="72"/>
-      <c r="AH36" s="93"/>
+      <c r="U36" s="70"/>
+      <c r="V36" s="70"/>
+      <c r="W36" s="103"/>
+      <c r="X36" s="103"/>
+      <c r="Y36" s="103"/>
+      <c r="Z36" s="103"/>
+      <c r="AA36" s="103"/>
+      <c r="AB36" s="103"/>
+      <c r="AC36" s="103"/>
+      <c r="AD36" s="103"/>
+      <c r="AE36" s="103"/>
+      <c r="AF36" s="103"/>
+      <c r="AG36" s="103"/>
+      <c r="AH36" s="109"/>
     </row>
     <row r="37" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="165"/>
-      <c r="D37" s="69" t="s">
+      <c r="C37" s="185"/>
+      <c r="D37" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="E37" s="69"/>
-      <c r="F37" s="69"/>
-      <c r="G37" s="73">
+      <c r="E37" s="70"/>
+      <c r="F37" s="70"/>
+      <c r="G37" s="65">
         <f>G12</f>
         <v>0</v>
       </c>
-      <c r="H37" s="73"/>
-      <c r="I37" s="73"/>
-      <c r="J37" s="73"/>
-      <c r="K37" s="73"/>
-      <c r="L37" s="73"/>
-      <c r="M37" s="73"/>
-      <c r="N37" s="73"/>
-      <c r="O37" s="73"/>
-      <c r="P37" s="73"/>
-      <c r="Q37" s="73"/>
-      <c r="R37" s="73"/>
-      <c r="S37" s="184"/>
-      <c r="T37" s="69" t="s">
+      <c r="H37" s="65"/>
+      <c r="I37" s="65"/>
+      <c r="J37" s="65"/>
+      <c r="K37" s="65"/>
+      <c r="L37" s="65"/>
+      <c r="M37" s="65"/>
+      <c r="N37" s="65"/>
+      <c r="O37" s="65"/>
+      <c r="P37" s="65"/>
+      <c r="Q37" s="65"/>
+      <c r="R37" s="65"/>
+      <c r="S37" s="204"/>
+      <c r="T37" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="U37" s="69"/>
-      <c r="V37" s="69"/>
-      <c r="W37" s="72">
+      <c r="U37" s="70"/>
+      <c r="V37" s="70"/>
+      <c r="W37" s="103">
         <f>W12</f>
         <v>0</v>
       </c>
-      <c r="X37" s="72"/>
-      <c r="Y37" s="72"/>
-      <c r="Z37" s="72"/>
-      <c r="AA37" s="72"/>
-      <c r="AB37" s="72"/>
-      <c r="AC37" s="71" t="s">
+      <c r="X37" s="103"/>
+      <c r="Y37" s="103"/>
+      <c r="Z37" s="103"/>
+      <c r="AA37" s="103"/>
+      <c r="AB37" s="103"/>
+      <c r="AC37" s="153" t="s">
         <v>38</v>
       </c>
-      <c r="AD37" s="72">
+      <c r="AD37" s="103">
         <f>AD12</f>
         <v>0</v>
       </c>
-      <c r="AE37" s="72"/>
-      <c r="AF37" s="72"/>
-      <c r="AG37" s="72"/>
-      <c r="AH37" s="93"/>
+      <c r="AE37" s="103"/>
+      <c r="AF37" s="103"/>
+      <c r="AG37" s="103"/>
+      <c r="AH37" s="109"/>
     </row>
     <row r="38" spans="3:34" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C38" s="166"/>
-      <c r="D38" s="70"/>
-      <c r="E38" s="70"/>
-      <c r="F38" s="70"/>
-      <c r="G38" s="74"/>
-      <c r="H38" s="74"/>
-      <c r="I38" s="74"/>
-      <c r="J38" s="74"/>
-      <c r="K38" s="74"/>
-      <c r="L38" s="74"/>
-      <c r="M38" s="74"/>
-      <c r="N38" s="74"/>
-      <c r="O38" s="74"/>
-      <c r="P38" s="74"/>
-      <c r="Q38" s="74"/>
-      <c r="R38" s="74"/>
-      <c r="S38" s="185"/>
-      <c r="T38" s="70"/>
-      <c r="U38" s="70"/>
-      <c r="V38" s="70"/>
-      <c r="W38" s="109"/>
-      <c r="X38" s="109"/>
-      <c r="Y38" s="109"/>
-      <c r="Z38" s="109"/>
-      <c r="AA38" s="109"/>
-      <c r="AB38" s="109"/>
-      <c r="AC38" s="122"/>
-      <c r="AD38" s="109"/>
-      <c r="AE38" s="109"/>
-      <c r="AF38" s="109"/>
-      <c r="AG38" s="109"/>
-      <c r="AH38" s="123"/>
+      <c r="C38" s="186"/>
+      <c r="D38" s="71"/>
+      <c r="E38" s="71"/>
+      <c r="F38" s="71"/>
+      <c r="G38" s="66"/>
+      <c r="H38" s="66"/>
+      <c r="I38" s="66"/>
+      <c r="J38" s="66"/>
+      <c r="K38" s="66"/>
+      <c r="L38" s="66"/>
+      <c r="M38" s="66"/>
+      <c r="N38" s="66"/>
+      <c r="O38" s="66"/>
+      <c r="P38" s="66"/>
+      <c r="Q38" s="66"/>
+      <c r="R38" s="66"/>
+      <c r="S38" s="205"/>
+      <c r="T38" s="71"/>
+      <c r="U38" s="71"/>
+      <c r="V38" s="71"/>
+      <c r="W38" s="152"/>
+      <c r="X38" s="152"/>
+      <c r="Y38" s="152"/>
+      <c r="Z38" s="152"/>
+      <c r="AA38" s="152"/>
+      <c r="AB38" s="152"/>
+      <c r="AC38" s="154"/>
+      <c r="AD38" s="152"/>
+      <c r="AE38" s="152"/>
+      <c r="AF38" s="152"/>
+      <c r="AG38" s="152"/>
+      <c r="AH38" s="155"/>
     </row>
     <row r="39" spans="3:34" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C39" s="21" t="s">
@@ -4303,48 +4335,50 @@
       <c r="D39" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E39" s="215" t="s">
+      <c r="E39" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="F39" s="216"/>
-      <c r="G39" s="216"/>
-      <c r="H39" s="216"/>
-      <c r="I39" s="216"/>
-      <c r="J39" s="216"/>
-      <c r="K39" s="216"/>
-      <c r="L39" s="216"/>
-      <c r="M39" s="216"/>
-      <c r="N39" s="216"/>
-      <c r="O39" s="217"/>
-      <c r="P39" s="77" t="s">
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="35"/>
+      <c r="J39" s="35"/>
+      <c r="K39" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="L39" s="35"/>
+      <c r="M39" s="35"/>
+      <c r="N39" s="35"/>
+      <c r="O39" s="37"/>
+      <c r="P39" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="Q39" s="91"/>
-      <c r="R39" s="77" t="s">
+      <c r="Q39" s="107"/>
+      <c r="R39" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="S39" s="77"/>
-      <c r="T39" s="77"/>
-      <c r="U39" s="77"/>
-      <c r="V39" s="77"/>
-      <c r="W39" s="77" t="s">
+      <c r="S39" s="69"/>
+      <c r="T39" s="69"/>
+      <c r="U39" s="69"/>
+      <c r="V39" s="69"/>
+      <c r="W39" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="X39" s="77"/>
-      <c r="Y39" s="77"/>
-      <c r="Z39" s="77"/>
-      <c r="AA39" s="77"/>
-      <c r="AB39" s="77" t="s">
+      <c r="X39" s="69"/>
+      <c r="Y39" s="69"/>
+      <c r="Z39" s="69"/>
+      <c r="AA39" s="69"/>
+      <c r="AB39" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="AC39" s="91"/>
-      <c r="AD39" s="91"/>
-      <c r="AE39" s="91"/>
-      <c r="AF39" s="91"/>
-      <c r="AG39" s="77" t="s">
+      <c r="AC39" s="107"/>
+      <c r="AD39" s="107"/>
+      <c r="AE39" s="107"/>
+      <c r="AF39" s="107"/>
+      <c r="AG39" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="AH39" s="92"/>
+      <c r="AH39" s="108"/>
     </row>
     <row r="40" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C40" s="23">
@@ -4355,54 +4389,57 @@
         <f>D15</f>
         <v>0</v>
       </c>
-      <c r="E40" s="209">
+      <c r="E40" s="38">
         <f>E15</f>
         <v>0</v>
       </c>
-      <c r="F40" s="210"/>
-      <c r="G40" s="210"/>
-      <c r="H40" s="210"/>
-      <c r="I40" s="210"/>
-      <c r="J40" s="210"/>
-      <c r="K40" s="210"/>
-      <c r="L40" s="210"/>
-      <c r="M40" s="210"/>
-      <c r="N40" s="210"/>
-      <c r="O40" s="211"/>
-      <c r="P40" s="75">
+      <c r="F40" s="39"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="39"/>
+      <c r="I40" s="39"/>
+      <c r="J40" s="39"/>
+      <c r="K40" s="38">
+        <f>K15</f>
+        <v>0</v>
+      </c>
+      <c r="L40" s="39"/>
+      <c r="M40" s="39"/>
+      <c r="N40" s="39"/>
+      <c r="O40" s="40"/>
+      <c r="P40" s="67">
         <f>P15</f>
         <v>0</v>
       </c>
-      <c r="Q40" s="75"/>
-      <c r="R40" s="76">
+      <c r="Q40" s="67"/>
+      <c r="R40" s="68">
         <f>R15</f>
         <v>0</v>
       </c>
-      <c r="S40" s="76"/>
-      <c r="T40" s="76"/>
-      <c r="U40" s="76"/>
-      <c r="V40" s="76"/>
-      <c r="W40" s="76">
+      <c r="S40" s="68"/>
+      <c r="T40" s="68"/>
+      <c r="U40" s="68"/>
+      <c r="V40" s="68"/>
+      <c r="W40" s="68">
         <f t="shared" ref="W40:W49" si="0">W15</f>
         <v>0</v>
       </c>
-      <c r="X40" s="76"/>
-      <c r="Y40" s="76"/>
-      <c r="Z40" s="76"/>
-      <c r="AA40" s="76"/>
-      <c r="AB40" s="76">
+      <c r="X40" s="68"/>
+      <c r="Y40" s="68"/>
+      <c r="Z40" s="68"/>
+      <c r="AA40" s="68"/>
+      <c r="AB40" s="68">
         <f>AB15</f>
         <v>0</v>
       </c>
-      <c r="AC40" s="76"/>
-      <c r="AD40" s="76"/>
-      <c r="AE40" s="76"/>
-      <c r="AF40" s="76"/>
-      <c r="AG40" s="80">
+      <c r="AC40" s="68"/>
+      <c r="AD40" s="68"/>
+      <c r="AE40" s="68"/>
+      <c r="AF40" s="68"/>
+      <c r="AG40" s="94">
         <f>AG15</f>
         <v>0</v>
       </c>
-      <c r="AH40" s="81"/>
+      <c r="AH40" s="95"/>
     </row>
     <row r="41" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C41" s="25">
@@ -4413,51 +4450,54 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E41" s="212">
-        <f t="shared" ref="E41:E49" si="2">E16</f>
-        <v>0</v>
-      </c>
-      <c r="F41" s="213"/>
-      <c r="G41" s="213"/>
-      <c r="H41" s="213"/>
-      <c r="I41" s="213"/>
-      <c r="J41" s="213"/>
-      <c r="K41" s="213"/>
-      <c r="L41" s="213"/>
-      <c r="M41" s="213"/>
-      <c r="N41" s="213"/>
-      <c r="O41" s="214"/>
-      <c r="P41" s="79">
-        <f t="shared" ref="P41:P49" si="3">P16</f>
-        <v>0</v>
-      </c>
-      <c r="Q41" s="79"/>
-      <c r="R41" s="78">
-        <f t="shared" ref="R41:R49" si="4">R16</f>
-        <v>0</v>
-      </c>
-      <c r="S41" s="78"/>
-      <c r="T41" s="78"/>
-      <c r="U41" s="78"/>
-      <c r="V41" s="78"/>
-      <c r="W41" s="78">
+      <c r="E41" s="31">
+        <f>E16</f>
+        <v>0</v>
+      </c>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="32"/>
+      <c r="J41" s="33"/>
+      <c r="K41" s="31">
+        <f>K16</f>
+        <v>0</v>
+      </c>
+      <c r="L41" s="32"/>
+      <c r="M41" s="32"/>
+      <c r="N41" s="32"/>
+      <c r="O41" s="33"/>
+      <c r="P41" s="181">
+        <f t="shared" ref="P41:P49" si="2">P16</f>
+        <v>0</v>
+      </c>
+      <c r="Q41" s="181"/>
+      <c r="R41" s="105">
+        <f t="shared" ref="R41:R49" si="3">R16</f>
+        <v>0</v>
+      </c>
+      <c r="S41" s="105"/>
+      <c r="T41" s="105"/>
+      <c r="U41" s="105"/>
+      <c r="V41" s="105"/>
+      <c r="W41" s="105">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X41" s="78"/>
-      <c r="Y41" s="78"/>
-      <c r="Z41" s="78"/>
-      <c r="AA41" s="78"/>
-      <c r="AB41" s="78">
-        <f t="shared" ref="AB41:AB49" si="5">AB16</f>
-        <v>0</v>
-      </c>
-      <c r="AC41" s="78"/>
-      <c r="AD41" s="78"/>
-      <c r="AE41" s="78"/>
-      <c r="AF41" s="78"/>
-      <c r="AG41" s="72"/>
-      <c r="AH41" s="93"/>
+      <c r="X41" s="105"/>
+      <c r="Y41" s="105"/>
+      <c r="Z41" s="105"/>
+      <c r="AA41" s="105"/>
+      <c r="AB41" s="105">
+        <f t="shared" ref="AB41:AB49" si="4">AB16</f>
+        <v>0</v>
+      </c>
+      <c r="AC41" s="105"/>
+      <c r="AD41" s="105"/>
+      <c r="AE41" s="105"/>
+      <c r="AF41" s="105"/>
+      <c r="AG41" s="103"/>
+      <c r="AH41" s="109"/>
     </row>
     <row r="42" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C42" s="25">
@@ -4468,51 +4508,54 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E42" s="212">
+      <c r="E42" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="32"/>
+      <c r="I42" s="32"/>
+      <c r="J42" s="33"/>
+      <c r="K42" s="31">
+        <f t="shared" ref="K42:K49" si="5">K17</f>
+        <v>0</v>
+      </c>
+      <c r="L42" s="32"/>
+      <c r="M42" s="32"/>
+      <c r="N42" s="32"/>
+      <c r="O42" s="33"/>
+      <c r="P42" s="181">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F42" s="213"/>
-      <c r="G42" s="213"/>
-      <c r="H42" s="213"/>
-      <c r="I42" s="213"/>
-      <c r="J42" s="213"/>
-      <c r="K42" s="213"/>
-      <c r="L42" s="213"/>
-      <c r="M42" s="213"/>
-      <c r="N42" s="213"/>
-      <c r="O42" s="214"/>
-      <c r="P42" s="79">
+      <c r="Q42" s="181"/>
+      <c r="R42" s="105">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q42" s="79"/>
-      <c r="R42" s="78">
+      <c r="S42" s="105"/>
+      <c r="T42" s="105"/>
+      <c r="U42" s="105"/>
+      <c r="V42" s="105"/>
+      <c r="W42" s="105">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X42" s="105"/>
+      <c r="Y42" s="105"/>
+      <c r="Z42" s="105"/>
+      <c r="AA42" s="105"/>
+      <c r="AB42" s="105">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S42" s="78"/>
-      <c r="T42" s="78"/>
-      <c r="U42" s="78"/>
-      <c r="V42" s="78"/>
-      <c r="W42" s="78">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X42" s="78"/>
-      <c r="Y42" s="78"/>
-      <c r="Z42" s="78"/>
-      <c r="AA42" s="78"/>
-      <c r="AB42" s="78">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC42" s="78"/>
-      <c r="AD42" s="78"/>
-      <c r="AE42" s="78"/>
-      <c r="AF42" s="78"/>
-      <c r="AG42" s="72"/>
-      <c r="AH42" s="93"/>
+      <c r="AC42" s="105"/>
+      <c r="AD42" s="105"/>
+      <c r="AE42" s="105"/>
+      <c r="AF42" s="105"/>
+      <c r="AG42" s="103"/>
+      <c r="AH42" s="109"/>
     </row>
     <row r="43" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C43" s="25">
@@ -4523,51 +4566,54 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E43" s="212">
+      <c r="E43" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F43" s="32"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="32"/>
+      <c r="J43" s="33"/>
+      <c r="K43" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L43" s="32"/>
+      <c r="M43" s="32"/>
+      <c r="N43" s="32"/>
+      <c r="O43" s="33"/>
+      <c r="P43" s="181">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F43" s="213"/>
-      <c r="G43" s="213"/>
-      <c r="H43" s="213"/>
-      <c r="I43" s="213"/>
-      <c r="J43" s="213"/>
-      <c r="K43" s="213"/>
-      <c r="L43" s="213"/>
-      <c r="M43" s="213"/>
-      <c r="N43" s="213"/>
-      <c r="O43" s="214"/>
-      <c r="P43" s="79">
+      <c r="Q43" s="181"/>
+      <c r="R43" s="105">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q43" s="79"/>
-      <c r="R43" s="78">
+      <c r="S43" s="105"/>
+      <c r="T43" s="105"/>
+      <c r="U43" s="105"/>
+      <c r="V43" s="105"/>
+      <c r="W43" s="105">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X43" s="105"/>
+      <c r="Y43" s="105"/>
+      <c r="Z43" s="105"/>
+      <c r="AA43" s="105"/>
+      <c r="AB43" s="105">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S43" s="78"/>
-      <c r="T43" s="78"/>
-      <c r="U43" s="78"/>
-      <c r="V43" s="78"/>
-      <c r="W43" s="78">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X43" s="78"/>
-      <c r="Y43" s="78"/>
-      <c r="Z43" s="78"/>
-      <c r="AA43" s="78"/>
-      <c r="AB43" s="78">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC43" s="78"/>
-      <c r="AD43" s="78"/>
-      <c r="AE43" s="78"/>
-      <c r="AF43" s="78"/>
-      <c r="AG43" s="72"/>
-      <c r="AH43" s="89"/>
+      <c r="AC43" s="105"/>
+      <c r="AD43" s="105"/>
+      <c r="AE43" s="105"/>
+      <c r="AF43" s="105"/>
+      <c r="AG43" s="103"/>
+      <c r="AH43" s="104"/>
     </row>
     <row r="44" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C44" s="25">
@@ -4578,51 +4624,54 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E44" s="212">
+      <c r="E44" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F44" s="32"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="32"/>
+      <c r="I44" s="32"/>
+      <c r="J44" s="33"/>
+      <c r="K44" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L44" s="32"/>
+      <c r="M44" s="32"/>
+      <c r="N44" s="32"/>
+      <c r="O44" s="33"/>
+      <c r="P44" s="181">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F44" s="213"/>
-      <c r="G44" s="213"/>
-      <c r="H44" s="213"/>
-      <c r="I44" s="213"/>
-      <c r="J44" s="213"/>
-      <c r="K44" s="213"/>
-      <c r="L44" s="213"/>
-      <c r="M44" s="213"/>
-      <c r="N44" s="213"/>
-      <c r="O44" s="214"/>
-      <c r="P44" s="79">
+      <c r="Q44" s="181"/>
+      <c r="R44" s="105">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q44" s="79"/>
-      <c r="R44" s="78">
+      <c r="S44" s="105"/>
+      <c r="T44" s="105"/>
+      <c r="U44" s="105"/>
+      <c r="V44" s="105"/>
+      <c r="W44" s="105">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X44" s="105"/>
+      <c r="Y44" s="105"/>
+      <c r="Z44" s="105"/>
+      <c r="AA44" s="105"/>
+      <c r="AB44" s="105">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S44" s="78"/>
-      <c r="T44" s="78"/>
-      <c r="U44" s="78"/>
-      <c r="V44" s="78"/>
-      <c r="W44" s="78">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X44" s="78"/>
-      <c r="Y44" s="78"/>
-      <c r="Z44" s="78"/>
-      <c r="AA44" s="78"/>
-      <c r="AB44" s="78">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC44" s="78"/>
-      <c r="AD44" s="78"/>
-      <c r="AE44" s="78"/>
-      <c r="AF44" s="78"/>
-      <c r="AG44" s="72"/>
-      <c r="AH44" s="89"/>
+      <c r="AC44" s="105"/>
+      <c r="AD44" s="105"/>
+      <c r="AE44" s="105"/>
+      <c r="AF44" s="105"/>
+      <c r="AG44" s="103"/>
+      <c r="AH44" s="104"/>
     </row>
     <row r="45" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C45" s="25">
@@ -4633,51 +4682,54 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E45" s="212">
+      <c r="E45" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F45" s="32"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="32"/>
+      <c r="J45" s="33"/>
+      <c r="K45" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L45" s="32"/>
+      <c r="M45" s="32"/>
+      <c r="N45" s="32"/>
+      <c r="O45" s="33"/>
+      <c r="P45" s="181">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F45" s="213"/>
-      <c r="G45" s="213"/>
-      <c r="H45" s="213"/>
-      <c r="I45" s="213"/>
-      <c r="J45" s="213"/>
-      <c r="K45" s="213"/>
-      <c r="L45" s="213"/>
-      <c r="M45" s="213"/>
-      <c r="N45" s="213"/>
-      <c r="O45" s="214"/>
-      <c r="P45" s="79">
+      <c r="Q45" s="181"/>
+      <c r="R45" s="105">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q45" s="79"/>
-      <c r="R45" s="78">
+      <c r="S45" s="105"/>
+      <c r="T45" s="105"/>
+      <c r="U45" s="105"/>
+      <c r="V45" s="105"/>
+      <c r="W45" s="105">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X45" s="105"/>
+      <c r="Y45" s="105"/>
+      <c r="Z45" s="105"/>
+      <c r="AA45" s="105"/>
+      <c r="AB45" s="105">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S45" s="78"/>
-      <c r="T45" s="78"/>
-      <c r="U45" s="78"/>
-      <c r="V45" s="78"/>
-      <c r="W45" s="78">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X45" s="78"/>
-      <c r="Y45" s="78"/>
-      <c r="Z45" s="78"/>
-      <c r="AA45" s="78"/>
-      <c r="AB45" s="78">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC45" s="78"/>
-      <c r="AD45" s="78"/>
-      <c r="AE45" s="78"/>
-      <c r="AF45" s="78"/>
-      <c r="AG45" s="72"/>
-      <c r="AH45" s="89"/>
+      <c r="AC45" s="105"/>
+      <c r="AD45" s="105"/>
+      <c r="AE45" s="105"/>
+      <c r="AF45" s="105"/>
+      <c r="AG45" s="103"/>
+      <c r="AH45" s="104"/>
     </row>
     <row r="46" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C46" s="25">
@@ -4688,51 +4740,54 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E46" s="212">
+      <c r="E46" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F46" s="32"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="32"/>
+      <c r="I46" s="32"/>
+      <c r="J46" s="33"/>
+      <c r="K46" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L46" s="32"/>
+      <c r="M46" s="32"/>
+      <c r="N46" s="32"/>
+      <c r="O46" s="33"/>
+      <c r="P46" s="181">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F46" s="213"/>
-      <c r="G46" s="213"/>
-      <c r="H46" s="213"/>
-      <c r="I46" s="213"/>
-      <c r="J46" s="213"/>
-      <c r="K46" s="213"/>
-      <c r="L46" s="213"/>
-      <c r="M46" s="213"/>
-      <c r="N46" s="213"/>
-      <c r="O46" s="214"/>
-      <c r="P46" s="79">
+      <c r="Q46" s="181"/>
+      <c r="R46" s="105">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q46" s="79"/>
-      <c r="R46" s="78">
+      <c r="S46" s="105"/>
+      <c r="T46" s="105"/>
+      <c r="U46" s="105"/>
+      <c r="V46" s="105"/>
+      <c r="W46" s="105">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X46" s="105"/>
+      <c r="Y46" s="105"/>
+      <c r="Z46" s="105"/>
+      <c r="AA46" s="105"/>
+      <c r="AB46" s="105">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S46" s="78"/>
-      <c r="T46" s="78"/>
-      <c r="U46" s="78"/>
-      <c r="V46" s="78"/>
-      <c r="W46" s="78">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X46" s="78"/>
-      <c r="Y46" s="78"/>
-      <c r="Z46" s="78"/>
-      <c r="AA46" s="78"/>
-      <c r="AB46" s="78">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC46" s="78"/>
-      <c r="AD46" s="78"/>
-      <c r="AE46" s="78"/>
-      <c r="AF46" s="78"/>
-      <c r="AG46" s="72"/>
-      <c r="AH46" s="89"/>
+      <c r="AC46" s="105"/>
+      <c r="AD46" s="105"/>
+      <c r="AE46" s="105"/>
+      <c r="AF46" s="105"/>
+      <c r="AG46" s="103"/>
+      <c r="AH46" s="104"/>
     </row>
     <row r="47" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C47" s="25">
@@ -4743,51 +4798,54 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E47" s="212">
+      <c r="E47" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F47" s="32"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="32"/>
+      <c r="I47" s="32"/>
+      <c r="J47" s="33"/>
+      <c r="K47" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L47" s="32"/>
+      <c r="M47" s="32"/>
+      <c r="N47" s="32"/>
+      <c r="O47" s="33"/>
+      <c r="P47" s="181">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F47" s="213"/>
-      <c r="G47" s="213"/>
-      <c r="H47" s="213"/>
-      <c r="I47" s="213"/>
-      <c r="J47" s="213"/>
-      <c r="K47" s="213"/>
-      <c r="L47" s="213"/>
-      <c r="M47" s="213"/>
-      <c r="N47" s="213"/>
-      <c r="O47" s="214"/>
-      <c r="P47" s="79">
+      <c r="Q47" s="181"/>
+      <c r="R47" s="105">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q47" s="79"/>
-      <c r="R47" s="78">
+      <c r="S47" s="105"/>
+      <c r="T47" s="105"/>
+      <c r="U47" s="105"/>
+      <c r="V47" s="105"/>
+      <c r="W47" s="105">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X47" s="105"/>
+      <c r="Y47" s="105"/>
+      <c r="Z47" s="105"/>
+      <c r="AA47" s="105"/>
+      <c r="AB47" s="105">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S47" s="78"/>
-      <c r="T47" s="78"/>
-      <c r="U47" s="78"/>
-      <c r="V47" s="78"/>
-      <c r="W47" s="78">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X47" s="78"/>
-      <c r="Y47" s="78"/>
-      <c r="Z47" s="78"/>
-      <c r="AA47" s="78"/>
-      <c r="AB47" s="78">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC47" s="78"/>
-      <c r="AD47" s="78"/>
-      <c r="AE47" s="78"/>
-      <c r="AF47" s="78"/>
-      <c r="AG47" s="72"/>
-      <c r="AH47" s="89"/>
+      <c r="AC47" s="105"/>
+      <c r="AD47" s="105"/>
+      <c r="AE47" s="105"/>
+      <c r="AF47" s="105"/>
+      <c r="AG47" s="103"/>
+      <c r="AH47" s="104"/>
     </row>
     <row r="48" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C48" s="25">
@@ -4798,51 +4856,54 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E48" s="212">
+      <c r="E48" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F48" s="32"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="32"/>
+      <c r="I48" s="32"/>
+      <c r="J48" s="33"/>
+      <c r="K48" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L48" s="32"/>
+      <c r="M48" s="32"/>
+      <c r="N48" s="32"/>
+      <c r="O48" s="33"/>
+      <c r="P48" s="181">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F48" s="213"/>
-      <c r="G48" s="213"/>
-      <c r="H48" s="213"/>
-      <c r="I48" s="213"/>
-      <c r="J48" s="213"/>
-      <c r="K48" s="213"/>
-      <c r="L48" s="213"/>
-      <c r="M48" s="213"/>
-      <c r="N48" s="213"/>
-      <c r="O48" s="214"/>
-      <c r="P48" s="79">
+      <c r="Q48" s="181"/>
+      <c r="R48" s="105">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q48" s="79"/>
-      <c r="R48" s="78">
+      <c r="S48" s="105"/>
+      <c r="T48" s="105"/>
+      <c r="U48" s="105"/>
+      <c r="V48" s="105"/>
+      <c r="W48" s="105">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X48" s="105"/>
+      <c r="Y48" s="105"/>
+      <c r="Z48" s="105"/>
+      <c r="AA48" s="105"/>
+      <c r="AB48" s="105">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S48" s="78"/>
-      <c r="T48" s="78"/>
-      <c r="U48" s="78"/>
-      <c r="V48" s="78"/>
-      <c r="W48" s="78">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X48" s="78"/>
-      <c r="Y48" s="78"/>
-      <c r="Z48" s="78"/>
-      <c r="AA48" s="78"/>
-      <c r="AB48" s="78">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC48" s="78"/>
-      <c r="AD48" s="78"/>
-      <c r="AE48" s="78"/>
-      <c r="AF48" s="78"/>
-      <c r="AG48" s="72"/>
-      <c r="AH48" s="89"/>
+      <c r="AC48" s="105"/>
+      <c r="AD48" s="105"/>
+      <c r="AE48" s="105"/>
+      <c r="AF48" s="105"/>
+      <c r="AG48" s="103"/>
+      <c r="AH48" s="104"/>
     </row>
     <row r="49" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C49" s="25">
@@ -4853,172 +4914,159 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E49" s="212">
+      <c r="E49" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F49" s="32"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="32"/>
+      <c r="I49" s="32"/>
+      <c r="J49" s="33"/>
+      <c r="K49" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L49" s="32"/>
+      <c r="M49" s="32"/>
+      <c r="N49" s="32"/>
+      <c r="O49" s="33"/>
+      <c r="P49" s="181">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F49" s="213"/>
-      <c r="G49" s="213"/>
-      <c r="H49" s="213"/>
-      <c r="I49" s="213"/>
-      <c r="J49" s="213"/>
-      <c r="K49" s="213"/>
-      <c r="L49" s="213"/>
-      <c r="M49" s="213"/>
-      <c r="N49" s="213"/>
-      <c r="O49" s="214"/>
-      <c r="P49" s="79">
+      <c r="Q49" s="181"/>
+      <c r="R49" s="105">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q49" s="79"/>
-      <c r="R49" s="78">
+      <c r="S49" s="105"/>
+      <c r="T49" s="105"/>
+      <c r="U49" s="105"/>
+      <c r="V49" s="105"/>
+      <c r="W49" s="105">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X49" s="105"/>
+      <c r="Y49" s="105"/>
+      <c r="Z49" s="105"/>
+      <c r="AA49" s="105"/>
+      <c r="AB49" s="105">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S49" s="78"/>
-      <c r="T49" s="78"/>
-      <c r="U49" s="78"/>
-      <c r="V49" s="78"/>
-      <c r="W49" s="78">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X49" s="78"/>
-      <c r="Y49" s="78"/>
-      <c r="Z49" s="78"/>
-      <c r="AA49" s="78"/>
-      <c r="AB49" s="78">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC49" s="78"/>
-      <c r="AD49" s="78"/>
-      <c r="AE49" s="78"/>
-      <c r="AF49" s="78"/>
-      <c r="AG49" s="72"/>
-      <c r="AH49" s="93"/>
+      <c r="AC49" s="105"/>
+      <c r="AD49" s="105"/>
+      <c r="AE49" s="105"/>
+      <c r="AF49" s="105"/>
+      <c r="AG49" s="103"/>
+      <c r="AH49" s="109"/>
     </row>
     <row r="50" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C50" s="157" t="s">
+      <c r="C50" s="176" t="s">
         <v>37</v>
       </c>
-      <c r="D50" s="153"/>
-      <c r="E50" s="159">
+      <c r="D50" s="172"/>
+      <c r="E50" s="178">
         <f>E25</f>
         <v>0</v>
       </c>
-      <c r="F50" s="159"/>
-      <c r="G50" s="159"/>
-      <c r="H50" s="159"/>
-      <c r="I50" s="159"/>
-      <c r="J50" s="153" t="s">
+      <c r="F50" s="178"/>
+      <c r="G50" s="178"/>
+      <c r="H50" s="178"/>
+      <c r="I50" s="178"/>
+      <c r="J50" s="172" t="s">
         <v>29</v>
       </c>
-      <c r="K50" s="153"/>
-      <c r="L50" s="155">
+      <c r="K50" s="172"/>
+      <c r="L50" s="174">
         <f>L25</f>
         <v>0</v>
       </c>
-      <c r="M50" s="155"/>
-      <c r="N50" s="155"/>
-      <c r="O50" s="155"/>
-      <c r="P50" s="153" t="s">
+      <c r="M50" s="174"/>
+      <c r="N50" s="174"/>
+      <c r="O50" s="174"/>
+      <c r="P50" s="172" t="s">
         <v>18</v>
       </c>
-      <c r="Q50" s="153"/>
-      <c r="R50" s="151">
+      <c r="Q50" s="172"/>
+      <c r="R50" s="170">
         <f>R25</f>
         <v>0</v>
       </c>
-      <c r="S50" s="151"/>
-      <c r="T50" s="151"/>
-      <c r="U50" s="151"/>
-      <c r="V50" s="149" t="s">
+      <c r="S50" s="170"/>
+      <c r="T50" s="170"/>
+      <c r="U50" s="170"/>
+      <c r="V50" s="168" t="s">
         <v>13</v>
       </c>
-      <c r="W50" s="149"/>
-      <c r="X50" s="147" t="str">
+      <c r="W50" s="168"/>
+      <c r="X50" s="166" t="str">
         <f>X25</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Y50" s="147"/>
-      <c r="Z50" s="147"/>
-      <c r="AA50" s="147"/>
-      <c r="AB50" s="139" t="s">
+      <c r="Y50" s="166"/>
+      <c r="Z50" s="166"/>
+      <c r="AA50" s="166"/>
+      <c r="AB50" s="158" t="s">
         <v>42</v>
       </c>
-      <c r="AC50" s="140"/>
-      <c r="AD50" s="143" t="str">
+      <c r="AC50" s="159"/>
+      <c r="AD50" s="162" t="str">
         <f>AD25</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AE50" s="143"/>
-      <c r="AF50" s="143"/>
-      <c r="AG50" s="143"/>
-      <c r="AH50" s="144"/>
+      <c r="AE50" s="162"/>
+      <c r="AF50" s="162"/>
+      <c r="AG50" s="162"/>
+      <c r="AH50" s="163"/>
     </row>
     <row r="51" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C51" s="158"/>
-      <c r="D51" s="154"/>
-      <c r="E51" s="160"/>
-      <c r="F51" s="160"/>
-      <c r="G51" s="160"/>
-      <c r="H51" s="160"/>
-      <c r="I51" s="160"/>
-      <c r="J51" s="154"/>
-      <c r="K51" s="154"/>
-      <c r="L51" s="156"/>
-      <c r="M51" s="156"/>
-      <c r="N51" s="156"/>
-      <c r="O51" s="156"/>
-      <c r="P51" s="154"/>
-      <c r="Q51" s="154"/>
-      <c r="R51" s="152"/>
-      <c r="S51" s="152"/>
-      <c r="T51" s="152"/>
-      <c r="U51" s="152"/>
-      <c r="V51" s="150"/>
-      <c r="W51" s="150"/>
-      <c r="X51" s="148"/>
-      <c r="Y51" s="148"/>
-      <c r="Z51" s="148"/>
-      <c r="AA51" s="148"/>
-      <c r="AB51" s="141"/>
-      <c r="AC51" s="142"/>
-      <c r="AD51" s="145"/>
-      <c r="AE51" s="145"/>
-      <c r="AF51" s="145"/>
-      <c r="AG51" s="145"/>
-      <c r="AH51" s="146"/>
+      <c r="C51" s="177"/>
+      <c r="D51" s="173"/>
+      <c r="E51" s="179"/>
+      <c r="F51" s="179"/>
+      <c r="G51" s="179"/>
+      <c r="H51" s="179"/>
+      <c r="I51" s="179"/>
+      <c r="J51" s="173"/>
+      <c r="K51" s="173"/>
+      <c r="L51" s="175"/>
+      <c r="M51" s="175"/>
+      <c r="N51" s="175"/>
+      <c r="O51" s="175"/>
+      <c r="P51" s="173"/>
+      <c r="Q51" s="173"/>
+      <c r="R51" s="171"/>
+      <c r="S51" s="171"/>
+      <c r="T51" s="171"/>
+      <c r="U51" s="171"/>
+      <c r="V51" s="169"/>
+      <c r="W51" s="169"/>
+      <c r="X51" s="167"/>
+      <c r="Y51" s="167"/>
+      <c r="Z51" s="167"/>
+      <c r="AA51" s="167"/>
+      <c r="AB51" s="160"/>
+      <c r="AC51" s="161"/>
+      <c r="AD51" s="164"/>
+      <c r="AE51" s="164"/>
+      <c r="AF51" s="164"/>
+      <c r="AG51" s="164"/>
+      <c r="AH51" s="165"/>
     </row>
     <row r="52" spans="1:34" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="53" spans="1:34" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="212">
-    <mergeCell ref="E43:O43"/>
-    <mergeCell ref="E44:O44"/>
-    <mergeCell ref="E45:O45"/>
-    <mergeCell ref="E46:O46"/>
-    <mergeCell ref="E47:O47"/>
-    <mergeCell ref="E48:O48"/>
-    <mergeCell ref="E49:O49"/>
-    <mergeCell ref="E39:O39"/>
-    <mergeCell ref="E14:O14"/>
-    <mergeCell ref="E19:O19"/>
-    <mergeCell ref="E20:O20"/>
-    <mergeCell ref="E21:O21"/>
-    <mergeCell ref="E22:O22"/>
-    <mergeCell ref="E23:O23"/>
-    <mergeCell ref="E24:O24"/>
-    <mergeCell ref="E40:O40"/>
-    <mergeCell ref="E41:O41"/>
-    <mergeCell ref="E42:O42"/>
-    <mergeCell ref="D33:F33"/>
+  <mergeCells count="234">
     <mergeCell ref="G33:R34"/>
-    <mergeCell ref="AB46:AF46"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="P25:Q26"/>
     <mergeCell ref="R49:V49"/>
     <mergeCell ref="P48:Q48"/>
     <mergeCell ref="R48:V48"/>
@@ -5031,9 +5079,13 @@
     <mergeCell ref="P43:Q43"/>
     <mergeCell ref="R43:V43"/>
     <mergeCell ref="R42:V42"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="W16:AA16"/>
+    <mergeCell ref="R46:V46"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="R47:V47"/>
+    <mergeCell ref="R45:V45"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="R44:V44"/>
+    <mergeCell ref="P45:Q45"/>
     <mergeCell ref="W17:AA17"/>
     <mergeCell ref="R19:V19"/>
     <mergeCell ref="R20:V20"/>
@@ -5042,9 +5094,7 @@
     <mergeCell ref="R18:V18"/>
     <mergeCell ref="W20:AA20"/>
     <mergeCell ref="R23:V23"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="P25:Q26"/>
-    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="R21:V21"/>
     <mergeCell ref="C30:H30"/>
     <mergeCell ref="P22:Q22"/>
     <mergeCell ref="C31:C38"/>
@@ -5060,7 +5110,15 @@
     <mergeCell ref="E25:I26"/>
     <mergeCell ref="S31:S38"/>
     <mergeCell ref="D34:F34"/>
-    <mergeCell ref="AG44:AH44"/>
+    <mergeCell ref="T31:V32"/>
+    <mergeCell ref="R22:V22"/>
+    <mergeCell ref="T36:V36"/>
+    <mergeCell ref="T33:V33"/>
+    <mergeCell ref="D35:F36"/>
+    <mergeCell ref="T34:V34"/>
+    <mergeCell ref="T35:V35"/>
+    <mergeCell ref="G35:R36"/>
+    <mergeCell ref="D33:F33"/>
     <mergeCell ref="D31:F32"/>
     <mergeCell ref="AB50:AC51"/>
     <mergeCell ref="AD50:AH51"/>
@@ -5084,9 +5142,7 @@
     <mergeCell ref="AB49:AF49"/>
     <mergeCell ref="AG49:AH49"/>
     <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="R46:V46"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="R47:V47"/>
+    <mergeCell ref="P39:Q39"/>
     <mergeCell ref="AG46:AH46"/>
     <mergeCell ref="AB47:AF47"/>
     <mergeCell ref="AB45:AF45"/>
@@ -5096,13 +5152,15 @@
     <mergeCell ref="AC29:AH30"/>
     <mergeCell ref="AB25:AC26"/>
     <mergeCell ref="AB44:AF44"/>
-    <mergeCell ref="T31:V32"/>
-    <mergeCell ref="R21:V21"/>
-    <mergeCell ref="R22:V22"/>
-    <mergeCell ref="T36:V36"/>
     <mergeCell ref="W37:AB38"/>
-    <mergeCell ref="AB21:AF21"/>
-    <mergeCell ref="AB22:AF22"/>
+    <mergeCell ref="W35:AH36"/>
+    <mergeCell ref="AC37:AC38"/>
+    <mergeCell ref="AD37:AH38"/>
+    <mergeCell ref="AE33:AH34"/>
+    <mergeCell ref="AD33:AD34"/>
+    <mergeCell ref="W45:AA45"/>
+    <mergeCell ref="AG44:AH44"/>
+    <mergeCell ref="AB46:AF46"/>
     <mergeCell ref="P21:Q21"/>
     <mergeCell ref="AB20:AF20"/>
     <mergeCell ref="W21:AA21"/>
@@ -5112,31 +5170,7 @@
     <mergeCell ref="R25:U26"/>
     <mergeCell ref="V25:W26"/>
     <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="W35:AH36"/>
-    <mergeCell ref="AC37:AC38"/>
-    <mergeCell ref="AD37:AH38"/>
-    <mergeCell ref="AE33:AH34"/>
-    <mergeCell ref="AD33:AD34"/>
-    <mergeCell ref="T33:V33"/>
-    <mergeCell ref="AD12:AH13"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="W12:AB13"/>
-    <mergeCell ref="W8:AC9"/>
-    <mergeCell ref="G6:P7"/>
-    <mergeCell ref="T8:V8"/>
-    <mergeCell ref="T6:V7"/>
-    <mergeCell ref="AB16:AF16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="E15:O15"/>
-    <mergeCell ref="E16:O16"/>
-    <mergeCell ref="E17:O17"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="W15:AA15"/>
-    <mergeCell ref="R16:V16"/>
-    <mergeCell ref="AB17:AF17"/>
-    <mergeCell ref="R17:V17"/>
-    <mergeCell ref="AB14:AF14"/>
+    <mergeCell ref="D37:F38"/>
     <mergeCell ref="AG18:AH18"/>
     <mergeCell ref="AB18:AF18"/>
     <mergeCell ref="P18:Q18"/>
@@ -5148,7 +5182,18 @@
     <mergeCell ref="R14:V14"/>
     <mergeCell ref="W14:AA14"/>
     <mergeCell ref="AG16:AH16"/>
-    <mergeCell ref="E18:O18"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="W15:AA15"/>
+    <mergeCell ref="R16:V16"/>
+    <mergeCell ref="AB17:AF17"/>
+    <mergeCell ref="R17:V17"/>
+    <mergeCell ref="E17:J17"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="AB16:AF16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="AB14:AF14"/>
+    <mergeCell ref="AB21:AF21"/>
     <mergeCell ref="AB40:AF40"/>
     <mergeCell ref="AG40:AH40"/>
     <mergeCell ref="AG19:AH19"/>
@@ -5171,16 +5216,7 @@
     <mergeCell ref="AG42:AH42"/>
     <mergeCell ref="W33:AC34"/>
     <mergeCell ref="AB42:AF42"/>
-    <mergeCell ref="R45:V45"/>
-    <mergeCell ref="W45:AA45"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="R44:V44"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="D37:F38"/>
-    <mergeCell ref="D35:F36"/>
-    <mergeCell ref="T34:V34"/>
-    <mergeCell ref="T35:V35"/>
-    <mergeCell ref="G35:R36"/>
+    <mergeCell ref="AB22:AF22"/>
     <mergeCell ref="G37:R38"/>
     <mergeCell ref="P40:Q40"/>
     <mergeCell ref="R40:V40"/>
@@ -5205,11 +5241,61 @@
     <mergeCell ref="AD8:AD9"/>
     <mergeCell ref="AE8:AH9"/>
     <mergeCell ref="D12:F13"/>
-    <mergeCell ref="G12:R13"/>
     <mergeCell ref="AC4:AH5"/>
     <mergeCell ref="W6:AH7"/>
     <mergeCell ref="Q6:R7"/>
     <mergeCell ref="AC12:AC13"/>
+    <mergeCell ref="E14:J14"/>
+    <mergeCell ref="K14:O14"/>
+    <mergeCell ref="K15:O15"/>
+    <mergeCell ref="E15:J15"/>
+    <mergeCell ref="E16:J16"/>
+    <mergeCell ref="AD12:AH13"/>
+    <mergeCell ref="W12:AB13"/>
+    <mergeCell ref="W8:AC9"/>
+    <mergeCell ref="G6:P7"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="T6:V7"/>
+    <mergeCell ref="G12:R13"/>
+    <mergeCell ref="W16:AA16"/>
+    <mergeCell ref="E18:J18"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="E23:J23"/>
+    <mergeCell ref="E24:J24"/>
+    <mergeCell ref="K16:O16"/>
+    <mergeCell ref="K17:O17"/>
+    <mergeCell ref="K18:O18"/>
+    <mergeCell ref="K19:O19"/>
+    <mergeCell ref="K20:O20"/>
+    <mergeCell ref="K21:O21"/>
+    <mergeCell ref="K22:O22"/>
+    <mergeCell ref="K23:O23"/>
+    <mergeCell ref="K24:O24"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="K39:O39"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="K40:O40"/>
+    <mergeCell ref="K41:O41"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="E43:J43"/>
+    <mergeCell ref="E44:J44"/>
+    <mergeCell ref="E45:J45"/>
+    <mergeCell ref="E46:J46"/>
+    <mergeCell ref="E47:J47"/>
+    <mergeCell ref="E48:J48"/>
+    <mergeCell ref="E49:J49"/>
+    <mergeCell ref="K42:O42"/>
+    <mergeCell ref="K43:O43"/>
+    <mergeCell ref="K44:O44"/>
+    <mergeCell ref="K45:O45"/>
+    <mergeCell ref="K46:O46"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K48:O48"/>
+    <mergeCell ref="K49:O49"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5249,382 +5335,382 @@
       <c r="A3" s="7"/>
     </row>
     <row r="4" spans="1:34" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="34" t="s">
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="35"/>
-      <c r="S4" s="35"/>
-      <c r="T4" s="35"/>
-      <c r="U4" s="35"/>
-      <c r="V4" s="35"/>
-      <c r="W4" s="35"/>
-      <c r="X4" s="35"/>
-      <c r="Y4" s="35"/>
-      <c r="Z4" s="35"/>
-      <c r="AA4" s="35"/>
-      <c r="AB4" s="36"/>
-      <c r="AC4" s="56" t="s">
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="76"/>
+      <c r="P4" s="76"/>
+      <c r="Q4" s="76"/>
+      <c r="R4" s="76"/>
+      <c r="S4" s="76"/>
+      <c r="T4" s="76"/>
+      <c r="U4" s="76"/>
+      <c r="V4" s="76"/>
+      <c r="W4" s="76"/>
+      <c r="X4" s="76"/>
+      <c r="Y4" s="76"/>
+      <c r="Z4" s="76"/>
+      <c r="AA4" s="76"/>
+      <c r="AB4" s="77"/>
+      <c r="AC4" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="AD4" s="57"/>
-      <c r="AE4" s="57"/>
-      <c r="AF4" s="57"/>
-      <c r="AG4" s="57"/>
-      <c r="AH4" s="58"/>
+      <c r="AD4" s="45"/>
+      <c r="AE4" s="45"/>
+      <c r="AF4" s="45"/>
+      <c r="AG4" s="45"/>
+      <c r="AH4" s="46"/>
     </row>
     <row r="5" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="40"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="38"/>
-      <c r="S5" s="38"/>
-      <c r="T5" s="38"/>
-      <c r="U5" s="38"/>
-      <c r="V5" s="38"/>
-      <c r="W5" s="38"/>
-      <c r="X5" s="38"/>
-      <c r="Y5" s="38"/>
-      <c r="Z5" s="38"/>
-      <c r="AA5" s="38"/>
-      <c r="AB5" s="39"/>
-      <c r="AC5" s="59"/>
-      <c r="AD5" s="59"/>
-      <c r="AE5" s="59"/>
-      <c r="AF5" s="59"/>
-      <c r="AG5" s="59"/>
-      <c r="AH5" s="60"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="79"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="79"/>
+      <c r="R5" s="79"/>
+      <c r="S5" s="79"/>
+      <c r="T5" s="79"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
+      <c r="W5" s="79"/>
+      <c r="X5" s="79"/>
+      <c r="Y5" s="79"/>
+      <c r="Z5" s="79"/>
+      <c r="AA5" s="79"/>
+      <c r="AB5" s="80"/>
+      <c r="AC5" s="47"/>
+      <c r="AD5" s="47"/>
+      <c r="AE5" s="47"/>
+      <c r="AF5" s="47"/>
+      <c r="AG5" s="47"/>
+      <c r="AH5" s="48"/>
     </row>
     <row r="6" spans="1:34" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="45" t="s">
+      <c r="C6" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="107"/>
-      <c r="H6" s="108"/>
-      <c r="I6" s="108"/>
-      <c r="J6" s="108"/>
-      <c r="K6" s="108"/>
-      <c r="L6" s="108"/>
-      <c r="M6" s="108"/>
-      <c r="N6" s="108"/>
-      <c r="O6" s="108"/>
-      <c r="P6" s="108"/>
-      <c r="Q6" s="67" t="s">
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="123"/>
+      <c r="H6" s="124"/>
+      <c r="I6" s="124"/>
+      <c r="J6" s="124"/>
+      <c r="K6" s="124"/>
+      <c r="L6" s="124"/>
+      <c r="M6" s="124"/>
+      <c r="N6" s="124"/>
+      <c r="O6" s="124"/>
+      <c r="P6" s="124"/>
+      <c r="Q6" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="R6" s="67"/>
-      <c r="S6" s="46" t="s">
+      <c r="R6" s="55"/>
+      <c r="S6" s="87" t="s">
         <v>27</v>
       </c>
-      <c r="T6" s="45" t="s">
+      <c r="T6" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="U6" s="45"/>
-      <c r="V6" s="45"/>
-      <c r="W6" s="61"/>
-      <c r="X6" s="62"/>
-      <c r="Y6" s="62"/>
-      <c r="Z6" s="62"/>
-      <c r="AA6" s="62"/>
-      <c r="AB6" s="62"/>
-      <c r="AC6" s="62"/>
-      <c r="AD6" s="62"/>
-      <c r="AE6" s="62"/>
-      <c r="AF6" s="62"/>
-      <c r="AG6" s="62"/>
-      <c r="AH6" s="63"/>
+      <c r="U6" s="86"/>
+      <c r="V6" s="86"/>
+      <c r="W6" s="49"/>
+      <c r="X6" s="50"/>
+      <c r="Y6" s="50"/>
+      <c r="Z6" s="50"/>
+      <c r="AA6" s="50"/>
+      <c r="AB6" s="50"/>
+      <c r="AC6" s="50"/>
+      <c r="AD6" s="50"/>
+      <c r="AE6" s="50"/>
+      <c r="AF6" s="50"/>
+      <c r="AG6" s="50"/>
+      <c r="AH6" s="51"/>
     </row>
     <row r="7" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="43"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="107"/>
-      <c r="H7" s="108"/>
-      <c r="I7" s="108"/>
-      <c r="J7" s="108"/>
-      <c r="K7" s="108"/>
-      <c r="L7" s="108"/>
-      <c r="M7" s="108"/>
-      <c r="N7" s="108"/>
-      <c r="O7" s="108"/>
-      <c r="P7" s="108"/>
-      <c r="Q7" s="67"/>
-      <c r="R7" s="67"/>
-      <c r="S7" s="46"/>
-      <c r="T7" s="45"/>
-      <c r="U7" s="45"/>
-      <c r="V7" s="45"/>
-      <c r="W7" s="64"/>
-      <c r="X7" s="65"/>
-      <c r="Y7" s="65"/>
-      <c r="Z7" s="65"/>
-      <c r="AA7" s="65"/>
-      <c r="AB7" s="65"/>
-      <c r="AC7" s="65"/>
-      <c r="AD7" s="65"/>
-      <c r="AE7" s="65"/>
-      <c r="AF7" s="65"/>
-      <c r="AG7" s="65"/>
-      <c r="AH7" s="66"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="123"/>
+      <c r="H7" s="124"/>
+      <c r="I7" s="124"/>
+      <c r="J7" s="124"/>
+      <c r="K7" s="124"/>
+      <c r="L7" s="124"/>
+      <c r="M7" s="124"/>
+      <c r="N7" s="124"/>
+      <c r="O7" s="124"/>
+      <c r="P7" s="124"/>
+      <c r="Q7" s="55"/>
+      <c r="R7" s="55"/>
+      <c r="S7" s="87"/>
+      <c r="T7" s="86"/>
+      <c r="U7" s="86"/>
+      <c r="V7" s="86"/>
+      <c r="W7" s="52"/>
+      <c r="X7" s="53"/>
+      <c r="Y7" s="53"/>
+      <c r="Z7" s="53"/>
+      <c r="AA7" s="53"/>
+      <c r="AB7" s="53"/>
+      <c r="AC7" s="53"/>
+      <c r="AD7" s="53"/>
+      <c r="AE7" s="53"/>
+      <c r="AF7" s="53"/>
+      <c r="AG7" s="53"/>
+      <c r="AH7" s="54"/>
     </row>
     <row r="8" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="43"/>
-      <c r="D8" s="45" t="s">
+      <c r="C8" s="84"/>
+      <c r="D8" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="48"/>
-      <c r="S8" s="46"/>
-      <c r="T8" s="45" t="s">
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="89"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="89"/>
+      <c r="K8" s="89"/>
+      <c r="L8" s="89"/>
+      <c r="M8" s="89"/>
+      <c r="N8" s="89"/>
+      <c r="O8" s="89"/>
+      <c r="P8" s="89"/>
+      <c r="Q8" s="89"/>
+      <c r="R8" s="89"/>
+      <c r="S8" s="87"/>
+      <c r="T8" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="U8" s="45"/>
-      <c r="V8" s="45"/>
-      <c r="W8" s="106"/>
-      <c r="X8" s="106"/>
-      <c r="Y8" s="106"/>
-      <c r="Z8" s="106"/>
-      <c r="AA8" s="106"/>
-      <c r="AB8" s="106"/>
-      <c r="AC8" s="106"/>
-      <c r="AD8" s="51" t="s">
+      <c r="U8" s="86"/>
+      <c r="V8" s="86"/>
+      <c r="W8" s="122"/>
+      <c r="X8" s="122"/>
+      <c r="Y8" s="122"/>
+      <c r="Z8" s="122"/>
+      <c r="AA8" s="122"/>
+      <c r="AB8" s="122"/>
+      <c r="AC8" s="122"/>
+      <c r="AD8" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="AE8" s="52"/>
-      <c r="AF8" s="52"/>
-      <c r="AG8" s="52"/>
-      <c r="AH8" s="53"/>
+      <c r="AE8" s="92"/>
+      <c r="AF8" s="92"/>
+      <c r="AG8" s="92"/>
+      <c r="AH8" s="93"/>
     </row>
     <row r="9" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="43"/>
-      <c r="D9" s="45" t="s">
+      <c r="C9" s="84"/>
+      <c r="D9" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="48"/>
-      <c r="P9" s="48"/>
-      <c r="Q9" s="48"/>
-      <c r="R9" s="48"/>
-      <c r="S9" s="46"/>
-      <c r="T9" s="45" t="s">
+      <c r="E9" s="86"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="89"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="89"/>
+      <c r="J9" s="89"/>
+      <c r="K9" s="89"/>
+      <c r="L9" s="89"/>
+      <c r="M9" s="89"/>
+      <c r="N9" s="89"/>
+      <c r="O9" s="89"/>
+      <c r="P9" s="89"/>
+      <c r="Q9" s="89"/>
+      <c r="R9" s="89"/>
+      <c r="S9" s="87"/>
+      <c r="T9" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="U9" s="45"/>
-      <c r="V9" s="45"/>
-      <c r="W9" s="106"/>
-      <c r="X9" s="106"/>
-      <c r="Y9" s="106"/>
-      <c r="Z9" s="106"/>
-      <c r="AA9" s="106"/>
-      <c r="AB9" s="106"/>
-      <c r="AC9" s="106"/>
-      <c r="AD9" s="51"/>
-      <c r="AE9" s="52"/>
-      <c r="AF9" s="52"/>
-      <c r="AG9" s="52"/>
-      <c r="AH9" s="53"/>
+      <c r="U9" s="86"/>
+      <c r="V9" s="86"/>
+      <c r="W9" s="122"/>
+      <c r="X9" s="122"/>
+      <c r="Y9" s="122"/>
+      <c r="Z9" s="122"/>
+      <c r="AA9" s="122"/>
+      <c r="AB9" s="122"/>
+      <c r="AC9" s="122"/>
+      <c r="AD9" s="56"/>
+      <c r="AE9" s="92"/>
+      <c r="AF9" s="92"/>
+      <c r="AG9" s="92"/>
+      <c r="AH9" s="93"/>
     </row>
     <row r="10" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="43"/>
-      <c r="D10" s="51" t="s">
+      <c r="C10" s="84"/>
+      <c r="D10" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="48"/>
-      <c r="P10" s="48"/>
-      <c r="Q10" s="48"/>
-      <c r="R10" s="48"/>
-      <c r="S10" s="46"/>
-      <c r="T10" s="45" t="s">
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="89"/>
+      <c r="J10" s="89"/>
+      <c r="K10" s="89"/>
+      <c r="L10" s="89"/>
+      <c r="M10" s="89"/>
+      <c r="N10" s="89"/>
+      <c r="O10" s="89"/>
+      <c r="P10" s="89"/>
+      <c r="Q10" s="89"/>
+      <c r="R10" s="89"/>
+      <c r="S10" s="87"/>
+      <c r="T10" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="U10" s="45"/>
-      <c r="V10" s="45"/>
-      <c r="W10" s="48"/>
-      <c r="X10" s="48"/>
-      <c r="Y10" s="48"/>
-      <c r="Z10" s="48"/>
-      <c r="AA10" s="48"/>
-      <c r="AB10" s="48"/>
-      <c r="AC10" s="48"/>
-      <c r="AD10" s="48"/>
-      <c r="AE10" s="48"/>
-      <c r="AF10" s="48"/>
-      <c r="AG10" s="48"/>
-      <c r="AH10" s="50"/>
+      <c r="U10" s="86"/>
+      <c r="V10" s="86"/>
+      <c r="W10" s="89"/>
+      <c r="X10" s="89"/>
+      <c r="Y10" s="89"/>
+      <c r="Z10" s="89"/>
+      <c r="AA10" s="89"/>
+      <c r="AB10" s="89"/>
+      <c r="AC10" s="89"/>
+      <c r="AD10" s="89"/>
+      <c r="AE10" s="89"/>
+      <c r="AF10" s="89"/>
+      <c r="AG10" s="89"/>
+      <c r="AH10" s="91"/>
     </row>
     <row r="11" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="43"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="48"/>
-      <c r="O11" s="48"/>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="48"/>
-      <c r="R11" s="48"/>
-      <c r="S11" s="46"/>
-      <c r="T11" s="45" t="s">
+      <c r="C11" s="84"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="89"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="89"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="89"/>
+      <c r="L11" s="89"/>
+      <c r="M11" s="89"/>
+      <c r="N11" s="89"/>
+      <c r="O11" s="89"/>
+      <c r="P11" s="89"/>
+      <c r="Q11" s="89"/>
+      <c r="R11" s="89"/>
+      <c r="S11" s="87"/>
+      <c r="T11" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="U11" s="45"/>
-      <c r="V11" s="45"/>
-      <c r="W11" s="48"/>
-      <c r="X11" s="48"/>
-      <c r="Y11" s="48"/>
-      <c r="Z11" s="48"/>
-      <c r="AA11" s="48"/>
-      <c r="AB11" s="48"/>
-      <c r="AC11" s="48"/>
-      <c r="AD11" s="48"/>
-      <c r="AE11" s="48"/>
-      <c r="AF11" s="48"/>
-      <c r="AG11" s="48"/>
-      <c r="AH11" s="50"/>
+      <c r="U11" s="86"/>
+      <c r="V11" s="86"/>
+      <c r="W11" s="89"/>
+      <c r="X11" s="89"/>
+      <c r="Y11" s="89"/>
+      <c r="Z11" s="89"/>
+      <c r="AA11" s="89"/>
+      <c r="AB11" s="89"/>
+      <c r="AC11" s="89"/>
+      <c r="AD11" s="89"/>
+      <c r="AE11" s="89"/>
+      <c r="AF11" s="89"/>
+      <c r="AG11" s="89"/>
+      <c r="AH11" s="91"/>
     </row>
     <row r="12" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="43"/>
-      <c r="D12" s="45" t="s">
+      <c r="C12" s="84"/>
+      <c r="D12" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="54"/>
-      <c r="O12" s="54"/>
-      <c r="P12" s="54"/>
-      <c r="Q12" s="54"/>
-      <c r="R12" s="54"/>
-      <c r="S12" s="46"/>
-      <c r="T12" s="45" t="s">
+      <c r="E12" s="86"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="125"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="125"/>
+      <c r="J12" s="125"/>
+      <c r="K12" s="125"/>
+      <c r="L12" s="125"/>
+      <c r="M12" s="125"/>
+      <c r="N12" s="125"/>
+      <c r="O12" s="125"/>
+      <c r="P12" s="125"/>
+      <c r="Q12" s="125"/>
+      <c r="R12" s="125"/>
+      <c r="S12" s="87"/>
+      <c r="T12" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="U12" s="45"/>
-      <c r="V12" s="45"/>
-      <c r="W12" s="48"/>
-      <c r="X12" s="48"/>
-      <c r="Y12" s="48"/>
-      <c r="Z12" s="48"/>
-      <c r="AA12" s="48"/>
-      <c r="AB12" s="48"/>
-      <c r="AC12" s="51" t="s">
+      <c r="U12" s="86"/>
+      <c r="V12" s="86"/>
+      <c r="W12" s="89"/>
+      <c r="X12" s="89"/>
+      <c r="Y12" s="89"/>
+      <c r="Z12" s="89"/>
+      <c r="AA12" s="89"/>
+      <c r="AB12" s="89"/>
+      <c r="AC12" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="AD12" s="48"/>
-      <c r="AE12" s="48"/>
-      <c r="AF12" s="48"/>
-      <c r="AG12" s="48"/>
-      <c r="AH12" s="50"/>
+      <c r="AD12" s="89"/>
+      <c r="AE12" s="89"/>
+      <c r="AF12" s="89"/>
+      <c r="AG12" s="89"/>
+      <c r="AH12" s="91"/>
     </row>
     <row r="13" spans="1:34" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="44"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="55"/>
-      <c r="L13" s="55"/>
-      <c r="M13" s="55"/>
-      <c r="N13" s="55"/>
-      <c r="O13" s="55"/>
-      <c r="P13" s="55"/>
-      <c r="Q13" s="55"/>
-      <c r="R13" s="55"/>
-      <c r="S13" s="47"/>
-      <c r="T13" s="49"/>
-      <c r="U13" s="49"/>
-      <c r="V13" s="49"/>
-      <c r="W13" s="103"/>
-      <c r="X13" s="103"/>
-      <c r="Y13" s="103"/>
-      <c r="Z13" s="103"/>
-      <c r="AA13" s="103"/>
-      <c r="AB13" s="103"/>
-      <c r="AC13" s="68"/>
-      <c r="AD13" s="103"/>
-      <c r="AE13" s="103"/>
-      <c r="AF13" s="103"/>
-      <c r="AG13" s="103"/>
-      <c r="AH13" s="104"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="126"/>
+      <c r="H13" s="126"/>
+      <c r="I13" s="126"/>
+      <c r="J13" s="126"/>
+      <c r="K13" s="126"/>
+      <c r="L13" s="126"/>
+      <c r="M13" s="126"/>
+      <c r="N13" s="126"/>
+      <c r="O13" s="126"/>
+      <c r="P13" s="126"/>
+      <c r="Q13" s="126"/>
+      <c r="R13" s="126"/>
+      <c r="S13" s="88"/>
+      <c r="T13" s="90"/>
+      <c r="U13" s="90"/>
+      <c r="V13" s="90"/>
+      <c r="W13" s="119"/>
+      <c r="X13" s="119"/>
+      <c r="Y13" s="119"/>
+      <c r="Z13" s="119"/>
+      <c r="AA13" s="119"/>
+      <c r="AB13" s="119"/>
+      <c r="AC13" s="57"/>
+      <c r="AD13" s="119"/>
+      <c r="AE13" s="119"/>
+      <c r="AF13" s="119"/>
+      <c r="AG13" s="119"/>
+      <c r="AH13" s="120"/>
     </row>
     <row r="14" spans="1:34" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="19" t="s">
@@ -5633,495 +5719,495 @@
       <c r="D14" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="98" t="s">
+      <c r="E14" s="114" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="98"/>
-      <c r="G14" s="98"/>
-      <c r="H14" s="98"/>
-      <c r="I14" s="98"/>
-      <c r="J14" s="98"/>
-      <c r="K14" s="98" t="s">
+      <c r="F14" s="114"/>
+      <c r="G14" s="114"/>
+      <c r="H14" s="114"/>
+      <c r="I14" s="114"/>
+      <c r="J14" s="114"/>
+      <c r="K14" s="114" t="s">
         <v>47</v>
       </c>
-      <c r="L14" s="98"/>
-      <c r="M14" s="98"/>
-      <c r="N14" s="98"/>
-      <c r="O14" s="98"/>
-      <c r="P14" s="98" t="s">
+      <c r="L14" s="114"/>
+      <c r="M14" s="114"/>
+      <c r="N14" s="114"/>
+      <c r="O14" s="114"/>
+      <c r="P14" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="Q14" s="99"/>
-      <c r="R14" s="98" t="s">
+      <c r="Q14" s="115"/>
+      <c r="R14" s="114" t="s">
         <v>34</v>
       </c>
-      <c r="S14" s="98"/>
-      <c r="T14" s="98"/>
-      <c r="U14" s="98"/>
-      <c r="V14" s="98"/>
-      <c r="W14" s="98" t="s">
+      <c r="S14" s="114"/>
+      <c r="T14" s="114"/>
+      <c r="U14" s="114"/>
+      <c r="V14" s="114"/>
+      <c r="W14" s="114" t="s">
         <v>35</v>
       </c>
-      <c r="X14" s="98"/>
-      <c r="Y14" s="98"/>
-      <c r="Z14" s="98"/>
-      <c r="AA14" s="98"/>
-      <c r="AB14" s="98" t="s">
+      <c r="X14" s="114"/>
+      <c r="Y14" s="114"/>
+      <c r="Z14" s="114"/>
+      <c r="AA14" s="114"/>
+      <c r="AB14" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="AC14" s="99"/>
-      <c r="AD14" s="99"/>
-      <c r="AE14" s="99"/>
-      <c r="AF14" s="99"/>
-      <c r="AG14" s="98" t="s">
+      <c r="AC14" s="115"/>
+      <c r="AD14" s="115"/>
+      <c r="AE14" s="115"/>
+      <c r="AF14" s="115"/>
+      <c r="AG14" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="AH14" s="105"/>
+      <c r="AH14" s="121"/>
     </row>
     <row r="15" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="27">
         <v>1</v>
       </c>
       <c r="D15" s="28"/>
-      <c r="E15" s="191"/>
-      <c r="F15" s="191"/>
-      <c r="G15" s="191"/>
-      <c r="H15" s="191"/>
-      <c r="I15" s="191"/>
-      <c r="J15" s="191"/>
-      <c r="K15" s="192"/>
-      <c r="L15" s="192"/>
-      <c r="M15" s="192"/>
-      <c r="N15" s="192"/>
-      <c r="O15" s="192"/>
-      <c r="P15" s="193"/>
-      <c r="Q15" s="193"/>
-      <c r="R15" s="194"/>
-      <c r="S15" s="194"/>
-      <c r="T15" s="194"/>
-      <c r="U15" s="194"/>
-      <c r="V15" s="194"/>
-      <c r="W15" s="194"/>
-      <c r="X15" s="194"/>
-      <c r="Y15" s="194"/>
-      <c r="Z15" s="194"/>
-      <c r="AA15" s="194"/>
-      <c r="AB15" s="194"/>
-      <c r="AC15" s="194"/>
-      <c r="AD15" s="194"/>
-      <c r="AE15" s="194"/>
-      <c r="AF15" s="194"/>
-      <c r="AG15" s="95"/>
-      <c r="AH15" s="96"/>
+      <c r="E15" s="211"/>
+      <c r="F15" s="211"/>
+      <c r="G15" s="211"/>
+      <c r="H15" s="211"/>
+      <c r="I15" s="211"/>
+      <c r="J15" s="211"/>
+      <c r="K15" s="212"/>
+      <c r="L15" s="212"/>
+      <c r="M15" s="212"/>
+      <c r="N15" s="212"/>
+      <c r="O15" s="212"/>
+      <c r="P15" s="213"/>
+      <c r="Q15" s="213"/>
+      <c r="R15" s="214"/>
+      <c r="S15" s="214"/>
+      <c r="T15" s="214"/>
+      <c r="U15" s="214"/>
+      <c r="V15" s="214"/>
+      <c r="W15" s="214"/>
+      <c r="X15" s="214"/>
+      <c r="Y15" s="214"/>
+      <c r="Z15" s="214"/>
+      <c r="AA15" s="214"/>
+      <c r="AB15" s="214"/>
+      <c r="AC15" s="214"/>
+      <c r="AD15" s="214"/>
+      <c r="AE15" s="214"/>
+      <c r="AF15" s="214"/>
+      <c r="AG15" s="117"/>
+      <c r="AH15" s="118"/>
     </row>
     <row r="16" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="29">
         <v>2</v>
       </c>
       <c r="D16" s="30"/>
-      <c r="E16" s="186"/>
-      <c r="F16" s="187"/>
-      <c r="G16" s="187"/>
-      <c r="H16" s="187"/>
-      <c r="I16" s="187"/>
-      <c r="J16" s="187"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="48"/>
-      <c r="N16" s="48"/>
-      <c r="O16" s="48"/>
-      <c r="P16" s="188"/>
-      <c r="Q16" s="189"/>
-      <c r="R16" s="190"/>
-      <c r="S16" s="190"/>
-      <c r="T16" s="190"/>
-      <c r="U16" s="190"/>
-      <c r="V16" s="190"/>
-      <c r="W16" s="190"/>
-      <c r="X16" s="190"/>
-      <c r="Y16" s="190"/>
-      <c r="Z16" s="190"/>
-      <c r="AA16" s="190"/>
-      <c r="AB16" s="190"/>
-      <c r="AC16" s="190"/>
-      <c r="AD16" s="190"/>
-      <c r="AE16" s="190"/>
-      <c r="AF16" s="190"/>
-      <c r="AG16" s="48"/>
-      <c r="AH16" s="50"/>
+      <c r="E16" s="206"/>
+      <c r="F16" s="207"/>
+      <c r="G16" s="207"/>
+      <c r="H16" s="207"/>
+      <c r="I16" s="207"/>
+      <c r="J16" s="207"/>
+      <c r="K16" s="89"/>
+      <c r="L16" s="89"/>
+      <c r="M16" s="89"/>
+      <c r="N16" s="89"/>
+      <c r="O16" s="89"/>
+      <c r="P16" s="208"/>
+      <c r="Q16" s="209"/>
+      <c r="R16" s="210"/>
+      <c r="S16" s="210"/>
+      <c r="T16" s="210"/>
+      <c r="U16" s="210"/>
+      <c r="V16" s="210"/>
+      <c r="W16" s="210"/>
+      <c r="X16" s="210"/>
+      <c r="Y16" s="210"/>
+      <c r="Z16" s="210"/>
+      <c r="AA16" s="210"/>
+      <c r="AB16" s="210"/>
+      <c r="AC16" s="210"/>
+      <c r="AD16" s="210"/>
+      <c r="AE16" s="210"/>
+      <c r="AF16" s="210"/>
+      <c r="AG16" s="89"/>
+      <c r="AH16" s="91"/>
     </row>
     <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="29">
         <v>3</v>
       </c>
       <c r="D17" s="30"/>
-      <c r="E17" s="186"/>
-      <c r="F17" s="187"/>
-      <c r="G17" s="187"/>
-      <c r="H17" s="187"/>
-      <c r="I17" s="187"/>
-      <c r="J17" s="187"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="48"/>
-      <c r="N17" s="48"/>
-      <c r="O17" s="48"/>
-      <c r="P17" s="188"/>
-      <c r="Q17" s="189"/>
-      <c r="R17" s="190"/>
-      <c r="S17" s="190"/>
-      <c r="T17" s="190"/>
-      <c r="U17" s="190"/>
-      <c r="V17" s="190"/>
-      <c r="W17" s="190"/>
-      <c r="X17" s="190"/>
-      <c r="Y17" s="190"/>
-      <c r="Z17" s="190"/>
-      <c r="AA17" s="190"/>
-      <c r="AB17" s="190"/>
-      <c r="AC17" s="190"/>
-      <c r="AD17" s="190"/>
-      <c r="AE17" s="190"/>
-      <c r="AF17" s="190"/>
-      <c r="AG17" s="48"/>
-      <c r="AH17" s="50"/>
+      <c r="E17" s="206"/>
+      <c r="F17" s="207"/>
+      <c r="G17" s="207"/>
+      <c r="H17" s="207"/>
+      <c r="I17" s="207"/>
+      <c r="J17" s="207"/>
+      <c r="K17" s="89"/>
+      <c r="L17" s="89"/>
+      <c r="M17" s="89"/>
+      <c r="N17" s="89"/>
+      <c r="O17" s="89"/>
+      <c r="P17" s="208"/>
+      <c r="Q17" s="209"/>
+      <c r="R17" s="210"/>
+      <c r="S17" s="210"/>
+      <c r="T17" s="210"/>
+      <c r="U17" s="210"/>
+      <c r="V17" s="210"/>
+      <c r="W17" s="210"/>
+      <c r="X17" s="210"/>
+      <c r="Y17" s="210"/>
+      <c r="Z17" s="210"/>
+      <c r="AA17" s="210"/>
+      <c r="AB17" s="210"/>
+      <c r="AC17" s="210"/>
+      <c r="AD17" s="210"/>
+      <c r="AE17" s="210"/>
+      <c r="AF17" s="210"/>
+      <c r="AG17" s="89"/>
+      <c r="AH17" s="91"/>
     </row>
     <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="29">
         <v>4</v>
       </c>
       <c r="D18" s="30"/>
-      <c r="E18" s="186"/>
-      <c r="F18" s="187"/>
-      <c r="G18" s="187"/>
-      <c r="H18" s="187"/>
-      <c r="I18" s="187"/>
-      <c r="J18" s="187"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="48"/>
-      <c r="O18" s="48"/>
-      <c r="P18" s="188"/>
-      <c r="Q18" s="189"/>
-      <c r="R18" s="190"/>
-      <c r="S18" s="190"/>
-      <c r="T18" s="190"/>
-      <c r="U18" s="190"/>
-      <c r="V18" s="190"/>
-      <c r="W18" s="190"/>
-      <c r="X18" s="190"/>
-      <c r="Y18" s="190"/>
-      <c r="Z18" s="190"/>
-      <c r="AA18" s="190"/>
-      <c r="AB18" s="190"/>
-      <c r="AC18" s="190"/>
-      <c r="AD18" s="190"/>
-      <c r="AE18" s="190"/>
-      <c r="AF18" s="190"/>
-      <c r="AG18" s="48"/>
-      <c r="AH18" s="82"/>
+      <c r="E18" s="206"/>
+      <c r="F18" s="207"/>
+      <c r="G18" s="207"/>
+      <c r="H18" s="207"/>
+      <c r="I18" s="207"/>
+      <c r="J18" s="207"/>
+      <c r="K18" s="89"/>
+      <c r="L18" s="89"/>
+      <c r="M18" s="89"/>
+      <c r="N18" s="89"/>
+      <c r="O18" s="89"/>
+      <c r="P18" s="208"/>
+      <c r="Q18" s="209"/>
+      <c r="R18" s="210"/>
+      <c r="S18" s="210"/>
+      <c r="T18" s="210"/>
+      <c r="U18" s="210"/>
+      <c r="V18" s="210"/>
+      <c r="W18" s="210"/>
+      <c r="X18" s="210"/>
+      <c r="Y18" s="210"/>
+      <c r="Z18" s="210"/>
+      <c r="AA18" s="210"/>
+      <c r="AB18" s="210"/>
+      <c r="AC18" s="210"/>
+      <c r="AD18" s="210"/>
+      <c r="AE18" s="210"/>
+      <c r="AF18" s="210"/>
+      <c r="AG18" s="89"/>
+      <c r="AH18" s="96"/>
     </row>
     <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="29">
         <v>5</v>
       </c>
       <c r="D19" s="30"/>
-      <c r="E19" s="186"/>
-      <c r="F19" s="187"/>
-      <c r="G19" s="187"/>
-      <c r="H19" s="187"/>
-      <c r="I19" s="187"/>
-      <c r="J19" s="187"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="48"/>
-      <c r="N19" s="48"/>
-      <c r="O19" s="48"/>
-      <c r="P19" s="188"/>
-      <c r="Q19" s="189"/>
-      <c r="R19" s="190"/>
-      <c r="S19" s="190"/>
-      <c r="T19" s="190"/>
-      <c r="U19" s="190"/>
-      <c r="V19" s="190"/>
-      <c r="W19" s="190"/>
-      <c r="X19" s="190"/>
-      <c r="Y19" s="190"/>
-      <c r="Z19" s="190"/>
-      <c r="AA19" s="190"/>
-      <c r="AB19" s="190"/>
-      <c r="AC19" s="190"/>
-      <c r="AD19" s="190"/>
-      <c r="AE19" s="190"/>
-      <c r="AF19" s="190"/>
-      <c r="AG19" s="48"/>
-      <c r="AH19" s="82"/>
+      <c r="E19" s="206"/>
+      <c r="F19" s="207"/>
+      <c r="G19" s="207"/>
+      <c r="H19" s="207"/>
+      <c r="I19" s="207"/>
+      <c r="J19" s="207"/>
+      <c r="K19" s="89"/>
+      <c r="L19" s="89"/>
+      <c r="M19" s="89"/>
+      <c r="N19" s="89"/>
+      <c r="O19" s="89"/>
+      <c r="P19" s="208"/>
+      <c r="Q19" s="209"/>
+      <c r="R19" s="210"/>
+      <c r="S19" s="210"/>
+      <c r="T19" s="210"/>
+      <c r="U19" s="210"/>
+      <c r="V19" s="210"/>
+      <c r="W19" s="210"/>
+      <c r="X19" s="210"/>
+      <c r="Y19" s="210"/>
+      <c r="Z19" s="210"/>
+      <c r="AA19" s="210"/>
+      <c r="AB19" s="210"/>
+      <c r="AC19" s="210"/>
+      <c r="AD19" s="210"/>
+      <c r="AE19" s="210"/>
+      <c r="AF19" s="210"/>
+      <c r="AG19" s="89"/>
+      <c r="AH19" s="96"/>
     </row>
     <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="29">
         <v>6</v>
       </c>
       <c r="D20" s="30"/>
-      <c r="E20" s="186"/>
-      <c r="F20" s="187"/>
-      <c r="G20" s="187"/>
-      <c r="H20" s="187"/>
-      <c r="I20" s="187"/>
-      <c r="J20" s="187"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="48"/>
-      <c r="N20" s="48"/>
-      <c r="O20" s="48"/>
-      <c r="P20" s="188"/>
-      <c r="Q20" s="189"/>
-      <c r="R20" s="190"/>
-      <c r="S20" s="190"/>
-      <c r="T20" s="190"/>
-      <c r="U20" s="190"/>
-      <c r="V20" s="190"/>
-      <c r="W20" s="190"/>
-      <c r="X20" s="190"/>
-      <c r="Y20" s="190"/>
-      <c r="Z20" s="190"/>
-      <c r="AA20" s="190"/>
-      <c r="AB20" s="190"/>
-      <c r="AC20" s="190"/>
-      <c r="AD20" s="190"/>
-      <c r="AE20" s="190"/>
-      <c r="AF20" s="190"/>
-      <c r="AG20" s="48"/>
-      <c r="AH20" s="82"/>
+      <c r="E20" s="206"/>
+      <c r="F20" s="207"/>
+      <c r="G20" s="207"/>
+      <c r="H20" s="207"/>
+      <c r="I20" s="207"/>
+      <c r="J20" s="207"/>
+      <c r="K20" s="89"/>
+      <c r="L20" s="89"/>
+      <c r="M20" s="89"/>
+      <c r="N20" s="89"/>
+      <c r="O20" s="89"/>
+      <c r="P20" s="208"/>
+      <c r="Q20" s="209"/>
+      <c r="R20" s="210"/>
+      <c r="S20" s="210"/>
+      <c r="T20" s="210"/>
+      <c r="U20" s="210"/>
+      <c r="V20" s="210"/>
+      <c r="W20" s="210"/>
+      <c r="X20" s="210"/>
+      <c r="Y20" s="210"/>
+      <c r="Z20" s="210"/>
+      <c r="AA20" s="210"/>
+      <c r="AB20" s="210"/>
+      <c r="AC20" s="210"/>
+      <c r="AD20" s="210"/>
+      <c r="AE20" s="210"/>
+      <c r="AF20" s="210"/>
+      <c r="AG20" s="89"/>
+      <c r="AH20" s="96"/>
     </row>
     <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="29">
         <v>7</v>
       </c>
       <c r="D21" s="30"/>
-      <c r="E21" s="186"/>
-      <c r="F21" s="187"/>
-      <c r="G21" s="187"/>
-      <c r="H21" s="187"/>
-      <c r="I21" s="187"/>
-      <c r="J21" s="187"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="48"/>
-      <c r="N21" s="48"/>
-      <c r="O21" s="48"/>
-      <c r="P21" s="188"/>
-      <c r="Q21" s="189"/>
-      <c r="R21" s="190"/>
-      <c r="S21" s="190"/>
-      <c r="T21" s="190"/>
-      <c r="U21" s="190"/>
-      <c r="V21" s="190"/>
-      <c r="W21" s="190"/>
-      <c r="X21" s="190"/>
-      <c r="Y21" s="190"/>
-      <c r="Z21" s="190"/>
-      <c r="AA21" s="190"/>
-      <c r="AB21" s="190"/>
-      <c r="AC21" s="190"/>
-      <c r="AD21" s="190"/>
-      <c r="AE21" s="190"/>
-      <c r="AF21" s="190"/>
-      <c r="AG21" s="48"/>
-      <c r="AH21" s="82"/>
+      <c r="E21" s="206"/>
+      <c r="F21" s="207"/>
+      <c r="G21" s="207"/>
+      <c r="H21" s="207"/>
+      <c r="I21" s="207"/>
+      <c r="J21" s="207"/>
+      <c r="K21" s="89"/>
+      <c r="L21" s="89"/>
+      <c r="M21" s="89"/>
+      <c r="N21" s="89"/>
+      <c r="O21" s="89"/>
+      <c r="P21" s="208"/>
+      <c r="Q21" s="209"/>
+      <c r="R21" s="210"/>
+      <c r="S21" s="210"/>
+      <c r="T21" s="210"/>
+      <c r="U21" s="210"/>
+      <c r="V21" s="210"/>
+      <c r="W21" s="210"/>
+      <c r="X21" s="210"/>
+      <c r="Y21" s="210"/>
+      <c r="Z21" s="210"/>
+      <c r="AA21" s="210"/>
+      <c r="AB21" s="210"/>
+      <c r="AC21" s="210"/>
+      <c r="AD21" s="210"/>
+      <c r="AE21" s="210"/>
+      <c r="AF21" s="210"/>
+      <c r="AG21" s="89"/>
+      <c r="AH21" s="96"/>
     </row>
     <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="29">
         <v>8</v>
       </c>
       <c r="D22" s="30"/>
-      <c r="E22" s="186"/>
-      <c r="F22" s="187"/>
-      <c r="G22" s="187"/>
-      <c r="H22" s="187"/>
-      <c r="I22" s="187"/>
-      <c r="J22" s="187"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="48"/>
-      <c r="N22" s="48"/>
-      <c r="O22" s="48"/>
-      <c r="P22" s="188"/>
-      <c r="Q22" s="189"/>
-      <c r="R22" s="190"/>
-      <c r="S22" s="190"/>
-      <c r="T22" s="190"/>
-      <c r="U22" s="190"/>
-      <c r="V22" s="190"/>
-      <c r="W22" s="190"/>
-      <c r="X22" s="190"/>
-      <c r="Y22" s="190"/>
-      <c r="Z22" s="190"/>
-      <c r="AA22" s="190"/>
-      <c r="AB22" s="190"/>
-      <c r="AC22" s="190"/>
-      <c r="AD22" s="190"/>
-      <c r="AE22" s="190"/>
-      <c r="AF22" s="190"/>
-      <c r="AG22" s="48"/>
-      <c r="AH22" s="82"/>
+      <c r="E22" s="206"/>
+      <c r="F22" s="207"/>
+      <c r="G22" s="207"/>
+      <c r="H22" s="207"/>
+      <c r="I22" s="207"/>
+      <c r="J22" s="207"/>
+      <c r="K22" s="89"/>
+      <c r="L22" s="89"/>
+      <c r="M22" s="89"/>
+      <c r="N22" s="89"/>
+      <c r="O22" s="89"/>
+      <c r="P22" s="208"/>
+      <c r="Q22" s="209"/>
+      <c r="R22" s="210"/>
+      <c r="S22" s="210"/>
+      <c r="T22" s="210"/>
+      <c r="U22" s="210"/>
+      <c r="V22" s="210"/>
+      <c r="W22" s="210"/>
+      <c r="X22" s="210"/>
+      <c r="Y22" s="210"/>
+      <c r="Z22" s="210"/>
+      <c r="AA22" s="210"/>
+      <c r="AB22" s="210"/>
+      <c r="AC22" s="210"/>
+      <c r="AD22" s="210"/>
+      <c r="AE22" s="210"/>
+      <c r="AF22" s="210"/>
+      <c r="AG22" s="89"/>
+      <c r="AH22" s="96"/>
     </row>
     <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="29">
         <v>9</v>
       </c>
       <c r="D23" s="30"/>
-      <c r="E23" s="186"/>
-      <c r="F23" s="187"/>
-      <c r="G23" s="187"/>
-      <c r="H23" s="187"/>
-      <c r="I23" s="187"/>
-      <c r="J23" s="187"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="48"/>
-      <c r="N23" s="48"/>
-      <c r="O23" s="48"/>
-      <c r="P23" s="188"/>
-      <c r="Q23" s="189"/>
-      <c r="R23" s="190"/>
-      <c r="S23" s="190"/>
-      <c r="T23" s="190"/>
-      <c r="U23" s="190"/>
-      <c r="V23" s="190"/>
-      <c r="W23" s="190"/>
-      <c r="X23" s="190"/>
-      <c r="Y23" s="190"/>
-      <c r="Z23" s="190"/>
-      <c r="AA23" s="190"/>
-      <c r="AB23" s="190"/>
-      <c r="AC23" s="190"/>
-      <c r="AD23" s="190"/>
-      <c r="AE23" s="190"/>
-      <c r="AF23" s="190"/>
-      <c r="AG23" s="48"/>
-      <c r="AH23" s="82"/>
+      <c r="E23" s="206"/>
+      <c r="F23" s="207"/>
+      <c r="G23" s="207"/>
+      <c r="H23" s="207"/>
+      <c r="I23" s="207"/>
+      <c r="J23" s="207"/>
+      <c r="K23" s="89"/>
+      <c r="L23" s="89"/>
+      <c r="M23" s="89"/>
+      <c r="N23" s="89"/>
+      <c r="O23" s="89"/>
+      <c r="P23" s="208"/>
+      <c r="Q23" s="209"/>
+      <c r="R23" s="210"/>
+      <c r="S23" s="210"/>
+      <c r="T23" s="210"/>
+      <c r="U23" s="210"/>
+      <c r="V23" s="210"/>
+      <c r="W23" s="210"/>
+      <c r="X23" s="210"/>
+      <c r="Y23" s="210"/>
+      <c r="Z23" s="210"/>
+      <c r="AA23" s="210"/>
+      <c r="AB23" s="210"/>
+      <c r="AC23" s="210"/>
+      <c r="AD23" s="210"/>
+      <c r="AE23" s="210"/>
+      <c r="AF23" s="210"/>
+      <c r="AG23" s="89"/>
+      <c r="AH23" s="96"/>
     </row>
     <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="29">
         <v>10</v>
       </c>
       <c r="D24" s="30"/>
-      <c r="E24" s="186"/>
-      <c r="F24" s="187"/>
-      <c r="G24" s="187"/>
-      <c r="H24" s="187"/>
-      <c r="I24" s="187"/>
-      <c r="J24" s="187"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="48"/>
-      <c r="M24" s="48"/>
-      <c r="N24" s="48"/>
-      <c r="O24" s="48"/>
-      <c r="P24" s="188"/>
-      <c r="Q24" s="189"/>
-      <c r="R24" s="190"/>
-      <c r="S24" s="190"/>
-      <c r="T24" s="190"/>
-      <c r="U24" s="190"/>
-      <c r="V24" s="190"/>
-      <c r="W24" s="190"/>
-      <c r="X24" s="190"/>
-      <c r="Y24" s="190"/>
-      <c r="Z24" s="190"/>
-      <c r="AA24" s="190"/>
-      <c r="AB24" s="190"/>
-      <c r="AC24" s="190"/>
-      <c r="AD24" s="190"/>
-      <c r="AE24" s="190"/>
-      <c r="AF24" s="190"/>
-      <c r="AG24" s="48"/>
-      <c r="AH24" s="50"/>
+      <c r="E24" s="206"/>
+      <c r="F24" s="207"/>
+      <c r="G24" s="207"/>
+      <c r="H24" s="207"/>
+      <c r="I24" s="207"/>
+      <c r="J24" s="207"/>
+      <c r="K24" s="89"/>
+      <c r="L24" s="89"/>
+      <c r="M24" s="89"/>
+      <c r="N24" s="89"/>
+      <c r="O24" s="89"/>
+      <c r="P24" s="208"/>
+      <c r="Q24" s="209"/>
+      <c r="R24" s="210"/>
+      <c r="S24" s="210"/>
+      <c r="T24" s="210"/>
+      <c r="U24" s="210"/>
+      <c r="V24" s="210"/>
+      <c r="W24" s="210"/>
+      <c r="X24" s="210"/>
+      <c r="Y24" s="210"/>
+      <c r="Z24" s="210"/>
+      <c r="AA24" s="210"/>
+      <c r="AB24" s="210"/>
+      <c r="AC24" s="210"/>
+      <c r="AD24" s="210"/>
+      <c r="AE24" s="210"/>
+      <c r="AF24" s="210"/>
+      <c r="AG24" s="89"/>
+      <c r="AH24" s="91"/>
     </row>
     <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="180" t="s">
+      <c r="C25" s="200" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="110"/>
-      <c r="E25" s="182"/>
-      <c r="F25" s="182"/>
-      <c r="G25" s="182"/>
-      <c r="H25" s="182"/>
-      <c r="I25" s="182"/>
-      <c r="J25" s="110" t="s">
+      <c r="D25" s="127"/>
+      <c r="E25" s="202"/>
+      <c r="F25" s="202"/>
+      <c r="G25" s="202"/>
+      <c r="H25" s="202"/>
+      <c r="I25" s="202"/>
+      <c r="J25" s="127" t="s">
         <v>29</v>
       </c>
-      <c r="K25" s="110"/>
-      <c r="L25" s="112"/>
-      <c r="M25" s="112"/>
-      <c r="N25" s="112"/>
-      <c r="O25" s="112"/>
-      <c r="P25" s="110" t="s">
+      <c r="K25" s="127"/>
+      <c r="L25" s="129"/>
+      <c r="M25" s="129"/>
+      <c r="N25" s="129"/>
+      <c r="O25" s="129"/>
+      <c r="P25" s="127" t="s">
         <v>18</v>
       </c>
-      <c r="Q25" s="110"/>
-      <c r="R25" s="114">
+      <c r="Q25" s="127"/>
+      <c r="R25" s="131">
         <f>E25+L25</f>
         <v>0</v>
       </c>
-      <c r="S25" s="115"/>
-      <c r="T25" s="115"/>
-      <c r="U25" s="116"/>
-      <c r="V25" s="120" t="s">
+      <c r="S25" s="132"/>
+      <c r="T25" s="132"/>
+      <c r="U25" s="133"/>
+      <c r="V25" s="137" t="s">
         <v>13</v>
       </c>
-      <c r="W25" s="120"/>
-      <c r="X25" s="173" t="s">
+      <c r="W25" s="137"/>
+      <c r="X25" s="193" t="s">
         <v>19</v>
       </c>
-      <c r="Y25" s="173"/>
-      <c r="Z25" s="173"/>
-      <c r="AA25" s="173"/>
-      <c r="AB25" s="136" t="s">
+      <c r="Y25" s="193"/>
+      <c r="Z25" s="193"/>
+      <c r="AA25" s="193"/>
+      <c r="AB25" s="149" t="s">
         <v>42</v>
       </c>
-      <c r="AC25" s="137"/>
-      <c r="AD25" s="126" t="s">
+      <c r="AC25" s="150"/>
+      <c r="AD25" s="139" t="s">
         <v>19</v>
       </c>
-      <c r="AE25" s="126"/>
-      <c r="AF25" s="126"/>
-      <c r="AG25" s="126"/>
-      <c r="AH25" s="127"/>
+      <c r="AE25" s="139"/>
+      <c r="AF25" s="139"/>
+      <c r="AG25" s="139"/>
+      <c r="AH25" s="140"/>
     </row>
     <row r="26" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="181"/>
-      <c r="D26" s="111"/>
-      <c r="E26" s="183"/>
-      <c r="F26" s="183"/>
-      <c r="G26" s="183"/>
-      <c r="H26" s="183"/>
-      <c r="I26" s="183"/>
-      <c r="J26" s="111"/>
-      <c r="K26" s="111"/>
-      <c r="L26" s="113"/>
-      <c r="M26" s="113"/>
-      <c r="N26" s="113"/>
-      <c r="O26" s="113"/>
-      <c r="P26" s="111"/>
-      <c r="Q26" s="111"/>
-      <c r="R26" s="117"/>
-      <c r="S26" s="118"/>
-      <c r="T26" s="118"/>
-      <c r="U26" s="119"/>
-      <c r="V26" s="121"/>
-      <c r="W26" s="121"/>
-      <c r="X26" s="174"/>
-      <c r="Y26" s="174"/>
-      <c r="Z26" s="174"/>
-      <c r="AA26" s="174"/>
-      <c r="AB26" s="138"/>
-      <c r="AC26" s="138"/>
-      <c r="AD26" s="128"/>
-      <c r="AE26" s="128"/>
-      <c r="AF26" s="128"/>
-      <c r="AG26" s="128"/>
-      <c r="AH26" s="129"/>
+      <c r="C26" s="201"/>
+      <c r="D26" s="128"/>
+      <c r="E26" s="203"/>
+      <c r="F26" s="203"/>
+      <c r="G26" s="203"/>
+      <c r="H26" s="203"/>
+      <c r="I26" s="203"/>
+      <c r="J26" s="128"/>
+      <c r="K26" s="128"/>
+      <c r="L26" s="130"/>
+      <c r="M26" s="130"/>
+      <c r="N26" s="130"/>
+      <c r="O26" s="130"/>
+      <c r="P26" s="128"/>
+      <c r="Q26" s="128"/>
+      <c r="R26" s="134"/>
+      <c r="S26" s="135"/>
+      <c r="T26" s="135"/>
+      <c r="U26" s="136"/>
+      <c r="V26" s="138"/>
+      <c r="W26" s="138"/>
+      <c r="X26" s="194"/>
+      <c r="Y26" s="194"/>
+      <c r="Z26" s="194"/>
+      <c r="AA26" s="194"/>
+      <c r="AB26" s="151"/>
+      <c r="AC26" s="151"/>
+      <c r="AD26" s="141"/>
+      <c r="AE26" s="141"/>
+      <c r="AF26" s="141"/>
+      <c r="AG26" s="141"/>
+      <c r="AH26" s="142"/>
     </row>
     <row r="27" spans="1:35" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>
@@ -6195,413 +6281,413 @@
       <c r="AH28" s="5"/>
     </row>
     <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="177" t="s">
+      <c r="C29" s="197" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="178"/>
-      <c r="E29" s="178"/>
-      <c r="F29" s="178"/>
-      <c r="G29" s="178"/>
-      <c r="H29" s="179"/>
-      <c r="I29" s="167" t="s">
+      <c r="D29" s="198"/>
+      <c r="E29" s="198"/>
+      <c r="F29" s="198"/>
+      <c r="G29" s="198"/>
+      <c r="H29" s="199"/>
+      <c r="I29" s="187" t="s">
         <v>21</v>
       </c>
-      <c r="J29" s="168"/>
-      <c r="K29" s="168"/>
-      <c r="L29" s="168"/>
-      <c r="M29" s="168"/>
-      <c r="N29" s="168"/>
-      <c r="O29" s="168"/>
-      <c r="P29" s="168"/>
-      <c r="Q29" s="168"/>
-      <c r="R29" s="168"/>
-      <c r="S29" s="168"/>
-      <c r="T29" s="168"/>
-      <c r="U29" s="168"/>
-      <c r="V29" s="168"/>
-      <c r="W29" s="168"/>
-      <c r="X29" s="168"/>
-      <c r="Y29" s="168"/>
-      <c r="Z29" s="168"/>
-      <c r="AA29" s="168"/>
-      <c r="AB29" s="169"/>
-      <c r="AC29" s="130" t="str">
+      <c r="J29" s="188"/>
+      <c r="K29" s="188"/>
+      <c r="L29" s="188"/>
+      <c r="M29" s="188"/>
+      <c r="N29" s="188"/>
+      <c r="O29" s="188"/>
+      <c r="P29" s="188"/>
+      <c r="Q29" s="188"/>
+      <c r="R29" s="188"/>
+      <c r="S29" s="188"/>
+      <c r="T29" s="188"/>
+      <c r="U29" s="188"/>
+      <c r="V29" s="188"/>
+      <c r="W29" s="188"/>
+      <c r="X29" s="188"/>
+      <c r="Y29" s="188"/>
+      <c r="Z29" s="188"/>
+      <c r="AA29" s="188"/>
+      <c r="AB29" s="189"/>
+      <c r="AC29" s="143" t="str">
         <f>AC4</f>
         <v>1/1</v>
       </c>
-      <c r="AD29" s="131"/>
-      <c r="AE29" s="131"/>
-      <c r="AF29" s="131"/>
-      <c r="AG29" s="131"/>
-      <c r="AH29" s="132"/>
+      <c r="AD29" s="144"/>
+      <c r="AE29" s="144"/>
+      <c r="AF29" s="144"/>
+      <c r="AG29" s="144"/>
+      <c r="AH29" s="145"/>
     </row>
     <row r="30" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="162">
+      <c r="C30" s="182">
         <f>C5</f>
         <v>0</v>
       </c>
-      <c r="D30" s="163"/>
-      <c r="E30" s="163"/>
-      <c r="F30" s="163"/>
-      <c r="G30" s="163"/>
-      <c r="H30" s="164"/>
-      <c r="I30" s="170"/>
-      <c r="J30" s="171"/>
-      <c r="K30" s="171"/>
-      <c r="L30" s="171"/>
-      <c r="M30" s="171"/>
-      <c r="N30" s="171"/>
-      <c r="O30" s="171"/>
-      <c r="P30" s="171"/>
-      <c r="Q30" s="171"/>
-      <c r="R30" s="171"/>
-      <c r="S30" s="171"/>
-      <c r="T30" s="171"/>
-      <c r="U30" s="171"/>
-      <c r="V30" s="171"/>
-      <c r="W30" s="171"/>
-      <c r="X30" s="171"/>
-      <c r="Y30" s="171"/>
-      <c r="Z30" s="171"/>
-      <c r="AA30" s="171"/>
-      <c r="AB30" s="172"/>
-      <c r="AC30" s="133"/>
-      <c r="AD30" s="134"/>
-      <c r="AE30" s="134"/>
-      <c r="AF30" s="134"/>
-      <c r="AG30" s="134"/>
-      <c r="AH30" s="135"/>
+      <c r="D30" s="183"/>
+      <c r="E30" s="183"/>
+      <c r="F30" s="183"/>
+      <c r="G30" s="183"/>
+      <c r="H30" s="184"/>
+      <c r="I30" s="190"/>
+      <c r="J30" s="191"/>
+      <c r="K30" s="191"/>
+      <c r="L30" s="191"/>
+      <c r="M30" s="191"/>
+      <c r="N30" s="191"/>
+      <c r="O30" s="191"/>
+      <c r="P30" s="191"/>
+      <c r="Q30" s="191"/>
+      <c r="R30" s="191"/>
+      <c r="S30" s="191"/>
+      <c r="T30" s="191"/>
+      <c r="U30" s="191"/>
+      <c r="V30" s="191"/>
+      <c r="W30" s="191"/>
+      <c r="X30" s="191"/>
+      <c r="Y30" s="191"/>
+      <c r="Z30" s="191"/>
+      <c r="AA30" s="191"/>
+      <c r="AB30" s="192"/>
+      <c r="AC30" s="146"/>
+      <c r="AD30" s="147"/>
+      <c r="AE30" s="147"/>
+      <c r="AF30" s="147"/>
+      <c r="AG30" s="147"/>
+      <c r="AH30" s="148"/>
     </row>
     <row r="31" spans="1:35" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="165" t="s">
-        <v>0</v>
-      </c>
-      <c r="D31" s="69" t="s">
+      <c r="C31" s="185" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="E31" s="69"/>
-      <c r="F31" s="69"/>
-      <c r="G31" s="175">
+      <c r="E31" s="70"/>
+      <c r="F31" s="70"/>
+      <c r="G31" s="195">
         <f>G6</f>
         <v>0</v>
       </c>
-      <c r="H31" s="176"/>
-      <c r="I31" s="176"/>
-      <c r="J31" s="176"/>
-      <c r="K31" s="176"/>
-      <c r="L31" s="176"/>
-      <c r="M31" s="176"/>
-      <c r="N31" s="176"/>
-      <c r="O31" s="176"/>
-      <c r="P31" s="176"/>
-      <c r="Q31" s="161" t="s">
+      <c r="H31" s="196"/>
+      <c r="I31" s="196"/>
+      <c r="J31" s="196"/>
+      <c r="K31" s="196"/>
+      <c r="L31" s="196"/>
+      <c r="M31" s="196"/>
+      <c r="N31" s="196"/>
+      <c r="O31" s="196"/>
+      <c r="P31" s="196"/>
+      <c r="Q31" s="180" t="s">
         <v>26</v>
       </c>
-      <c r="R31" s="161"/>
-      <c r="S31" s="184" t="s">
+      <c r="R31" s="180"/>
+      <c r="S31" s="204" t="s">
         <v>27</v>
       </c>
-      <c r="T31" s="69" t="s">
+      <c r="T31" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="U31" s="69"/>
-      <c r="V31" s="69"/>
-      <c r="W31" s="83"/>
-      <c r="X31" s="84"/>
-      <c r="Y31" s="84"/>
-      <c r="Z31" s="84"/>
-      <c r="AA31" s="84"/>
-      <c r="AB31" s="84"/>
-      <c r="AC31" s="84"/>
-      <c r="AD31" s="84"/>
-      <c r="AE31" s="84"/>
-      <c r="AF31" s="84"/>
-      <c r="AG31" s="84"/>
-      <c r="AH31" s="85"/>
+      <c r="U31" s="70"/>
+      <c r="V31" s="70"/>
+      <c r="W31" s="97"/>
+      <c r="X31" s="98"/>
+      <c r="Y31" s="98"/>
+      <c r="Z31" s="98"/>
+      <c r="AA31" s="98"/>
+      <c r="AB31" s="98"/>
+      <c r="AC31" s="98"/>
+      <c r="AD31" s="98"/>
+      <c r="AE31" s="98"/>
+      <c r="AF31" s="98"/>
+      <c r="AG31" s="98"/>
+      <c r="AH31" s="99"/>
     </row>
     <row r="32" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="165"/>
-      <c r="D32" s="69"/>
-      <c r="E32" s="69"/>
-      <c r="F32" s="69"/>
-      <c r="G32" s="175"/>
-      <c r="H32" s="176"/>
-      <c r="I32" s="176"/>
-      <c r="J32" s="176"/>
-      <c r="K32" s="176"/>
-      <c r="L32" s="176"/>
-      <c r="M32" s="176"/>
-      <c r="N32" s="176"/>
-      <c r="O32" s="176"/>
-      <c r="P32" s="176"/>
-      <c r="Q32" s="161"/>
-      <c r="R32" s="161"/>
-      <c r="S32" s="184"/>
-      <c r="T32" s="69"/>
-      <c r="U32" s="69"/>
-      <c r="V32" s="69"/>
-      <c r="W32" s="86"/>
-      <c r="X32" s="87"/>
-      <c r="Y32" s="87"/>
-      <c r="Z32" s="87"/>
-      <c r="AA32" s="87"/>
-      <c r="AB32" s="87"/>
-      <c r="AC32" s="87"/>
-      <c r="AD32" s="87"/>
-      <c r="AE32" s="87"/>
-      <c r="AF32" s="87"/>
-      <c r="AG32" s="87"/>
-      <c r="AH32" s="88"/>
+      <c r="C32" s="185"/>
+      <c r="D32" s="70"/>
+      <c r="E32" s="70"/>
+      <c r="F32" s="70"/>
+      <c r="G32" s="195"/>
+      <c r="H32" s="196"/>
+      <c r="I32" s="196"/>
+      <c r="J32" s="196"/>
+      <c r="K32" s="196"/>
+      <c r="L32" s="196"/>
+      <c r="M32" s="196"/>
+      <c r="N32" s="196"/>
+      <c r="O32" s="196"/>
+      <c r="P32" s="196"/>
+      <c r="Q32" s="180"/>
+      <c r="R32" s="180"/>
+      <c r="S32" s="204"/>
+      <c r="T32" s="70"/>
+      <c r="U32" s="70"/>
+      <c r="V32" s="70"/>
+      <c r="W32" s="100"/>
+      <c r="X32" s="101"/>
+      <c r="Y32" s="101"/>
+      <c r="Z32" s="101"/>
+      <c r="AA32" s="101"/>
+      <c r="AB32" s="101"/>
+      <c r="AC32" s="101"/>
+      <c r="AD32" s="101"/>
+      <c r="AE32" s="101"/>
+      <c r="AF32" s="101"/>
+      <c r="AG32" s="101"/>
+      <c r="AH32" s="102"/>
     </row>
     <row r="33" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="165"/>
-      <c r="D33" s="69" t="s">
+      <c r="C33" s="185"/>
+      <c r="D33" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="E33" s="69"/>
-      <c r="F33" s="69"/>
-      <c r="G33" s="72">
+      <c r="E33" s="70"/>
+      <c r="F33" s="70"/>
+      <c r="G33" s="103">
         <f>G8</f>
         <v>0</v>
       </c>
-      <c r="H33" s="72"/>
-      <c r="I33" s="72"/>
-      <c r="J33" s="72"/>
-      <c r="K33" s="72"/>
-      <c r="L33" s="72"/>
-      <c r="M33" s="72"/>
-      <c r="N33" s="72"/>
-      <c r="O33" s="72"/>
-      <c r="P33" s="72"/>
-      <c r="Q33" s="72"/>
-      <c r="R33" s="72"/>
-      <c r="S33" s="184"/>
-      <c r="T33" s="69" t="s">
+      <c r="H33" s="103"/>
+      <c r="I33" s="103"/>
+      <c r="J33" s="103"/>
+      <c r="K33" s="103"/>
+      <c r="L33" s="103"/>
+      <c r="M33" s="103"/>
+      <c r="N33" s="103"/>
+      <c r="O33" s="103"/>
+      <c r="P33" s="103"/>
+      <c r="Q33" s="103"/>
+      <c r="R33" s="103"/>
+      <c r="S33" s="204"/>
+      <c r="T33" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="U33" s="69"/>
-      <c r="V33" s="69"/>
-      <c r="W33" s="94">
+      <c r="U33" s="70"/>
+      <c r="V33" s="70"/>
+      <c r="W33" s="110">
         <f>W8</f>
         <v>0</v>
       </c>
-      <c r="X33" s="94"/>
-      <c r="Y33" s="94"/>
-      <c r="Z33" s="94"/>
-      <c r="AA33" s="94"/>
-      <c r="AB33" s="94"/>
-      <c r="AC33" s="94"/>
-      <c r="AD33" s="195" t="s">
+      <c r="X33" s="110"/>
+      <c r="Y33" s="110"/>
+      <c r="Z33" s="110"/>
+      <c r="AA33" s="110"/>
+      <c r="AB33" s="110"/>
+      <c r="AC33" s="110"/>
+      <c r="AD33" s="215" t="s">
         <v>4</v>
       </c>
-      <c r="AE33" s="124">
+      <c r="AE33" s="156">
         <f>AE8</f>
         <v>0</v>
       </c>
-      <c r="AF33" s="124"/>
-      <c r="AG33" s="124"/>
-      <c r="AH33" s="125"/>
+      <c r="AF33" s="156"/>
+      <c r="AG33" s="156"/>
+      <c r="AH33" s="157"/>
     </row>
     <row r="34" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="165"/>
-      <c r="D34" s="69" t="s">
+      <c r="C34" s="185"/>
+      <c r="D34" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="E34" s="69"/>
-      <c r="F34" s="69"/>
-      <c r="G34" s="72"/>
-      <c r="H34" s="72"/>
-      <c r="I34" s="72"/>
-      <c r="J34" s="72"/>
-      <c r="K34" s="72"/>
-      <c r="L34" s="72"/>
-      <c r="M34" s="72"/>
-      <c r="N34" s="72"/>
-      <c r="O34" s="72"/>
-      <c r="P34" s="72"/>
-      <c r="Q34" s="72"/>
-      <c r="R34" s="72"/>
-      <c r="S34" s="184"/>
-      <c r="T34" s="69" t="s">
+      <c r="E34" s="70"/>
+      <c r="F34" s="70"/>
+      <c r="G34" s="103"/>
+      <c r="H34" s="103"/>
+      <c r="I34" s="103"/>
+      <c r="J34" s="103"/>
+      <c r="K34" s="103"/>
+      <c r="L34" s="103"/>
+      <c r="M34" s="103"/>
+      <c r="N34" s="103"/>
+      <c r="O34" s="103"/>
+      <c r="P34" s="103"/>
+      <c r="Q34" s="103"/>
+      <c r="R34" s="103"/>
+      <c r="S34" s="204"/>
+      <c r="T34" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="U34" s="69"/>
-      <c r="V34" s="69"/>
-      <c r="W34" s="94"/>
-      <c r="X34" s="94"/>
-      <c r="Y34" s="94"/>
-      <c r="Z34" s="94"/>
-      <c r="AA34" s="94"/>
-      <c r="AB34" s="94"/>
-      <c r="AC34" s="94"/>
-      <c r="AD34" s="195"/>
-      <c r="AE34" s="124"/>
-      <c r="AF34" s="124"/>
-      <c r="AG34" s="124"/>
-      <c r="AH34" s="125"/>
+      <c r="U34" s="70"/>
+      <c r="V34" s="70"/>
+      <c r="W34" s="110"/>
+      <c r="X34" s="110"/>
+      <c r="Y34" s="110"/>
+      <c r="Z34" s="110"/>
+      <c r="AA34" s="110"/>
+      <c r="AB34" s="110"/>
+      <c r="AC34" s="110"/>
+      <c r="AD34" s="215"/>
+      <c r="AE34" s="156"/>
+      <c r="AF34" s="156"/>
+      <c r="AG34" s="156"/>
+      <c r="AH34" s="157"/>
     </row>
     <row r="35" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="165"/>
-      <c r="D35" s="71" t="s">
+      <c r="C35" s="185"/>
+      <c r="D35" s="153" t="s">
         <v>45</v>
       </c>
-      <c r="E35" s="71"/>
-      <c r="F35" s="71"/>
-      <c r="G35" s="72">
+      <c r="E35" s="153"/>
+      <c r="F35" s="153"/>
+      <c r="G35" s="103">
         <f>G10</f>
         <v>0</v>
       </c>
-      <c r="H35" s="72"/>
-      <c r="I35" s="72"/>
-      <c r="J35" s="72"/>
-      <c r="K35" s="72"/>
-      <c r="L35" s="72"/>
-      <c r="M35" s="72"/>
-      <c r="N35" s="72"/>
-      <c r="O35" s="72"/>
-      <c r="P35" s="72"/>
-      <c r="Q35" s="72"/>
-      <c r="R35" s="72"/>
-      <c r="S35" s="184"/>
-      <c r="T35" s="69" t="s">
+      <c r="H35" s="103"/>
+      <c r="I35" s="103"/>
+      <c r="J35" s="103"/>
+      <c r="K35" s="103"/>
+      <c r="L35" s="103"/>
+      <c r="M35" s="103"/>
+      <c r="N35" s="103"/>
+      <c r="O35" s="103"/>
+      <c r="P35" s="103"/>
+      <c r="Q35" s="103"/>
+      <c r="R35" s="103"/>
+      <c r="S35" s="204"/>
+      <c r="T35" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="U35" s="69"/>
-      <c r="V35" s="69"/>
-      <c r="W35" s="72">
+      <c r="U35" s="70"/>
+      <c r="V35" s="70"/>
+      <c r="W35" s="103">
         <f>W10</f>
         <v>0</v>
       </c>
-      <c r="X35" s="72"/>
-      <c r="Y35" s="72"/>
-      <c r="Z35" s="72"/>
-      <c r="AA35" s="72"/>
-      <c r="AB35" s="72"/>
-      <c r="AC35" s="72"/>
-      <c r="AD35" s="72"/>
-      <c r="AE35" s="72"/>
-      <c r="AF35" s="72"/>
-      <c r="AG35" s="72"/>
-      <c r="AH35" s="93"/>
+      <c r="X35" s="103"/>
+      <c r="Y35" s="103"/>
+      <c r="Z35" s="103"/>
+      <c r="AA35" s="103"/>
+      <c r="AB35" s="103"/>
+      <c r="AC35" s="103"/>
+      <c r="AD35" s="103"/>
+      <c r="AE35" s="103"/>
+      <c r="AF35" s="103"/>
+      <c r="AG35" s="103"/>
+      <c r="AH35" s="109"/>
     </row>
     <row r="36" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="165"/>
-      <c r="D36" s="71"/>
-      <c r="E36" s="71"/>
-      <c r="F36" s="71"/>
-      <c r="G36" s="72"/>
-      <c r="H36" s="72"/>
-      <c r="I36" s="72"/>
-      <c r="J36" s="72"/>
-      <c r="K36" s="72"/>
-      <c r="L36" s="72"/>
-      <c r="M36" s="72"/>
-      <c r="N36" s="72"/>
-      <c r="O36" s="72"/>
-      <c r="P36" s="72"/>
-      <c r="Q36" s="72"/>
-      <c r="R36" s="72"/>
-      <c r="S36" s="184"/>
-      <c r="T36" s="69" t="s">
+      <c r="C36" s="185"/>
+      <c r="D36" s="153"/>
+      <c r="E36" s="153"/>
+      <c r="F36" s="153"/>
+      <c r="G36" s="103"/>
+      <c r="H36" s="103"/>
+      <c r="I36" s="103"/>
+      <c r="J36" s="103"/>
+      <c r="K36" s="103"/>
+      <c r="L36" s="103"/>
+      <c r="M36" s="103"/>
+      <c r="N36" s="103"/>
+      <c r="O36" s="103"/>
+      <c r="P36" s="103"/>
+      <c r="Q36" s="103"/>
+      <c r="R36" s="103"/>
+      <c r="S36" s="204"/>
+      <c r="T36" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="U36" s="69"/>
-      <c r="V36" s="69"/>
-      <c r="W36" s="72"/>
-      <c r="X36" s="72"/>
-      <c r="Y36" s="72"/>
-      <c r="Z36" s="72"/>
-      <c r="AA36" s="72"/>
-      <c r="AB36" s="72"/>
-      <c r="AC36" s="72"/>
-      <c r="AD36" s="72"/>
-      <c r="AE36" s="72"/>
-      <c r="AF36" s="72"/>
-      <c r="AG36" s="72"/>
-      <c r="AH36" s="93"/>
+      <c r="U36" s="70"/>
+      <c r="V36" s="70"/>
+      <c r="W36" s="103"/>
+      <c r="X36" s="103"/>
+      <c r="Y36" s="103"/>
+      <c r="Z36" s="103"/>
+      <c r="AA36" s="103"/>
+      <c r="AB36" s="103"/>
+      <c r="AC36" s="103"/>
+      <c r="AD36" s="103"/>
+      <c r="AE36" s="103"/>
+      <c r="AF36" s="103"/>
+      <c r="AG36" s="103"/>
+      <c r="AH36" s="109"/>
     </row>
     <row r="37" spans="3:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="165"/>
-      <c r="D37" s="69" t="s">
+      <c r="C37" s="185"/>
+      <c r="D37" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="E37" s="69"/>
-      <c r="F37" s="69"/>
-      <c r="G37" s="73">
+      <c r="E37" s="70"/>
+      <c r="F37" s="70"/>
+      <c r="G37" s="65">
         <f>G12</f>
         <v>0</v>
       </c>
-      <c r="H37" s="73"/>
-      <c r="I37" s="73"/>
-      <c r="J37" s="73"/>
-      <c r="K37" s="73"/>
-      <c r="L37" s="73"/>
-      <c r="M37" s="73"/>
-      <c r="N37" s="73"/>
-      <c r="O37" s="73"/>
-      <c r="P37" s="73"/>
-      <c r="Q37" s="73"/>
-      <c r="R37" s="73"/>
-      <c r="S37" s="184"/>
-      <c r="T37" s="69" t="s">
+      <c r="H37" s="65"/>
+      <c r="I37" s="65"/>
+      <c r="J37" s="65"/>
+      <c r="K37" s="65"/>
+      <c r="L37" s="65"/>
+      <c r="M37" s="65"/>
+      <c r="N37" s="65"/>
+      <c r="O37" s="65"/>
+      <c r="P37" s="65"/>
+      <c r="Q37" s="65"/>
+      <c r="R37" s="65"/>
+      <c r="S37" s="204"/>
+      <c r="T37" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="U37" s="69"/>
-      <c r="V37" s="69"/>
-      <c r="W37" s="72">
+      <c r="U37" s="70"/>
+      <c r="V37" s="70"/>
+      <c r="W37" s="103">
         <f>W12</f>
         <v>0</v>
       </c>
-      <c r="X37" s="72"/>
-      <c r="Y37" s="72"/>
-      <c r="Z37" s="72"/>
-      <c r="AA37" s="72"/>
-      <c r="AB37" s="72"/>
-      <c r="AC37" s="71" t="s">
+      <c r="X37" s="103"/>
+      <c r="Y37" s="103"/>
+      <c r="Z37" s="103"/>
+      <c r="AA37" s="103"/>
+      <c r="AB37" s="103"/>
+      <c r="AC37" s="153" t="s">
         <v>12</v>
       </c>
-      <c r="AD37" s="72">
+      <c r="AD37" s="103">
         <f>AD12</f>
         <v>0</v>
       </c>
-      <c r="AE37" s="72"/>
-      <c r="AF37" s="72"/>
-      <c r="AG37" s="72"/>
-      <c r="AH37" s="93"/>
+      <c r="AE37" s="103"/>
+      <c r="AF37" s="103"/>
+      <c r="AG37" s="103"/>
+      <c r="AH37" s="109"/>
     </row>
     <row r="38" spans="3:34" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C38" s="166"/>
-      <c r="D38" s="70"/>
-      <c r="E38" s="70"/>
-      <c r="F38" s="70"/>
-      <c r="G38" s="74"/>
-      <c r="H38" s="74"/>
-      <c r="I38" s="74"/>
-      <c r="J38" s="74"/>
-      <c r="K38" s="74"/>
-      <c r="L38" s="74"/>
-      <c r="M38" s="74"/>
-      <c r="N38" s="74"/>
-      <c r="O38" s="74"/>
-      <c r="P38" s="74"/>
-      <c r="Q38" s="74"/>
-      <c r="R38" s="74"/>
-      <c r="S38" s="185"/>
-      <c r="T38" s="70"/>
-      <c r="U38" s="70"/>
-      <c r="V38" s="70"/>
-      <c r="W38" s="109"/>
-      <c r="X38" s="109"/>
-      <c r="Y38" s="109"/>
-      <c r="Z38" s="109"/>
-      <c r="AA38" s="109"/>
-      <c r="AB38" s="109"/>
-      <c r="AC38" s="122"/>
-      <c r="AD38" s="109"/>
-      <c r="AE38" s="109"/>
-      <c r="AF38" s="109"/>
-      <c r="AG38" s="109"/>
-      <c r="AH38" s="123"/>
+      <c r="C38" s="186"/>
+      <c r="D38" s="71"/>
+      <c r="E38" s="71"/>
+      <c r="F38" s="71"/>
+      <c r="G38" s="66"/>
+      <c r="H38" s="66"/>
+      <c r="I38" s="66"/>
+      <c r="J38" s="66"/>
+      <c r="K38" s="66"/>
+      <c r="L38" s="66"/>
+      <c r="M38" s="66"/>
+      <c r="N38" s="66"/>
+      <c r="O38" s="66"/>
+      <c r="P38" s="66"/>
+      <c r="Q38" s="66"/>
+      <c r="R38" s="66"/>
+      <c r="S38" s="205"/>
+      <c r="T38" s="71"/>
+      <c r="U38" s="71"/>
+      <c r="V38" s="71"/>
+      <c r="W38" s="152"/>
+      <c r="X38" s="152"/>
+      <c r="Y38" s="152"/>
+      <c r="Z38" s="152"/>
+      <c r="AA38" s="152"/>
+      <c r="AB38" s="152"/>
+      <c r="AC38" s="154"/>
+      <c r="AD38" s="152"/>
+      <c r="AE38" s="152"/>
+      <c r="AF38" s="152"/>
+      <c r="AG38" s="152"/>
+      <c r="AH38" s="155"/>
     </row>
     <row r="39" spans="3:34" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C39" s="21" t="s">
@@ -6610,50 +6696,50 @@
       <c r="D39" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E39" s="77" t="s">
+      <c r="E39" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="F39" s="77"/>
-      <c r="G39" s="77"/>
-      <c r="H39" s="77"/>
-      <c r="I39" s="77"/>
-      <c r="J39" s="77"/>
-      <c r="K39" s="77" t="s">
+      <c r="F39" s="69"/>
+      <c r="G39" s="69"/>
+      <c r="H39" s="69"/>
+      <c r="I39" s="69"/>
+      <c r="J39" s="69"/>
+      <c r="K39" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="L39" s="77"/>
-      <c r="M39" s="77"/>
-      <c r="N39" s="77"/>
-      <c r="O39" s="77"/>
-      <c r="P39" s="77" t="s">
+      <c r="L39" s="69"/>
+      <c r="M39" s="69"/>
+      <c r="N39" s="69"/>
+      <c r="O39" s="69"/>
+      <c r="P39" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="Q39" s="91"/>
-      <c r="R39" s="77" t="s">
+      <c r="Q39" s="107"/>
+      <c r="R39" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="S39" s="77"/>
-      <c r="T39" s="77"/>
-      <c r="U39" s="77"/>
-      <c r="V39" s="77"/>
-      <c r="W39" s="77" t="s">
+      <c r="S39" s="69"/>
+      <c r="T39" s="69"/>
+      <c r="U39" s="69"/>
+      <c r="V39" s="69"/>
+      <c r="W39" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="X39" s="77"/>
-      <c r="Y39" s="77"/>
-      <c r="Z39" s="77"/>
-      <c r="AA39" s="77"/>
-      <c r="AB39" s="77" t="s">
+      <c r="X39" s="69"/>
+      <c r="Y39" s="69"/>
+      <c r="Z39" s="69"/>
+      <c r="AA39" s="69"/>
+      <c r="AB39" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="AC39" s="91"/>
-      <c r="AD39" s="91"/>
-      <c r="AE39" s="91"/>
-      <c r="AF39" s="91"/>
-      <c r="AG39" s="77" t="s">
+      <c r="AC39" s="107"/>
+      <c r="AD39" s="107"/>
+      <c r="AE39" s="107"/>
+      <c r="AF39" s="107"/>
+      <c r="AG39" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="AH39" s="92"/>
+      <c r="AH39" s="108"/>
     </row>
     <row r="40" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C40" s="23">
@@ -6664,57 +6750,57 @@
         <f>D15</f>
         <v>0</v>
       </c>
-      <c r="E40" s="196">
+      <c r="E40" s="216">
         <f>E15</f>
         <v>0</v>
       </c>
-      <c r="F40" s="196"/>
-      <c r="G40" s="196"/>
-      <c r="H40" s="196"/>
-      <c r="I40" s="196"/>
-      <c r="J40" s="196"/>
-      <c r="K40" s="197">
+      <c r="F40" s="216"/>
+      <c r="G40" s="216"/>
+      <c r="H40" s="216"/>
+      <c r="I40" s="216"/>
+      <c r="J40" s="216"/>
+      <c r="K40" s="217">
         <f>K15</f>
         <v>0</v>
       </c>
-      <c r="L40" s="197"/>
-      <c r="M40" s="197"/>
-      <c r="N40" s="197"/>
-      <c r="O40" s="197"/>
-      <c r="P40" s="198">
+      <c r="L40" s="217"/>
+      <c r="M40" s="217"/>
+      <c r="N40" s="217"/>
+      <c r="O40" s="217"/>
+      <c r="P40" s="218">
         <f>P15</f>
         <v>0</v>
       </c>
-      <c r="Q40" s="198"/>
-      <c r="R40" s="199">
+      <c r="Q40" s="218"/>
+      <c r="R40" s="219">
         <f>R15</f>
         <v>0</v>
       </c>
-      <c r="S40" s="199"/>
-      <c r="T40" s="199"/>
-      <c r="U40" s="199"/>
-      <c r="V40" s="199"/>
-      <c r="W40" s="199">
+      <c r="S40" s="219"/>
+      <c r="T40" s="219"/>
+      <c r="U40" s="219"/>
+      <c r="V40" s="219"/>
+      <c r="W40" s="219">
         <f t="shared" ref="W40:W49" si="0">W15</f>
         <v>0</v>
       </c>
-      <c r="X40" s="199"/>
-      <c r="Y40" s="199"/>
-      <c r="Z40" s="199"/>
-      <c r="AA40" s="199"/>
-      <c r="AB40" s="199">
+      <c r="X40" s="219"/>
+      <c r="Y40" s="219"/>
+      <c r="Z40" s="219"/>
+      <c r="AA40" s="219"/>
+      <c r="AB40" s="219">
         <f>AB15</f>
         <v>0</v>
       </c>
-      <c r="AC40" s="199"/>
-      <c r="AD40" s="199"/>
-      <c r="AE40" s="199"/>
-      <c r="AF40" s="199"/>
-      <c r="AG40" s="80">
+      <c r="AC40" s="219"/>
+      <c r="AD40" s="219"/>
+      <c r="AE40" s="219"/>
+      <c r="AF40" s="219"/>
+      <c r="AG40" s="94">
         <f>AG15</f>
         <v>0</v>
       </c>
-      <c r="AH40" s="81"/>
+      <c r="AH40" s="95"/>
     </row>
     <row r="41" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C41" s="25">
@@ -6725,54 +6811,54 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E41" s="200">
+      <c r="E41" s="220">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F41" s="200"/>
-      <c r="G41" s="200"/>
-      <c r="H41" s="200"/>
-      <c r="I41" s="200"/>
-      <c r="J41" s="200"/>
-      <c r="K41" s="72">
+      <c r="F41" s="220"/>
+      <c r="G41" s="220"/>
+      <c r="H41" s="220"/>
+      <c r="I41" s="220"/>
+      <c r="J41" s="220"/>
+      <c r="K41" s="103">
         <f t="shared" ref="K41:K49" si="2">K16</f>
         <v>0</v>
       </c>
-      <c r="L41" s="72"/>
-      <c r="M41" s="72"/>
-      <c r="N41" s="72"/>
-      <c r="O41" s="72"/>
-      <c r="P41" s="201">
+      <c r="L41" s="103"/>
+      <c r="M41" s="103"/>
+      <c r="N41" s="103"/>
+      <c r="O41" s="103"/>
+      <c r="P41" s="221">
         <f t="shared" ref="P41:P49" si="3">P16</f>
         <v>0</v>
       </c>
-      <c r="Q41" s="201"/>
-      <c r="R41" s="202">
+      <c r="Q41" s="221"/>
+      <c r="R41" s="222">
         <f t="shared" ref="R41:R49" si="4">R16</f>
         <v>0</v>
       </c>
-      <c r="S41" s="202"/>
-      <c r="T41" s="202"/>
-      <c r="U41" s="202"/>
-      <c r="V41" s="202"/>
-      <c r="W41" s="202">
+      <c r="S41" s="222"/>
+      <c r="T41" s="222"/>
+      <c r="U41" s="222"/>
+      <c r="V41" s="222"/>
+      <c r="W41" s="222">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X41" s="202"/>
-      <c r="Y41" s="202"/>
-      <c r="Z41" s="202"/>
-      <c r="AA41" s="202"/>
-      <c r="AB41" s="202">
+      <c r="X41" s="222"/>
+      <c r="Y41" s="222"/>
+      <c r="Z41" s="222"/>
+      <c r="AA41" s="222"/>
+      <c r="AB41" s="222">
         <f t="shared" ref="AB41:AB49" si="5">AB16</f>
         <v>0</v>
       </c>
-      <c r="AC41" s="202"/>
-      <c r="AD41" s="202"/>
-      <c r="AE41" s="202"/>
-      <c r="AF41" s="202"/>
-      <c r="AG41" s="72"/>
-      <c r="AH41" s="93"/>
+      <c r="AC41" s="222"/>
+      <c r="AD41" s="222"/>
+      <c r="AE41" s="222"/>
+      <c r="AF41" s="222"/>
+      <c r="AG41" s="103"/>
+      <c r="AH41" s="109"/>
     </row>
     <row r="42" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C42" s="25">
@@ -6783,54 +6869,54 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E42" s="200">
+      <c r="E42" s="220">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F42" s="200"/>
-      <c r="G42" s="200"/>
-      <c r="H42" s="200"/>
-      <c r="I42" s="200"/>
-      <c r="J42" s="200"/>
-      <c r="K42" s="72">
+      <c r="F42" s="220"/>
+      <c r="G42" s="220"/>
+      <c r="H42" s="220"/>
+      <c r="I42" s="220"/>
+      <c r="J42" s="220"/>
+      <c r="K42" s="103">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L42" s="72"/>
-      <c r="M42" s="72"/>
-      <c r="N42" s="72"/>
-      <c r="O42" s="72"/>
-      <c r="P42" s="201">
+      <c r="L42" s="103"/>
+      <c r="M42" s="103"/>
+      <c r="N42" s="103"/>
+      <c r="O42" s="103"/>
+      <c r="P42" s="221">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q42" s="201"/>
-      <c r="R42" s="202">
+      <c r="Q42" s="221"/>
+      <c r="R42" s="222">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S42" s="202"/>
-      <c r="T42" s="202"/>
-      <c r="U42" s="202"/>
-      <c r="V42" s="202"/>
-      <c r="W42" s="202">
+      <c r="S42" s="222"/>
+      <c r="T42" s="222"/>
+      <c r="U42" s="222"/>
+      <c r="V42" s="222"/>
+      <c r="W42" s="222">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X42" s="202"/>
-      <c r="Y42" s="202"/>
-      <c r="Z42" s="202"/>
-      <c r="AA42" s="202"/>
-      <c r="AB42" s="202">
+      <c r="X42" s="222"/>
+      <c r="Y42" s="222"/>
+      <c r="Z42" s="222"/>
+      <c r="AA42" s="222"/>
+      <c r="AB42" s="222">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC42" s="202"/>
-      <c r="AD42" s="202"/>
-      <c r="AE42" s="202"/>
-      <c r="AF42" s="202"/>
-      <c r="AG42" s="72"/>
-      <c r="AH42" s="93"/>
+      <c r="AC42" s="222"/>
+      <c r="AD42" s="222"/>
+      <c r="AE42" s="222"/>
+      <c r="AF42" s="222"/>
+      <c r="AG42" s="103"/>
+      <c r="AH42" s="109"/>
     </row>
     <row r="43" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C43" s="25">
@@ -6841,54 +6927,54 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E43" s="200">
+      <c r="E43" s="220">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F43" s="200"/>
-      <c r="G43" s="200"/>
-      <c r="H43" s="200"/>
-      <c r="I43" s="200"/>
-      <c r="J43" s="200"/>
-      <c r="K43" s="72">
+      <c r="F43" s="220"/>
+      <c r="G43" s="220"/>
+      <c r="H43" s="220"/>
+      <c r="I43" s="220"/>
+      <c r="J43" s="220"/>
+      <c r="K43" s="103">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L43" s="72"/>
-      <c r="M43" s="72"/>
-      <c r="N43" s="72"/>
-      <c r="O43" s="72"/>
-      <c r="P43" s="201">
+      <c r="L43" s="103"/>
+      <c r="M43" s="103"/>
+      <c r="N43" s="103"/>
+      <c r="O43" s="103"/>
+      <c r="P43" s="221">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q43" s="201"/>
-      <c r="R43" s="202">
+      <c r="Q43" s="221"/>
+      <c r="R43" s="222">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S43" s="202"/>
-      <c r="T43" s="202"/>
-      <c r="U43" s="202"/>
-      <c r="V43" s="202"/>
-      <c r="W43" s="202">
+      <c r="S43" s="222"/>
+      <c r="T43" s="222"/>
+      <c r="U43" s="222"/>
+      <c r="V43" s="222"/>
+      <c r="W43" s="222">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X43" s="202"/>
-      <c r="Y43" s="202"/>
-      <c r="Z43" s="202"/>
-      <c r="AA43" s="202"/>
-      <c r="AB43" s="202">
+      <c r="X43" s="222"/>
+      <c r="Y43" s="222"/>
+      <c r="Z43" s="222"/>
+      <c r="AA43" s="222"/>
+      <c r="AB43" s="222">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC43" s="202"/>
-      <c r="AD43" s="202"/>
-      <c r="AE43" s="202"/>
-      <c r="AF43" s="202"/>
-      <c r="AG43" s="72"/>
-      <c r="AH43" s="89"/>
+      <c r="AC43" s="222"/>
+      <c r="AD43" s="222"/>
+      <c r="AE43" s="222"/>
+      <c r="AF43" s="222"/>
+      <c r="AG43" s="103"/>
+      <c r="AH43" s="104"/>
     </row>
     <row r="44" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C44" s="25">
@@ -6899,54 +6985,54 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E44" s="200">
+      <c r="E44" s="220">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F44" s="200"/>
-      <c r="G44" s="200"/>
-      <c r="H44" s="200"/>
-      <c r="I44" s="200"/>
-      <c r="J44" s="200"/>
-      <c r="K44" s="72">
+      <c r="F44" s="220"/>
+      <c r="G44" s="220"/>
+      <c r="H44" s="220"/>
+      <c r="I44" s="220"/>
+      <c r="J44" s="220"/>
+      <c r="K44" s="103">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L44" s="72"/>
-      <c r="M44" s="72"/>
-      <c r="N44" s="72"/>
-      <c r="O44" s="72"/>
-      <c r="P44" s="201">
+      <c r="L44" s="103"/>
+      <c r="M44" s="103"/>
+      <c r="N44" s="103"/>
+      <c r="O44" s="103"/>
+      <c r="P44" s="221">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q44" s="201"/>
-      <c r="R44" s="202">
+      <c r="Q44" s="221"/>
+      <c r="R44" s="222">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S44" s="202"/>
-      <c r="T44" s="202"/>
-      <c r="U44" s="202"/>
-      <c r="V44" s="202"/>
-      <c r="W44" s="202">
+      <c r="S44" s="222"/>
+      <c r="T44" s="222"/>
+      <c r="U44" s="222"/>
+      <c r="V44" s="222"/>
+      <c r="W44" s="222">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X44" s="202"/>
-      <c r="Y44" s="202"/>
-      <c r="Z44" s="202"/>
-      <c r="AA44" s="202"/>
-      <c r="AB44" s="202">
+      <c r="X44" s="222"/>
+      <c r="Y44" s="222"/>
+      <c r="Z44" s="222"/>
+      <c r="AA44" s="222"/>
+      <c r="AB44" s="222">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC44" s="202"/>
-      <c r="AD44" s="202"/>
-      <c r="AE44" s="202"/>
-      <c r="AF44" s="202"/>
-      <c r="AG44" s="72"/>
-      <c r="AH44" s="89"/>
+      <c r="AC44" s="222"/>
+      <c r="AD44" s="222"/>
+      <c r="AE44" s="222"/>
+      <c r="AF44" s="222"/>
+      <c r="AG44" s="103"/>
+      <c r="AH44" s="104"/>
     </row>
     <row r="45" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C45" s="25">
@@ -6957,54 +7043,54 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E45" s="200">
+      <c r="E45" s="220">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F45" s="200"/>
-      <c r="G45" s="200"/>
-      <c r="H45" s="200"/>
-      <c r="I45" s="200"/>
-      <c r="J45" s="200"/>
-      <c r="K45" s="72">
+      <c r="F45" s="220"/>
+      <c r="G45" s="220"/>
+      <c r="H45" s="220"/>
+      <c r="I45" s="220"/>
+      <c r="J45" s="220"/>
+      <c r="K45" s="103">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L45" s="72"/>
-      <c r="M45" s="72"/>
-      <c r="N45" s="72"/>
-      <c r="O45" s="72"/>
-      <c r="P45" s="201">
+      <c r="L45" s="103"/>
+      <c r="M45" s="103"/>
+      <c r="N45" s="103"/>
+      <c r="O45" s="103"/>
+      <c r="P45" s="221">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q45" s="201"/>
-      <c r="R45" s="202">
+      <c r="Q45" s="221"/>
+      <c r="R45" s="222">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S45" s="202"/>
-      <c r="T45" s="202"/>
-      <c r="U45" s="202"/>
-      <c r="V45" s="202"/>
-      <c r="W45" s="202">
+      <c r="S45" s="222"/>
+      <c r="T45" s="222"/>
+      <c r="U45" s="222"/>
+      <c r="V45" s="222"/>
+      <c r="W45" s="222">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X45" s="202"/>
-      <c r="Y45" s="202"/>
-      <c r="Z45" s="202"/>
-      <c r="AA45" s="202"/>
-      <c r="AB45" s="202">
+      <c r="X45" s="222"/>
+      <c r="Y45" s="222"/>
+      <c r="Z45" s="222"/>
+      <c r="AA45" s="222"/>
+      <c r="AB45" s="222">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC45" s="202"/>
-      <c r="AD45" s="202"/>
-      <c r="AE45" s="202"/>
-      <c r="AF45" s="202"/>
-      <c r="AG45" s="72"/>
-      <c r="AH45" s="89"/>
+      <c r="AC45" s="222"/>
+      <c r="AD45" s="222"/>
+      <c r="AE45" s="222"/>
+      <c r="AF45" s="222"/>
+      <c r="AG45" s="103"/>
+      <c r="AH45" s="104"/>
     </row>
     <row r="46" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C46" s="25">
@@ -7015,54 +7101,54 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E46" s="200">
+      <c r="E46" s="220">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F46" s="200"/>
-      <c r="G46" s="200"/>
-      <c r="H46" s="200"/>
-      <c r="I46" s="200"/>
-      <c r="J46" s="200"/>
-      <c r="K46" s="72">
+      <c r="F46" s="220"/>
+      <c r="G46" s="220"/>
+      <c r="H46" s="220"/>
+      <c r="I46" s="220"/>
+      <c r="J46" s="220"/>
+      <c r="K46" s="103">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L46" s="72"/>
-      <c r="M46" s="72"/>
-      <c r="N46" s="72"/>
-      <c r="O46" s="72"/>
-      <c r="P46" s="201">
+      <c r="L46" s="103"/>
+      <c r="M46" s="103"/>
+      <c r="N46" s="103"/>
+      <c r="O46" s="103"/>
+      <c r="P46" s="221">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q46" s="201"/>
-      <c r="R46" s="202">
+      <c r="Q46" s="221"/>
+      <c r="R46" s="222">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S46" s="202"/>
-      <c r="T46" s="202"/>
-      <c r="U46" s="202"/>
-      <c r="V46" s="202"/>
-      <c r="W46" s="202">
+      <c r="S46" s="222"/>
+      <c r="T46" s="222"/>
+      <c r="U46" s="222"/>
+      <c r="V46" s="222"/>
+      <c r="W46" s="222">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X46" s="202"/>
-      <c r="Y46" s="202"/>
-      <c r="Z46" s="202"/>
-      <c r="AA46" s="202"/>
-      <c r="AB46" s="202">
+      <c r="X46" s="222"/>
+      <c r="Y46" s="222"/>
+      <c r="Z46" s="222"/>
+      <c r="AA46" s="222"/>
+      <c r="AB46" s="222">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC46" s="202"/>
-      <c r="AD46" s="202"/>
-      <c r="AE46" s="202"/>
-      <c r="AF46" s="202"/>
-      <c r="AG46" s="72"/>
-      <c r="AH46" s="89"/>
+      <c r="AC46" s="222"/>
+      <c r="AD46" s="222"/>
+      <c r="AE46" s="222"/>
+      <c r="AF46" s="222"/>
+      <c r="AG46" s="103"/>
+      <c r="AH46" s="104"/>
     </row>
     <row r="47" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C47" s="25">
@@ -7073,54 +7159,54 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E47" s="200">
+      <c r="E47" s="220">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F47" s="200"/>
-      <c r="G47" s="200"/>
-      <c r="H47" s="200"/>
-      <c r="I47" s="200"/>
-      <c r="J47" s="200"/>
-      <c r="K47" s="72">
+      <c r="F47" s="220"/>
+      <c r="G47" s="220"/>
+      <c r="H47" s="220"/>
+      <c r="I47" s="220"/>
+      <c r="J47" s="220"/>
+      <c r="K47" s="103">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L47" s="72"/>
-      <c r="M47" s="72"/>
-      <c r="N47" s="72"/>
-      <c r="O47" s="72"/>
-      <c r="P47" s="201">
+      <c r="L47" s="103"/>
+      <c r="M47" s="103"/>
+      <c r="N47" s="103"/>
+      <c r="O47" s="103"/>
+      <c r="P47" s="221">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q47" s="201"/>
-      <c r="R47" s="202">
+      <c r="Q47" s="221"/>
+      <c r="R47" s="222">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S47" s="202"/>
-      <c r="T47" s="202"/>
-      <c r="U47" s="202"/>
-      <c r="V47" s="202"/>
-      <c r="W47" s="202">
+      <c r="S47" s="222"/>
+      <c r="T47" s="222"/>
+      <c r="U47" s="222"/>
+      <c r="V47" s="222"/>
+      <c r="W47" s="222">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X47" s="202"/>
-      <c r="Y47" s="202"/>
-      <c r="Z47" s="202"/>
-      <c r="AA47" s="202"/>
-      <c r="AB47" s="202">
+      <c r="X47" s="222"/>
+      <c r="Y47" s="222"/>
+      <c r="Z47" s="222"/>
+      <c r="AA47" s="222"/>
+      <c r="AB47" s="222">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC47" s="202"/>
-      <c r="AD47" s="202"/>
-      <c r="AE47" s="202"/>
-      <c r="AF47" s="202"/>
-      <c r="AG47" s="72"/>
-      <c r="AH47" s="89"/>
+      <c r="AC47" s="222"/>
+      <c r="AD47" s="222"/>
+      <c r="AE47" s="222"/>
+      <c r="AF47" s="222"/>
+      <c r="AG47" s="103"/>
+      <c r="AH47" s="104"/>
     </row>
     <row r="48" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C48" s="25">
@@ -7131,54 +7217,54 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E48" s="200">
+      <c r="E48" s="220">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F48" s="200"/>
-      <c r="G48" s="200"/>
-      <c r="H48" s="200"/>
-      <c r="I48" s="200"/>
-      <c r="J48" s="200"/>
-      <c r="K48" s="72">
+      <c r="F48" s="220"/>
+      <c r="G48" s="220"/>
+      <c r="H48" s="220"/>
+      <c r="I48" s="220"/>
+      <c r="J48" s="220"/>
+      <c r="K48" s="103">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L48" s="72"/>
-      <c r="M48" s="72"/>
-      <c r="N48" s="72"/>
-      <c r="O48" s="72"/>
-      <c r="P48" s="201">
+      <c r="L48" s="103"/>
+      <c r="M48" s="103"/>
+      <c r="N48" s="103"/>
+      <c r="O48" s="103"/>
+      <c r="P48" s="221">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q48" s="201"/>
-      <c r="R48" s="202">
+      <c r="Q48" s="221"/>
+      <c r="R48" s="222">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S48" s="202"/>
-      <c r="T48" s="202"/>
-      <c r="U48" s="202"/>
-      <c r="V48" s="202"/>
-      <c r="W48" s="202">
+      <c r="S48" s="222"/>
+      <c r="T48" s="222"/>
+      <c r="U48" s="222"/>
+      <c r="V48" s="222"/>
+      <c r="W48" s="222">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X48" s="202"/>
-      <c r="Y48" s="202"/>
-      <c r="Z48" s="202"/>
-      <c r="AA48" s="202"/>
-      <c r="AB48" s="202">
+      <c r="X48" s="222"/>
+      <c r="Y48" s="222"/>
+      <c r="Z48" s="222"/>
+      <c r="AA48" s="222"/>
+      <c r="AB48" s="222">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC48" s="202"/>
-      <c r="AD48" s="202"/>
-      <c r="AE48" s="202"/>
-      <c r="AF48" s="202"/>
-      <c r="AG48" s="72"/>
-      <c r="AH48" s="89"/>
+      <c r="AC48" s="222"/>
+      <c r="AD48" s="222"/>
+      <c r="AE48" s="222"/>
+      <c r="AF48" s="222"/>
+      <c r="AG48" s="103"/>
+      <c r="AH48" s="104"/>
     </row>
     <row r="49" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C49" s="25">
@@ -7189,141 +7275,141 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E49" s="200">
+      <c r="E49" s="220">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F49" s="200"/>
-      <c r="G49" s="200"/>
-      <c r="H49" s="200"/>
-      <c r="I49" s="200"/>
-      <c r="J49" s="200"/>
-      <c r="K49" s="72">
+      <c r="F49" s="220"/>
+      <c r="G49" s="220"/>
+      <c r="H49" s="220"/>
+      <c r="I49" s="220"/>
+      <c r="J49" s="220"/>
+      <c r="K49" s="103">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L49" s="72"/>
-      <c r="M49" s="72"/>
-      <c r="N49" s="72"/>
-      <c r="O49" s="72"/>
-      <c r="P49" s="201">
+      <c r="L49" s="103"/>
+      <c r="M49" s="103"/>
+      <c r="N49" s="103"/>
+      <c r="O49" s="103"/>
+      <c r="P49" s="221">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q49" s="201"/>
-      <c r="R49" s="202">
+      <c r="Q49" s="221"/>
+      <c r="R49" s="222">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S49" s="202"/>
-      <c r="T49" s="202"/>
-      <c r="U49" s="202"/>
-      <c r="V49" s="202"/>
-      <c r="W49" s="202">
+      <c r="S49" s="222"/>
+      <c r="T49" s="222"/>
+      <c r="U49" s="222"/>
+      <c r="V49" s="222"/>
+      <c r="W49" s="222">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X49" s="202"/>
-      <c r="Y49" s="202"/>
-      <c r="Z49" s="202"/>
-      <c r="AA49" s="202"/>
-      <c r="AB49" s="202">
+      <c r="X49" s="222"/>
+      <c r="Y49" s="222"/>
+      <c r="Z49" s="222"/>
+      <c r="AA49" s="222"/>
+      <c r="AB49" s="222">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC49" s="202"/>
-      <c r="AD49" s="202"/>
-      <c r="AE49" s="202"/>
-      <c r="AF49" s="202"/>
-      <c r="AG49" s="72"/>
-      <c r="AH49" s="93"/>
+      <c r="AC49" s="222"/>
+      <c r="AD49" s="222"/>
+      <c r="AE49" s="222"/>
+      <c r="AF49" s="222"/>
+      <c r="AG49" s="103"/>
+      <c r="AH49" s="109"/>
     </row>
     <row r="50" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C50" s="157" t="s">
+      <c r="C50" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="D50" s="153"/>
-      <c r="E50" s="159"/>
-      <c r="F50" s="159"/>
-      <c r="G50" s="159"/>
-      <c r="H50" s="159"/>
-      <c r="I50" s="159"/>
-      <c r="J50" s="153" t="s">
+      <c r="D50" s="172"/>
+      <c r="E50" s="178"/>
+      <c r="F50" s="178"/>
+      <c r="G50" s="178"/>
+      <c r="H50" s="178"/>
+      <c r="I50" s="178"/>
+      <c r="J50" s="172" t="s">
         <v>29</v>
       </c>
-      <c r="K50" s="153"/>
-      <c r="L50" s="155"/>
-      <c r="M50" s="155"/>
-      <c r="N50" s="155"/>
-      <c r="O50" s="155"/>
-      <c r="P50" s="153" t="s">
+      <c r="K50" s="172"/>
+      <c r="L50" s="174"/>
+      <c r="M50" s="174"/>
+      <c r="N50" s="174"/>
+      <c r="O50" s="174"/>
+      <c r="P50" s="172" t="s">
         <v>18</v>
       </c>
-      <c r="Q50" s="153"/>
-      <c r="R50" s="151">
+      <c r="Q50" s="172"/>
+      <c r="R50" s="170">
         <f>R25</f>
         <v>0</v>
       </c>
-      <c r="S50" s="151"/>
-      <c r="T50" s="151"/>
-      <c r="U50" s="151"/>
-      <c r="V50" s="149" t="s">
+      <c r="S50" s="170"/>
+      <c r="T50" s="170"/>
+      <c r="U50" s="170"/>
+      <c r="V50" s="168" t="s">
         <v>13</v>
       </c>
-      <c r="W50" s="149"/>
-      <c r="X50" s="147" t="str">
+      <c r="W50" s="168"/>
+      <c r="X50" s="166" t="str">
         <f>X25</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Y50" s="147"/>
-      <c r="Z50" s="147"/>
-      <c r="AA50" s="147"/>
-      <c r="AB50" s="139" t="s">
+      <c r="Y50" s="166"/>
+      <c r="Z50" s="166"/>
+      <c r="AA50" s="166"/>
+      <c r="AB50" s="158" t="s">
         <v>42</v>
       </c>
-      <c r="AC50" s="140"/>
-      <c r="AD50" s="143" t="str">
+      <c r="AC50" s="159"/>
+      <c r="AD50" s="162" t="str">
         <f>AD25</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AE50" s="143"/>
-      <c r="AF50" s="143"/>
-      <c r="AG50" s="143"/>
-      <c r="AH50" s="144"/>
+      <c r="AE50" s="162"/>
+      <c r="AF50" s="162"/>
+      <c r="AG50" s="162"/>
+      <c r="AH50" s="163"/>
     </row>
     <row r="51" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C51" s="158"/>
-      <c r="D51" s="154"/>
-      <c r="E51" s="160"/>
-      <c r="F51" s="160"/>
-      <c r="G51" s="160"/>
-      <c r="H51" s="160"/>
-      <c r="I51" s="160"/>
-      <c r="J51" s="154"/>
-      <c r="K51" s="154"/>
-      <c r="L51" s="156"/>
-      <c r="M51" s="156"/>
-      <c r="N51" s="156"/>
-      <c r="O51" s="156"/>
-      <c r="P51" s="154"/>
-      <c r="Q51" s="154"/>
-      <c r="R51" s="152"/>
-      <c r="S51" s="152"/>
-      <c r="T51" s="152"/>
-      <c r="U51" s="152"/>
-      <c r="V51" s="150"/>
-      <c r="W51" s="150"/>
-      <c r="X51" s="148"/>
-      <c r="Y51" s="148"/>
-      <c r="Z51" s="148"/>
-      <c r="AA51" s="148"/>
-      <c r="AB51" s="141"/>
-      <c r="AC51" s="142"/>
-      <c r="AD51" s="145"/>
-      <c r="AE51" s="145"/>
-      <c r="AF51" s="145"/>
-      <c r="AG51" s="145"/>
-      <c r="AH51" s="146"/>
+      <c r="C51" s="177"/>
+      <c r="D51" s="173"/>
+      <c r="E51" s="179"/>
+      <c r="F51" s="179"/>
+      <c r="G51" s="179"/>
+      <c r="H51" s="179"/>
+      <c r="I51" s="179"/>
+      <c r="J51" s="173"/>
+      <c r="K51" s="173"/>
+      <c r="L51" s="175"/>
+      <c r="M51" s="175"/>
+      <c r="N51" s="175"/>
+      <c r="O51" s="175"/>
+      <c r="P51" s="173"/>
+      <c r="Q51" s="173"/>
+      <c r="R51" s="171"/>
+      <c r="S51" s="171"/>
+      <c r="T51" s="171"/>
+      <c r="U51" s="171"/>
+      <c r="V51" s="169"/>
+      <c r="W51" s="169"/>
+      <c r="X51" s="167"/>
+      <c r="Y51" s="167"/>
+      <c r="Z51" s="167"/>
+      <c r="AA51" s="167"/>
+      <c r="AB51" s="160"/>
+      <c r="AC51" s="161"/>
+      <c r="AD51" s="164"/>
+      <c r="AE51" s="164"/>
+      <c r="AF51" s="164"/>
+      <c r="AG51" s="164"/>
+      <c r="AH51" s="165"/>
     </row>
     <row r="52" spans="1:34" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="53" spans="1:34" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
